--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -89,7 +89,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 9:26 AM</t>
+    <t>Wednesday, 16 July, 2025 9:28 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -89,7 +89,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 9:28 AM</t>
+    <t>Wednesday, 16 July, 2025 9:31 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -89,7 +89,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 9:31 AM</t>
+    <t>Wednesday, 16 July, 2025 9:32 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -89,7 +89,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 9:32 AM</t>
+    <t>Wednesday, 16 July, 2025 9:54 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -44,22 +44,61 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:12</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>14.1000</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>SAFETRIUM 30 F.C. TABS.</t>
   </si>
   <si>
     <t>0:3</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>90.00</t>
   </si>
   <si>
     <t>90.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
   </si>
   <si>
     <t>ريكسونا بليه بودر دراي</t>
@@ -769,18 +808,18 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -789,66 +828,165 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>25</v>
       </c>
-      <c t="s" r="Q9" s="12">
-        <v>16</v>
-      </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
-      <c r="P10" s="13">
-        <v>152</v>
-      </c>
-      <c r="Q10" s="13"/>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="14">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
         <v>26</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c t="s" r="G11" s="15">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
         <v>27</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c t="s" r="K11" s="17">
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
         <v>28</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>31</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>32</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>33</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>35</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>36</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>32</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>37</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="P13" s="13">
+        <v>259.89999999999998</v>
+      </c>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1">
+      <c t="s" r="A14" s="14">
+        <v>39</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c t="s" r="G14" s="15">
+        <v>40</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c t="s" r="K14" s="17">
+        <v>41</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="42">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -872,10 +1010,25 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:Q14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -128,7 +128,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 9:54 AM</t>
+    <t>Wednesday, 16 July, 2025 10:05 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -62,12 +62,24 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>DEPO-PEN 1.2 MIU VIAL.</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>74.00</t>
   </si>
   <si>
@@ -122,10 +134,16 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
   </si>
   <si>
     <t>Wednesday, 16 July, 2025 10:05 AM</t>
@@ -819,7 +837,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -828,14 +846,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -852,7 +870,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -861,14 +879,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -878,14 +896,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>29</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -907,18 +925,18 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -927,20 +945,20 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -951,42 +969,108 @@
         <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
-      <c r="P13" s="13">
-        <v>259.89999999999998</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c t="s" r="A14" s="14">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
         <v>39</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c t="s" r="G14" s="15">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
         <v>40</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c t="s" r="K14" s="17">
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>36</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>19</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
         <v>41</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>42</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>36</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>43</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="P15" s="13">
+        <v>287.89999999999998</v>
+      </c>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c t="s" r="A16" s="14">
+        <v>45</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c t="s" r="G16" s="15">
+        <v>46</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c t="s" r="K16" s="17">
+        <v>47</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="52">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1025,10 +1109,20 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K16:Q16"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -146,7 +146,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 10:05 AM</t>
+    <t>Wednesday, 16 July, 2025 10:06 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -86,6 +86,21 @@
     <t>74.0000</t>
   </si>
   <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -119,9 +134,6 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>37.00</t>
   </si>
   <si>
@@ -146,7 +158,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 10:06 AM</t>
+    <t>Wednesday, 16 July, 2025 10:24 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -892,18 +904,18 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -936,7 +948,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -945,20 +957,20 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -991,15 +1003,15 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1011,66 +1023,99 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
-      <c r="P15" s="13">
-        <v>287.89999999999998</v>
-      </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="14">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
         <v>45</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c t="s" r="G16" s="15">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
         <v>46</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c t="s" r="K16" s="17">
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>27</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
         <v>47</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="P16" s="13">
+        <v>314.89999999999998</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="14">
+        <v>49</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c t="s" r="G17" s="15">
+        <v>50</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c t="s" r="K17" s="17">
+        <v>51</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="57">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1119,10 +1164,15 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -77,6 +77,30 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -128,6 +152,15 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>16.3200</t>
+  </si>
+  <si>
     <t>ريكسونا بليه بودر دراي</t>
   </si>
   <si>
@@ -155,10 +188,10 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>Wednesday, 16 July, 2025 10:24 AM</t>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>Wednesday, 16 July, 2025 10:25 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -865,7 +898,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -875,14 +908,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -891,20 +924,20 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -931,7 +964,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -941,14 +974,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -957,31 +990,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -990,31 +1023,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>42</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1036,15 +1069,15 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
@@ -1056,66 +1089,165 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>50</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>51</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>35</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>52</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="16" ht="25.5" customHeight="1">
-      <c r="P16" s="13">
-        <v>314.89999999999998</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="14">
-        <v>49</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c t="s" r="G17" s="15">
-        <v>50</v>
-      </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c t="s" r="K17" s="17">
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>54</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>55</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>35</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>19</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>56</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>57</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>35</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>58</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>51</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="P19" s="13">
+        <v>363.06</v>
+      </c>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="14">
+        <v>60</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c t="s" r="G20" s="15">
+        <v>61</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c t="s" r="K20" s="17">
+        <v>62</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="72">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1169,10 +1301,25 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -191,7 +191,19 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 10:25 AM</t>
+    <t>فازلين بيور وسط</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>Wednesday, 16 July, 2025 10:28 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1216,38 +1228,71 @@
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
-      <c r="P19" s="13">
-        <v>363.06</v>
-      </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="14">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
         <v>60</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c t="s" r="G20" s="15">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
         <v>61</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c t="s" r="K20" s="17">
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>35</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
         <v>62</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="P20" s="13">
+        <v>393.06</v>
+      </c>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c t="s" r="A21" s="14">
+        <v>64</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c t="s" r="G21" s="15">
+        <v>65</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c t="s" r="K21" s="17">
+        <v>66</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="77">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1316,10 +1361,15 @@
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -203,7 +203,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 10:28 AM</t>
+    <t>Wednesday, 16 July, 2025 10:50 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -161,6 +161,18 @@
     <t>16.3200</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>42:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>ريكسونا بليه بودر دراي</t>
   </si>
   <si>
@@ -179,12 +191,21 @@
     <t>7:0</t>
   </si>
   <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>3.00</t>
   </si>
   <si>
@@ -203,7 +224,16 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 10:50 AM</t>
+    <t>قطن 50جم</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>Wednesday, 16 July, 2025 11:32 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1184,11 +1214,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1200,14 +1230,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1217,14 +1247,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1261,38 +1291,137 @@
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
-      <c r="P20" s="13">
-        <v>393.06</v>
-      </c>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c t="s" r="A21" s="14">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
         <v>64</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c t="s" r="G21" s="15">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>61</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>35</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
         <v>65</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c t="s" r="K21" s="17">
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
         <v>66</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
+      <c t="s" r="Q20" s="12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>67</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>68</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>35</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>69</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>71</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>55</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>35</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>72</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="P23" s="13">
+        <v>420.06</v>
+      </c>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c t="s" r="A24" s="14">
+        <v>74</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c t="s" r="G24" s="15">
+        <v>75</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c t="s" r="K24" s="17">
+        <v>76</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="92">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1366,10 +1495,25 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="K24:Q24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -110,6 +110,30 @@
     <t>74.0000</t>
   </si>
   <si>
+    <t>GOUTYLESS 30 TABS</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -137,9 +161,6 @@
     <t>14.1000</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>SAFETRIUM 30 F.C. TABS.</t>
   </si>
   <si>
@@ -152,12 +173,21 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
-    <t>102.00</t>
-  </si>
-  <si>
     <t>16.3200</t>
   </si>
   <si>
@@ -200,7 +230,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>4.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -212,12 +242,18 @@
     <t>6.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
     <t>فازلين بيور وسط</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>30.00</t>
   </si>
   <si>
@@ -233,7 +269,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 11:32 AM</t>
+    <t>Wednesday, 16 July, 2025 12:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1045,15 +1081,15 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1065,14 +1101,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1082,14 +1118,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1098,31 +1134,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1131,14 +1167,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1155,7 +1191,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1177,7 +1213,7 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1210,7 +1246,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1237,24 +1273,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1276,7 +1312,7 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1303,24 +1339,24 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1329,28 +1365,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1362,20 +1398,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1386,42 +1422,174 @@
         <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>74</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>71</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>43</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>75</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>77</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>78</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>43</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>79</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="23" ht="24.75" customHeight="1">
-      <c r="P23" s="13">
-        <v>420.06</v>
-      </c>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c t="s" r="A24" s="14">
-        <v>74</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c t="s" r="G24" s="15">
-        <v>75</v>
-      </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c t="s" r="K24" s="17">
-        <v>76</v>
-      </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>80</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>55</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>43</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>81</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>83</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>65</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>43</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>84</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="P27" s="13">
+        <v>512.59000000000003</v>
+      </c>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
+      <c t="s" r="A28" s="14">
+        <v>86</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c t="s" r="G28" s="15">
+        <v>87</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c t="s" r="K28" s="17">
+        <v>88</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="112">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1510,10 +1678,30 @@
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:Q28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -62,21 +62,30 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>DEPO-PEN 1.2 MIU VIAL.</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>25.00</t>
   </si>
   <si>
     <t>25.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
@@ -269,7 +278,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 12:01 PM</t>
+    <t>Wednesday, 16 July, 2025 12:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -976,7 +985,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -986,14 +995,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1002,14 +1011,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1019,11 +1028,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1035,14 +1044,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1059,7 +1068,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1075,7 +1084,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1085,14 +1094,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1101,14 +1110,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1118,11 +1127,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1134,28 +1143,28 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1167,31 +1176,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1200,14 +1209,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1217,14 +1226,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1233,14 +1242,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1250,11 +1259,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1266,14 +1275,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1283,14 +1292,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1299,31 +1308,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1332,28 +1341,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1365,28 +1374,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1398,31 +1407,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1431,20 +1440,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1455,7 +1464,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1471,24 +1480,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1504,21 +1513,21 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1537,13 +1546,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1558,38 +1567,71 @@
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
-      <c r="P27" s="13">
-        <v>512.59000000000003</v>
-      </c>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
         <v>86</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>68</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>46</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
         <v>87</v>
       </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
         <v>88</v>
       </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+      <c t="s" r="Q27" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>535.59000000000003</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>89</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>90</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>91</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1698,10 +1740,15 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -278,7 +278,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 12:02 PM</t>
+    <t>Wednesday, 16 July, 2025 12:03 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -110,6 +110,33 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>7:3</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>19.9200</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -119,6 +146,15 @@
     <t>74.0000</t>
   </si>
   <si>
+    <t>GOUTIFADE 40 MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>GOUTYLESS 30 TABS</t>
   </si>
   <si>
@@ -278,7 +314,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 12:03 PM</t>
+    <t>Wednesday, 16 July, 2025 12:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1084,7 +1120,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1094,14 +1130,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1110,14 +1146,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1127,14 +1163,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1143,14 +1179,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1160,14 +1196,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1176,28 +1212,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1209,14 +1245,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1226,14 +1262,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1242,14 +1278,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1259,14 +1295,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1275,20 +1311,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1299,7 +1335,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1315,7 +1351,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1325,14 +1361,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1341,28 +1377,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1374,28 +1410,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1407,31 +1443,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1440,31 +1476,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1473,31 +1509,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1506,28 +1542,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1539,31 +1575,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1572,66 +1608,165 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q27" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>92</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>93</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>58</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>94</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>535.59000000000003</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
-        <v>89</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
-        <v>90</v>
-      </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
-        <v>91</v>
-      </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>95</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>70</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>58</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>96</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>98</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>80</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>58</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>99</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>616.34000000000003</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
+        <v>101</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>102</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>103</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1745,10 +1880,25 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -314,7 +314,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 12:27 PM</t>
+    <t>Wednesday, 16 July, 2025 12:32 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -62,6 +62,27 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>AVEROCOXIB 90 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>228.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -77,6 +98,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>DEPO-PEN 1.2 MIU VIAL.</t>
   </si>
   <si>
@@ -98,6 +131,15 @@
     <t>13.0000</t>
   </si>
   <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -125,6 +167,36 @@
     <t>0:5</t>
   </si>
   <si>
+    <t>FERROTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>138.0000</t>
+  </si>
+  <si>
+    <t>FLACORT 30MG 20 TAB</t>
+  </si>
+  <si>
+    <t>164.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>FLIX NASAL SPRAY 50 MCG/METERED SPRAY DOSE</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
@@ -137,6 +209,18 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>GAPTIN 300 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -158,15 +242,21 @@
     <t>GOUTYLESS 30 TABS</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>102.00</t>
   </si>
   <si>
     <t>33.6600</t>
   </si>
   <si>
+    <t>MAVILOR 5MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
@@ -179,6 +269,15 @@
     <t>12.8700</t>
   </si>
   <si>
+    <t>OTAL EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -194,6 +293,12 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -218,6 +323,15 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>THIOTACID 300MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
     <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
   </si>
   <si>
@@ -236,6 +350,15 @@
     <t>16.3200</t>
   </si>
   <si>
+    <t>XITHRONE 200 MG/5ML SUSP. 25 ML</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -248,12 +371,21 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>جل هير كود 185 مل</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>ريكسونا بليه بودر دراي</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>37.00</t>
   </si>
   <si>
@@ -296,6 +428,15 @@
     <t>6.00</t>
   </si>
   <si>
+    <t>صابون هارفى SUPP</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>فازلين بيور وسط</t>
   </si>
   <si>
@@ -314,7 +455,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 12:32 PM</t>
+    <t>Wednesday, 16 July, 2025 3:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -988,7 +1129,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -998,14 +1139,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1014,14 +1155,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1031,14 +1172,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1047,14 +1188,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1064,14 +1205,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>27</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>28</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1104,7 +1245,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1120,7 +1261,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1130,14 +1271,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1146,14 +1287,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1163,14 +1304,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1179,7 +1320,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1196,14 +1337,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1212,14 +1353,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1229,11 +1370,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1245,14 +1386,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1262,14 +1403,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>50</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>51</v>
-      </c>
-      <c t="s" r="Q16" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1302,7 +1443,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1318,21 +1459,21 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1344,14 +1485,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1361,14 +1502,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1377,14 +1518,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1394,14 +1535,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1410,14 +1551,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1427,14 +1568,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1443,14 +1584,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1460,14 +1601,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1476,31 +1617,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1509,31 +1650,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1542,31 +1683,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1575,31 +1716,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1608,31 +1749,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>80</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1641,31 +1782,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1674,31 +1815,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1707,66 +1848,561 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
         <v>100</v>
       </c>
-      <c t="s" r="Q30" s="12">
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>101</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>13</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>102</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>104</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>16</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>13</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>105</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>107</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>108</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>13</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>109</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>111</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>53</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>13</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>77</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>113</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
         <v>21</v>
       </c>
-    </row>
-    <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>616.34000000000003</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
-        <v>101</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
-        <v>102</v>
-      </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
-        <v>103</v>
-      </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>13</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>114</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>116</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>117</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>91</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>118</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>120</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>121</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>91</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>122</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>124</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>21</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>91</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>125</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>127</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>128</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>91</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>34</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>129</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>130</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>91</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>131</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>133</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>130</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>91</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>134</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>136</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>137</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>91</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>138</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>139</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>130</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>91</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>140</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>142</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>108</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>91</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>143</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>145</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>21</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>91</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>146</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="P46" s="13">
+        <v>1498.8</v>
+      </c>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="14">
+        <v>148</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c t="s" r="G47" s="15">
+        <v>149</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c t="s" r="K47" s="17">
+        <v>150</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="207">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1895,10 +2531,85 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -455,7 +455,16 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 3:18 PM</t>
+    <t>كريم 555</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>Wednesday, 16 July, 2025 3:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2371,38 +2380,71 @@
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
-      <c r="P46" s="13">
-        <v>1498.8</v>
-      </c>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="14">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
         <v>148</v>
       </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c t="s" r="G47" s="15">
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>121</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>91</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
         <v>149</v>
       </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c t="s" r="K47" s="17">
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
         <v>150</v>
       </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
+      <c t="s" r="Q46" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>1518.8</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
+        <v>151</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>152</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>153</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2606,10 +2648,15 @@
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -464,7 +464,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 3:24 PM</t>
+    <t>Wednesday, 16 July, 2025 3:27 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -464,7 +464,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 3:27 PM</t>
+    <t>Wednesday, 16 July, 2025 3:28 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -464,7 +464,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 3:28 PM</t>
+    <t>Wednesday, 16 July, 2025 3:35 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>AVEROCOXIB 90 MG 20 F.C. TABS.</t>
   </si>
   <si>
@@ -110,6 +122,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>COLOVERIN A 30 TABLETS</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
     <t>DEPO-PEN 1.2 MIU VIAL.</t>
   </si>
   <si>
@@ -269,6 +290,12 @@
     <t>12.8700</t>
   </si>
   <si>
+    <t>NEVILOB 2.5 MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
     <t>OTAL EAR DROPS 5 ML</t>
   </si>
   <si>
@@ -323,6 +350,12 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
     <t>THIOTACID 300MG 30 TAB.</t>
   </si>
   <si>
@@ -344,6 +377,12 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 1% EMULGEL 25 GM</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -464,7 +503,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 3:35 PM</t>
+    <t>Wednesday, 16 July, 2025 4:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1138,7 +1177,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1148,11 +1187,11 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>16</v>
@@ -1164,14 +1203,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1221,7 +1260,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1230,14 +1269,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1247,14 +1286,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>32</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>28</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1270,7 +1309,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1280,14 +1319,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1296,14 +1335,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1336,7 +1375,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1353,7 +1392,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1402,7 +1441,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1412,14 +1451,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1428,14 +1467,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1445,14 +1484,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1461,14 +1500,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1478,14 +1517,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>58</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1501,7 +1540,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1511,14 +1550,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1527,14 +1566,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1551,7 +1590,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1567,7 +1606,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1577,14 +1616,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1593,14 +1632,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1617,7 +1656,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1633,7 +1672,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1643,11 +1682,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1659,14 +1698,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1676,14 +1715,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1692,14 +1731,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1709,11 +1748,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1725,14 +1764,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1765,7 +1804,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1782,7 +1821,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1804,15 +1843,15 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1824,14 +1863,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1841,11 +1880,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1857,14 +1896,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1874,14 +1913,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1890,31 +1929,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1923,14 +1962,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1940,11 +1979,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1956,14 +1995,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1973,14 +2012,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1989,14 +2028,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2006,14 +2045,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2029,7 +2068,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2039,14 +2078,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2055,31 +2094,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2088,31 +2127,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2121,31 +2160,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2154,31 +2193,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2187,31 +2226,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2220,7 +2259,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2233,18 +2272,18 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2253,31 +2292,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2286,31 +2325,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2319,31 +2358,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2352,31 +2391,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2385,66 +2424,231 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>149</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
         <v>150</v>
       </c>
-      <c t="s" r="Q46" s="12">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>1518.8</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>100</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
         <v>151</v>
       </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
         <v>152</v>
       </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>143</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>100</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
         <v>153</v>
       </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>155</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>119</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>100</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>156</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>158</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>25</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>100</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>159</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>161</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>134</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>100</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>162</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="P52" s="13">
+        <v>1664.9500000000001</v>
+      </c>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c t="s" r="A53" s="14">
+        <v>164</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c t="s" r="G53" s="15">
+        <v>165</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+      <c t="s" r="K53" s="17">
+        <v>166</v>
+      </c>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="237">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2653,10 +2857,35 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="K53:Q53"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
     <t>19.8000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
@@ -269,6 +281,15 @@
     <t>33.6600</t>
   </si>
   <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
     <t>MAVILOR 5MG 30 TAB.</t>
   </si>
   <si>
@@ -461,12 +482,15 @@
     <t xml:space="preserve">شاش 7 سم </t>
   </si>
   <si>
-    <t>19:0</t>
+    <t>18:0</t>
   </si>
   <si>
     <t>6.00</t>
   </si>
   <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>صابون هارفى SUPP</t>
   </si>
   <si>
@@ -503,7 +527,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 4:26 PM</t>
+    <t>Wednesday, 16 July, 2025 5:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1210,7 +1234,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1220,11 +1244,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -1236,14 +1260,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1293,7 +1317,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1302,14 +1326,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1319,14 +1343,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>36</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>32</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1342,7 +1366,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1352,14 +1376,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1368,14 +1392,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1385,14 +1409,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1401,14 +1425,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1425,7 +1449,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1441,7 +1465,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1451,11 +1475,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1467,14 +1491,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1524,7 +1548,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1533,14 +1557,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1550,14 +1574,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>62</v>
-      </c>
-      <c t="s" r="Q19" s="12">
-        <v>32</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1573,7 +1597,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1583,14 +1607,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1599,14 +1623,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1616,14 +1640,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1632,14 +1656,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1656,7 +1680,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1689,7 +1713,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1705,7 +1729,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1715,14 +1739,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1731,14 +1755,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1748,14 +1772,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1764,14 +1788,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1781,11 +1805,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1797,14 +1821,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1814,11 +1838,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1830,14 +1854,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1870,7 +1894,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1884,7 +1908,7 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1896,14 +1920,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1913,14 +1937,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1929,20 +1953,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1950,7 +1974,7 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1962,14 +1986,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1979,14 +2003,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2008,18 +2032,18 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2028,14 +2052,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2045,14 +2069,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2061,14 +2085,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2078,14 +2102,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2094,14 +2118,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2111,14 +2135,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2127,14 +2151,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2144,14 +2168,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2167,7 +2191,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2177,14 +2201,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2193,14 +2217,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2210,14 +2234,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2226,14 +2250,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2243,14 +2267,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2259,31 +2283,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2299,24 +2323,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2325,20 +2349,20 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>25</v>
+        <v>137</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2349,7 +2373,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2371,18 +2395,18 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2391,31 +2415,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>143</v>
+        <v>29</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2424,31 +2448,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>148</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2470,7 +2494,7 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2478,10 +2502,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2490,31 +2514,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2523,31 +2547,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2556,31 +2580,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2589,66 +2613,132 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
-      <c r="P52" s="13">
-        <v>1664.9500000000001</v>
-      </c>
-      <c r="Q52" s="13"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c t="s" r="A53" s="14">
-        <v>164</v>
-      </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c t="s" r="G53" s="15">
-        <v>165</v>
-      </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="16"/>
-      <c t="s" r="K53" s="17">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
         <v>166</v>
       </c>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>29</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>107</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>167</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>169</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>141</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>107</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>170</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>171</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="P54" s="13">
+        <v>1786.1600000000001</v>
+      </c>
+      <c r="Q54" s="13"/>
+    </row>
+    <row r="55" ht="16.5" customHeight="1">
+      <c t="s" r="A55" s="14">
+        <v>172</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c t="s" r="G55" s="15">
+        <v>173</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
+      <c t="s" r="K55" s="17">
+        <v>174</v>
+      </c>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="237">
+  <mergeCells count="247">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2882,10 +2972,20 @@
     <mergeCell ref="H51:K51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="K55:Q55"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -527,7 +527,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 5:06 PM</t>
+    <t>Wednesday, 16 July, 2025 5:29 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -95,6 +95,18 @@
     <t>114.0000</t>
   </si>
   <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>28.5000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
@@ -143,6 +155,30 @@
     <t>32.6700</t>
   </si>
   <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>DEPO-PEN 1.2 MIU VIAL.</t>
   </si>
   <si>
@@ -152,6 +188,12 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
@@ -203,9 +245,6 @@
     <t>FERROTRON 30 CAPS</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>138.00</t>
   </si>
   <si>
@@ -362,9 +401,6 @@
     <t>SAFETRIUM 30 F.C. TABS.</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>90.00</t>
   </si>
   <si>
@@ -443,6 +479,15 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>ريكسونا بليه بودر دراي</t>
   </si>
   <si>
@@ -467,7 +512,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
+    <t>10.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -515,19 +560,19 @@
     <t>10.00</t>
   </si>
   <si>
-    <t>10.0000</t>
+    <t xml:space="preserve">كالونا </t>
   </si>
   <si>
     <t>كريم 555</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>Wednesday, 16 July, 2025 5:29 PM</t>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>Wednesday, 16 July, 2025 5:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1300,7 +1345,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1310,14 +1355,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>31</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1350,7 +1395,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1359,14 +1404,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1376,14 +1421,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>40</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>36</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1399,7 +1444,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1409,14 +1454,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1425,14 +1470,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1442,14 +1487,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1458,14 +1503,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1475,11 +1520,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1491,14 +1536,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1508,14 +1553,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1524,14 +1569,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1541,14 +1586,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1557,14 +1602,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1574,14 +1619,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1590,14 +1635,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1607,14 +1652,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1623,14 +1668,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1640,11 +1685,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1656,14 +1701,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1673,14 +1718,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1689,14 +1734,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1706,14 +1751,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>76</v>
-      </c>
-      <c t="s" r="Q23" s="12">
-        <v>36</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1729,7 +1774,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1739,14 +1784,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1755,14 +1800,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1772,14 +1817,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1788,14 +1833,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1805,14 +1850,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1821,14 +1866,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1845,7 +1890,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1861,7 +1906,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1871,11 +1916,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1887,14 +1932,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1904,14 +1949,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1920,14 +1965,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1960,7 +2005,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1974,7 +2019,7 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1986,14 +2031,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2003,14 +2048,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2019,28 +2064,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2052,14 +2097,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2069,11 +2114,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2085,14 +2130,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2106,10 +2151,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2118,14 +2163,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2135,14 +2180,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2151,28 +2196,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2184,14 +2229,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2201,7 +2246,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2241,7 +2286,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2257,7 +2302,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2267,14 +2312,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2283,14 +2328,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2300,11 +2345,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2316,14 +2361,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2333,14 +2378,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2349,31 +2394,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2382,31 +2427,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>141</v>
+        <v>33</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2415,31 +2460,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2448,31 +2493,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>148</v>
+        <v>33</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2481,31 +2526,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2514,20 +2559,20 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2538,7 +2583,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2554,24 +2599,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2580,31 +2625,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>33</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2613,31 +2658,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>164</v>
+        <v>57</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>165</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2646,31 +2691,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>29</v>
+        <v>165</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>36</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2679,66 +2724,297 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
         <v>171</v>
       </c>
-      <c t="s" r="Q53" s="12">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="54" ht="25.5" customHeight="1">
-      <c r="P54" s="13">
-        <v>1786.1600000000001</v>
-      </c>
-      <c r="Q54" s="13"/>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c t="s" r="A55" s="14">
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
         <v>172</v>
       </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c t="s" r="G55" s="15">
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>120</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
         <v>173</v>
       </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="16"/>
-      <c t="s" r="K55" s="17">
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
         <v>174</v>
       </c>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
+      <c t="s" r="Q54" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>175</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>165</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>120</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>176</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>178</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>138</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>120</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>179</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>181</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>33</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>120</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>182</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>183</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>165</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>120</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>150</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>184</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>153</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>120</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>157</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>185</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>69</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>120</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>74</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>186</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="P61" s="13">
+        <v>2026.885</v>
+      </c>
+      <c r="Q61" s="13"/>
+    </row>
+    <row r="62" ht="16.5" customHeight="1">
+      <c t="s" r="A62" s="14">
+        <v>187</v>
+      </c>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c t="s" r="G62" s="15">
+        <v>188</v>
+      </c>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
+      <c t="s" r="K62" s="17">
+        <v>189</v>
+      </c>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="247">
+  <mergeCells count="282">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2982,10 +3258,45 @@
     <mergeCell ref="H53:K53"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="K62:Q62"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -572,7 +572,7 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 5:31 PM</t>
+    <t>Wednesday, 16 July, 2025 5:36 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -566,13 +566,19 @@
     <t>كريم 555</t>
   </si>
   <si>
+    <t>محلول رينجر</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
     <t>72.0000</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 5:36 PM</t>
+    <t>Wednesday, 16 July, 2025 5:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2962,7 +2968,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>69</v>
+        <v>165</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2979,42 +2985,75 @@
         <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>187</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>69</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>120</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>74</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>188</v>
+      </c>
+      <c t="s" r="Q61" s="12">
         <v>153</v>
       </c>
     </row>
-    <row r="61" ht="25.5" customHeight="1">
-      <c r="P61" s="13">
-        <v>2026.885</v>
-      </c>
-      <c r="Q61" s="13"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c t="s" r="A62" s="14">
-        <v>187</v>
-      </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c t="s" r="G62" s="15">
-        <v>188</v>
-      </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="16"/>
-      <c t="s" r="K62" s="17">
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="P62" s="13">
+        <v>2050.8850000000002</v>
+      </c>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="14">
         <v>189</v>
       </c>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c t="s" r="G63" s="15">
+        <v>190</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c t="s" r="K63" s="17">
+        <v>191</v>
+      </c>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="282">
+  <mergeCells count="287">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3293,10 +3332,15 @@
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="K63:Q63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -578,7 +578,7 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 5:37 PM</t>
+    <t>Wednesday, 16 July, 2025 5:39 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -422,6 +422,9 @@
     <t>49.5000</t>
   </si>
   <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
     <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
   </si>
   <si>
@@ -578,7 +581,7 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 5:39 PM</t>
+    <t>Wednesday, 16 July, 2025 5:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2407,7 +2410,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2417,11 +2420,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>139</v>
+        <v>43</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>40</v>
@@ -2433,14 +2436,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2450,11 +2453,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>40</v>
@@ -2466,14 +2469,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2483,14 +2486,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2499,14 +2502,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2516,14 +2519,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2532,28 +2535,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>149</v>
+        <v>33</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>40</v>
@@ -2565,14 +2568,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2582,11 +2585,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>40</v>
@@ -2598,14 +2601,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2615,11 +2618,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>40</v>
@@ -2631,14 +2634,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2648,11 +2651,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>40</v>
@@ -2664,14 +2667,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>163</v>
+        <v>33</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2681,11 +2684,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>58</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>40</v>
@@ -2697,14 +2700,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2714,14 +2717,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>166</v>
+        <v>57</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>138</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2730,14 +2733,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2747,14 +2750,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>33</v>
+        <v>139</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2763,14 +2766,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2780,11 +2783,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>33</v>
@@ -2796,14 +2799,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2813,14 +2816,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2829,14 +2832,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2846,11 +2849,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>40</v>
@@ -2862,14 +2865,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2879,11 +2882,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>40</v>
@@ -2895,14 +2898,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>165</v>
+        <v>33</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2912,11 +2915,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>40</v>
@@ -2935,7 +2938,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2945,11 +2948,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>40</v>
@@ -2968,7 +2971,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2978,11 +2981,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>40</v>
@@ -2994,14 +2997,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>69</v>
+        <v>166</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3015,45 +3018,78 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
         <v>188</v>
       </c>
-      <c t="s" r="Q61" s="12">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="62" ht="25.5" customHeight="1">
-      <c r="P62" s="13">
-        <v>2050.8850000000002</v>
-      </c>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="14">
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>69</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>120</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>74</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
         <v>189</v>
       </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c t="s" r="G63" s="15">
+      <c t="s" r="Q62" s="12">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="P63" s="13">
+        <v>2081.8850000000002</v>
+      </c>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
         <v>190</v>
       </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c t="s" r="K63" s="17">
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
         <v>191</v>
       </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>192</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3337,10 +3373,15 @@
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -272,13 +272,13 @@
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
-    <t>10:0</t>
+    <t>9:0</t>
   </si>
   <si>
     <t>44.00</t>
   </si>
   <si>
-    <t>44.0000</t>
+    <t>88.0000</t>
   </si>
   <si>
     <t>GAPTIN 300 MG 30 CAPS</t>
@@ -458,6 +458,12 @@
     <t>89.0000</t>
   </si>
   <si>
+    <t>ZINCTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -509,9 +515,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>2.00</t>
   </si>
   <si>
@@ -581,7 +584,7 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 5:47 PM</t>
+    <t>Wednesday, 16 July, 2025 5:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1899,7 +1902,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2581,18 +2584,18 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>92</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2601,14 +2604,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2618,11 +2621,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>40</v>
@@ -2634,14 +2637,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2651,11 +2654,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>40</v>
@@ -2667,14 +2670,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>33</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2684,11 +2687,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>40</v>
@@ -2700,14 +2703,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>164</v>
+        <v>33</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2717,11 +2720,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>58</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>40</v>
@@ -2750,14 +2753,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>167</v>
+        <v>57</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>168</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>139</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2766,14 +2769,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2783,14 +2786,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>33</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2799,14 +2802,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2816,11 +2819,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>33</v>
@@ -2832,14 +2835,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2849,14 +2852,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2865,14 +2868,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2882,11 +2885,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>40</v>
@@ -2898,14 +2901,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2915,11 +2918,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>40</v>
@@ -2931,14 +2934,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>166</v>
+        <v>33</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2948,11 +2951,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>40</v>
@@ -2971,7 +2974,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2981,11 +2984,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>40</v>
@@ -3004,7 +3007,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3014,11 +3017,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>40</v>
@@ -3030,14 +3033,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3051,45 +3054,78 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
+        <v>188</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
         <v>189</v>
       </c>
-      <c t="s" r="Q62" s="12">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="63" ht="24.75" customHeight="1">
-      <c r="P63" s="13">
-        <v>2081.8850000000002</v>
-      </c>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>69</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>120</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>74</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
         <v>190</v>
       </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
+      <c t="s" r="Q63" s="12">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="P64" s="13">
+        <v>2167.4650000000001</v>
+      </c>
+      <c r="Q64" s="13"/>
+    </row>
+    <row r="65" ht="16.5" customHeight="1">
+      <c t="s" r="A65" s="14">
         <v>191</v>
       </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c t="s" r="G65" s="15">
         <v>192</v>
       </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c t="s" r="K65" s="17">
+        <v>193</v>
+      </c>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="297">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3378,10 +3414,15 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="K65:Q65"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -356,6 +356,12 @@
     <t>46.00</t>
   </si>
   <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
     <t>OTAL EAR DROPS 5 ML</t>
   </si>
   <si>
@@ -386,6 +392,12 @@
     <t>51.0000</t>
   </si>
   <si>
+    <t>PERIOCARE MOUTH SPRAY</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -584,7 +596,7 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 5:48 PM</t>
+    <t>Wednesday, 16 July, 2025 6:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2182,7 +2194,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2196,10 +2208,10 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2208,31 +2220,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2241,24 +2253,24 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2281,7 +2293,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2291,14 +2303,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2307,28 +2319,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>40</v>
@@ -2340,14 +2352,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2357,14 +2369,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2373,14 +2385,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2390,14 +2402,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2406,14 +2418,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2423,14 +2435,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2446,7 +2458,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2456,14 +2468,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2472,14 +2484,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2489,11 +2501,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>40</v>
@@ -2505,14 +2517,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2522,14 +2534,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2555,11 +2567,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>40</v>
@@ -2571,14 +2583,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2588,11 +2600,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2604,28 +2616,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>152</v>
+        <v>33</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>40</v>
@@ -2637,31 +2649,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>92</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2670,7 +2682,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2683,15 +2695,15 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>40</v>
@@ -2703,28 +2715,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>40</v>
@@ -2736,28 +2748,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>57</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>58</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>40</v>
@@ -2769,31 +2781,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>150</v>
+        <v>33</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>139</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2802,31 +2814,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2835,31 +2847,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>33</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2868,31 +2880,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2901,31 +2913,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2934,28 +2946,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>40</v>
@@ -2967,28 +2979,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>40</v>
@@ -3000,28 +3012,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>156</v>
+        <v>33</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>40</v>
@@ -3033,28 +3045,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>40</v>
@@ -3066,66 +3078,132 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>69</v>
+        <v>160</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>156</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
-      <c r="P64" s="13">
-        <v>2167.4650000000001</v>
-      </c>
-      <c r="Q64" s="13"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c t="s" r="A65" s="14">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
         <v>191</v>
       </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c t="s" r="G65" s="15">
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>154</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>122</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>74</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
         <v>192</v>
       </c>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="16"/>
-      <c t="s" r="K65" s="17">
+      <c t="s" r="Q64" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
         <v>193</v>
       </c>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>69</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>122</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>74</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>194</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="P66" s="13">
+        <v>2303.4650000000001</v>
+      </c>
+      <c r="Q66" s="13"/>
+    </row>
+    <row r="67" ht="16.5" customHeight="1">
+      <c t="s" r="A67" s="14">
+        <v>195</v>
+      </c>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c t="s" r="G67" s="15">
+        <v>196</v>
+      </c>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="16"/>
+      <c t="s" r="K67" s="17">
+        <v>197</v>
+      </c>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="297">
+  <mergeCells count="307">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3419,10 +3497,20 @@
     <mergeCell ref="H63:K63"/>
     <mergeCell ref="L63:M63"/>
     <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="K67:Q67"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -596,7 +596,7 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 6:05 PM</t>
+    <t>Wednesday, 16 July, 2025 6:06 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -146,6 +146,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>CIDOPHAGE RETARD 850MG 60 S.R. TABS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>COLOVERIN A 30 TABLETS</t>
   </si>
   <si>
@@ -206,6 +215,12 @@
     <t>13.0000</t>
   </si>
   <si>
+    <t>DIAMICRON MR 30 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
@@ -395,9 +410,6 @@
     <t>PERIOCARE MOUTH SPRAY</t>
   </si>
   <si>
-    <t>60.0000</t>
-  </si>
-  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -596,7 +608,7 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 6:06 PM</t>
+    <t>Wednesday, 16 July, 2025 6:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1518,7 +1530,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1534,7 +1546,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1544,11 +1556,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1560,14 +1572,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1577,14 +1589,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1593,14 +1605,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1633,7 +1645,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1643,11 +1655,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>40</v>
@@ -1659,14 +1671,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1676,14 +1688,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1692,14 +1704,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1732,7 +1744,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1742,14 +1754,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1758,14 +1770,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1775,14 +1787,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1791,14 +1803,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1808,14 +1820,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1824,14 +1836,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1841,14 +1853,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1857,14 +1869,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1874,11 +1886,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>40</v>
@@ -1890,14 +1902,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1907,14 +1919,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1923,14 +1935,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1940,14 +1952,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1956,14 +1968,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1973,14 +1985,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1989,14 +2001,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2006,11 +2018,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2022,14 +2034,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2039,14 +2051,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2055,7 +2067,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2072,11 +2084,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2088,14 +2100,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2105,11 +2117,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2121,14 +2133,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2138,11 +2150,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2154,14 +2166,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2171,11 +2183,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2187,14 +2199,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2208,7 +2220,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2220,14 +2232,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2237,14 +2249,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2260,21 +2272,21 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2286,14 +2298,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2303,14 +2315,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2319,31 +2331,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2352,14 +2364,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2369,14 +2381,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2385,28 +2397,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>40</v>
@@ -2418,14 +2430,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2435,14 +2447,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2451,14 +2463,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2468,14 +2480,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2484,14 +2496,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2501,14 +2513,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2524,7 +2536,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2534,14 +2546,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2550,14 +2562,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2567,11 +2579,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>40</v>
@@ -2583,14 +2595,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2600,14 +2612,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2633,11 +2645,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>40</v>
@@ -2649,14 +2661,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>52</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2666,11 +2678,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2682,28 +2694,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>33</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>40</v>
@@ -2715,31 +2727,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>97</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2748,7 +2760,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2761,15 +2773,15 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>40</v>
@@ -2781,28 +2793,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>33</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>40</v>
@@ -2814,28 +2826,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>57</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>40</v>
@@ -2847,31 +2859,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>143</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2880,31 +2892,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>60</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2913,31 +2925,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>33</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2946,31 +2958,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2979,31 +2991,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3012,28 +3024,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>33</v>
+        <v>158</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>40</v>
@@ -3045,28 +3057,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>40</v>
@@ -3078,28 +3090,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>160</v>
+        <v>33</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>40</v>
@@ -3111,28 +3123,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>40</v>
@@ -3144,66 +3156,132 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>69</v>
+        <v>164</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>160</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
-      <c r="P66" s="13">
-        <v>2303.4650000000001</v>
-      </c>
-      <c r="Q66" s="13"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c t="s" r="A67" s="14">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
         <v>195</v>
       </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c t="s" r="G67" s="15">
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>158</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>127</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>79</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
         <v>196</v>
       </c>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="16"/>
-      <c t="s" r="K67" s="17">
+      <c t="s" r="Q66" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
         <v>197</v>
       </c>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>74</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>127</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>79</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>198</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="P68" s="13">
+        <v>2459.4650000000001</v>
+      </c>
+      <c r="Q68" s="13"/>
+    </row>
+    <row r="69" ht="16.5" customHeight="1">
+      <c t="s" r="A69" s="14">
+        <v>199</v>
+      </c>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c t="s" r="G69" s="15">
+        <v>200</v>
+      </c>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16"/>
+      <c t="s" r="K69" s="17">
+        <v>201</v>
+      </c>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="307">
+  <mergeCells count="317">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3507,10 +3585,20 @@
     <mergeCell ref="H65:K65"/>
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="K69:Q69"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>1 2 3 (ONE TWO THREE) SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
     <t>2:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>87.00</t>
   </si>
   <si>
@@ -131,9 +143,6 @@
     <t>23.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -500,6 +509,12 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
     <t>جل هير كود 185 مل</t>
   </si>
   <si>
@@ -554,6 +569,18 @@
     <t>6.0000</t>
   </si>
   <si>
+    <t>شاش 15 سم</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">شاش 7 سم </t>
   </si>
   <si>
@@ -605,10 +632,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>Wednesday, 16 July, 2025 6:21 PM</t>
+    <t>Wednesday, 16 July, 2025 6:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1266,7 +1290,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1275,14 +1299,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1292,14 +1316,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1332,7 +1356,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1348,7 +1372,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1358,14 +1382,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1374,14 +1398,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1391,14 +1415,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1414,7 +1438,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1424,14 +1448,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>35</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1464,7 +1488,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1473,14 +1497,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1490,14 +1514,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1506,14 +1530,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1530,7 +1554,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1546,7 +1570,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1563,7 +1587,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1579,7 +1603,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1589,14 +1613,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1605,14 +1629,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1622,14 +1646,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1638,14 +1662,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1662,7 +1686,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1678,7 +1702,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1688,14 +1712,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1704,14 +1728,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1721,14 +1745,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1737,14 +1761,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1754,14 +1778,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1770,14 +1794,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1787,14 +1811,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1810,7 +1834,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1820,14 +1844,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1836,14 +1860,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1853,14 +1877,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1869,14 +1893,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1886,14 +1910,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>84</v>
-      </c>
-      <c t="s" r="Q26" s="12">
-        <v>40</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1909,7 +1933,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1926,7 +1950,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1942,7 +1966,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1959,7 +1983,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1975,7 +1999,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1985,14 +2009,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2001,14 +2025,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2018,14 +2042,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2034,14 +2058,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2058,7 +2082,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2074,7 +2098,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2091,7 +2115,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2107,7 +2131,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2124,7 +2148,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2140,7 +2164,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2157,7 +2181,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2173,7 +2197,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2190,7 +2214,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2206,7 +2230,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2216,14 +2240,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2232,14 +2256,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2253,10 +2277,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2265,14 +2289,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2282,14 +2306,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2298,14 +2322,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2315,14 +2339,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2338,24 +2362,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2364,31 +2388,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2397,31 +2421,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2430,31 +2454,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>37</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>23</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2463,14 +2487,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2487,7 +2511,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2503,7 +2527,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2513,14 +2537,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2529,14 +2553,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2546,14 +2570,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>27</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2569,7 +2593,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2579,14 +2603,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2595,14 +2619,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2612,14 +2636,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>46</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2628,14 +2652,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2645,14 +2669,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2661,14 +2685,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2678,14 +2702,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2694,14 +2718,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2711,14 +2735,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2734,7 +2758,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>37</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2744,14 +2768,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>97</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2760,31 +2784,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2793,31 +2817,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2826,31 +2850,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>63</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2859,31 +2883,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2892,31 +2916,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>60</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>61</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2932,13 +2956,13 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>158</v>
+        <v>37</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -2949,7 +2973,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>147</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2965,24 +2989,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>63</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2991,31 +3015,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>33</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3024,31 +3048,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3057,31 +3081,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3090,20 +3114,20 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>33</v>
+        <v>191</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3111,10 +3135,10 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3123,31 +3147,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3156,31 +3180,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3189,31 +3213,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>158</v>
+        <v>37</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3222,66 +3246,165 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>164</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
-      <c r="P68" s="13">
-        <v>2459.4650000000001</v>
-      </c>
-      <c r="Q68" s="13"/>
-    </row>
-    <row r="69" ht="16.5" customHeight="1">
-      <c t="s" r="A69" s="14">
-        <v>199</v>
-      </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c t="s" r="G69" s="15">
-        <v>200</v>
-      </c>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="16"/>
-      <c t="s" r="K69" s="17">
-        <v>201</v>
-      </c>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>203</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>169</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>130</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>173</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>204</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>161</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>130</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>82</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>205</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>206</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>77</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>130</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>82</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>189</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="P71" s="13">
+        <v>2588.4650000000001</v>
+      </c>
+      <c r="Q71" s="13"/>
+    </row>
+    <row r="72" ht="16.5" customHeight="1">
+      <c t="s" r="A72" s="14">
+        <v>207</v>
+      </c>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c t="s" r="G72" s="15">
+        <v>208</v>
+      </c>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16"/>
+      <c t="s" r="K72" s="17">
+        <v>209</v>
+      </c>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="317">
+  <mergeCells count="332">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3595,10 +3718,25 @@
     <mergeCell ref="H67:K67"/>
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="K72:Q72"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -632,7 +632,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 6:35 PM</t>
+    <t>Wednesday, 16 July, 2025 6:41 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
@@ -242,7 +254,7 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>4:0</t>
+    <t>9:0</t>
   </si>
   <si>
     <t>48.00</t>
@@ -257,9 +269,6 @@
     <t>7:3</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>19.9200</t>
   </si>
   <si>
@@ -296,9 +305,6 @@
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
-    <t>9:0</t>
-  </si>
-  <si>
     <t>44.00</t>
   </si>
   <si>
@@ -353,6 +359,15 @@
     <t>86.5000</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>9:1</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
     <t>MAVILOR 5MG 30 TAB.</t>
   </si>
   <si>
@@ -494,66 +509,66 @@
     <t>ZINCTRON 30 CAPS</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>42:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>جل هير كود 185 مل</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>ريكسونا بليه بودر دراي</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>زيت فاتيكا وسط 90 مل</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>42:0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2.5 سم</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>جل هير كود 185 مل</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>ريكسونا بليه بودر دراي</t>
-  </si>
-  <si>
-    <t>37.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>زيت فاتيكا وسط 90 مل</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
     <t>2.00</t>
   </si>
   <si>
@@ -626,13 +641,10 @@
     <t>محلول رينجر</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 6:41 PM</t>
+    <t>Wednesday, 16 July, 2025 7:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1356,7 +1368,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1405,7 +1417,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1415,11 +1427,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>20</v>
@@ -1431,14 +1443,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1448,14 +1460,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1471,7 +1483,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1481,14 +1493,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>39</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1521,7 +1533,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1570,7 +1582,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1580,11 +1592,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1596,7 +1608,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1613,14 +1625,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1629,14 +1641,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1686,7 +1698,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1702,7 +1714,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1712,11 +1724,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1728,14 +1740,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1745,11 +1757,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1761,14 +1773,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1778,14 +1790,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1801,7 +1813,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1811,14 +1823,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1827,14 +1839,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1844,14 +1856,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1860,14 +1872,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1917,7 +1929,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1926,14 +1938,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1943,14 +1955,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>87</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1966,7 +1978,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1983,7 +1995,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2016,7 +2028,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2032,7 +2044,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2042,14 +2054,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2058,14 +2070,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2075,14 +2087,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2091,14 +2103,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2108,14 +2120,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2124,14 +2136,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2141,14 +2153,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2157,14 +2169,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2174,11 +2186,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2190,14 +2202,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2207,11 +2219,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2223,14 +2235,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2240,11 +2252,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2256,14 +2268,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2273,14 +2285,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2289,14 +2301,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2306,11 +2318,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>20</v>
@@ -2322,14 +2334,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2343,7 +2355,7 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2355,14 +2367,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2372,14 +2384,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2395,21 +2407,21 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2421,14 +2433,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2438,14 +2450,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2454,31 +2466,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2487,14 +2499,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2504,14 +2516,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2527,21 +2539,21 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2553,14 +2565,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2570,14 +2582,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>27</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>28</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2593,7 +2605,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2610,7 +2622,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2626,7 +2638,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2636,14 +2648,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2652,14 +2664,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2676,7 +2688,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2692,7 +2704,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2702,11 +2714,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2718,14 +2730,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2735,14 +2747,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2751,14 +2763,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2768,7 +2780,7 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -2791,7 +2803,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>59</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2801,11 +2813,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>101</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -2824,21 +2836,21 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>41</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2850,31 +2862,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>167</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2883,28 +2895,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2916,28 +2928,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>67</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -2949,28 +2961,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2982,28 +2994,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>63</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>64</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3015,31 +3027,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>161</v>
+        <v>41</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>150</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3048,31 +3060,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>67</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3081,31 +3093,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>41</v>
+        <v>155</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3114,31 +3126,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3147,31 +3159,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3180,31 +3192,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>150</v>
+        <v>196</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3213,28 +3225,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>37</v>
+        <v>185</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3253,21 +3265,21 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3279,28 +3291,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>169</v>
+        <v>41</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3312,28 +3324,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>82</v>
+        <v>168</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3345,66 +3357,132 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>82</v>
+        <v>177</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>169</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
-      <c r="P71" s="13">
-        <v>2588.4650000000001</v>
-      </c>
-      <c r="Q71" s="13"/>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c t="s" r="A72" s="14">
-        <v>207</v>
-      </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c t="s" r="G72" s="15">
-        <v>208</v>
-      </c>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="16"/>
-      <c t="s" r="K72" s="17">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
         <v>209</v>
       </c>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>185</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>135</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>23</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>210</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>22</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>135</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>23</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>194</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="P73" s="13">
+        <v>2644.145</v>
+      </c>
+      <c r="Q73" s="13"/>
+    </row>
+    <row r="74" ht="16.5" customHeight="1">
+      <c t="s" r="A74" s="14">
+        <v>211</v>
+      </c>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c t="s" r="G74" s="15">
+        <v>212</v>
+      </c>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16"/>
+      <c t="s" r="K74" s="17">
+        <v>213</v>
+      </c>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="332">
+  <mergeCells count="342">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3733,10 +3811,20 @@
     <mergeCell ref="H70:K70"/>
     <mergeCell ref="L70:M70"/>
     <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="K74:Q74"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>AMRIZOLE 500 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>12.5000</t>
+  </si>
+  <si>
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
@@ -89,9 +101,6 @@
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -176,6 +185,15 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
     <t>COLOVERIN A 30 TABLETS</t>
   </si>
   <si>
@@ -212,9 +230,6 @@
     <t>DEPO-PEN 1.2 MIU VIAL.</t>
   </si>
   <si>
-    <t>25.00</t>
-  </si>
-  <si>
     <t>25.0000</t>
   </si>
   <si>
@@ -350,6 +365,18 @@
     <t>33.6600</t>
   </si>
   <si>
+    <t>HERO BABY DIGEST MILK 400 GM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>359.00</t>
+  </si>
+  <si>
+    <t>359.0000</t>
+  </si>
+  <si>
     <t>HIBIOTIC 1GM 16 TAB</t>
   </si>
   <si>
@@ -564,9 +591,6 @@
   </si>
   <si>
     <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>0:0</t>
   </si>
   <si>
     <t>2.00</t>
@@ -1368,7 +1392,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1401,7 +1425,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1417,7 +1441,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1427,11 +1451,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>20</v>
@@ -1443,14 +1467,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1483,7 +1507,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1500,7 +1524,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1509,14 +1533,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1526,14 +1550,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1542,14 +1566,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1559,14 +1583,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1575,14 +1599,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1592,11 +1616,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1608,14 +1632,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1665,7 +1689,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1681,7 +1705,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1691,11 +1715,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>20</v>
@@ -1707,14 +1731,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1724,14 +1748,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1740,14 +1764,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1757,14 +1781,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1773,14 +1797,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1790,11 +1814,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1806,14 +1830,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1823,14 +1847,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1839,14 +1863,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1856,11 +1880,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1872,14 +1896,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1912,7 +1936,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1922,14 +1946,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1938,14 +1962,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1955,14 +1979,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>87</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1971,14 +1995,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1988,14 +2012,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2004,14 +2028,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2021,14 +2045,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2037,14 +2061,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2054,11 +2078,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2070,14 +2094,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2087,14 +2111,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2103,14 +2127,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2120,14 +2144,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2136,14 +2160,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2153,14 +2177,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2169,14 +2193,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2186,11 +2210,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2202,14 +2226,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2219,14 +2243,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2235,14 +2259,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2252,11 +2276,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2268,14 +2292,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2285,14 +2309,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2301,14 +2325,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2325,7 +2349,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2341,7 +2365,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2351,11 +2375,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2367,14 +2391,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2384,14 +2408,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2407,7 +2431,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2421,7 +2445,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2433,14 +2457,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2450,14 +2474,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2466,20 +2490,20 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2487,7 +2511,7 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2499,14 +2523,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2516,11 +2540,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2532,28 +2556,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2565,31 +2589,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2598,14 +2622,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2615,14 +2639,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2631,31 +2655,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>149</v>
+        <v>44</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2671,7 +2695,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2681,14 +2705,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2697,14 +2721,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2714,11 +2738,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>51</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2730,14 +2754,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2747,14 +2771,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>34</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2763,14 +2787,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2780,14 +2804,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2796,14 +2820,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2813,14 +2837,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2829,14 +2853,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>41</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2846,11 +2870,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2862,14 +2886,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2879,14 +2903,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>103</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2895,31 +2919,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2928,28 +2952,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>44</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>67</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>68</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -2961,31 +2985,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>107</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2994,20 +3018,20 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3034,21 +3058,21 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>41</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>23</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3060,28 +3084,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>67</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>68</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3093,20 +3117,20 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3117,7 +3141,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3133,13 +3157,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>185</v>
+        <v>44</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3150,7 +3174,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3172,18 +3196,18 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>23</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3192,31 +3216,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>196</v>
+        <v>119</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>41</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3225,31 +3249,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>185</v>
+        <v>119</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3258,31 +3282,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3291,31 +3315,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3331,21 +3355,21 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>185</v>
+        <v>119</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3357,28 +3381,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3390,28 +3414,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>185</v>
+        <v>44</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>23</v>
+        <v>214</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3423,66 +3447,165 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>23</v>
+        <v>177</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>173</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
-      <c r="P73" s="13">
-        <v>2644.145</v>
-      </c>
-      <c r="Q73" s="13"/>
-    </row>
-    <row r="74" ht="16.5" customHeight="1">
-      <c t="s" r="A74" s="14">
-        <v>211</v>
-      </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c t="s" r="G74" s="15">
-        <v>212</v>
-      </c>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="16"/>
-      <c t="s" r="K74" s="17">
-        <v>213</v>
-      </c>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>216</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>182</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>144</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>186</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>217</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>119</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>144</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>27</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>218</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>26</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>144</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>27</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="P76" s="13">
+        <v>3058.5450000000001</v>
+      </c>
+      <c r="Q76" s="13"/>
+    </row>
+    <row r="77" ht="16.5" customHeight="1">
+      <c t="s" r="A77" s="14">
+        <v>219</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c t="s" r="G77" s="15">
+        <v>220</v>
+      </c>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+      <c t="s" r="K77" s="17">
+        <v>221</v>
+      </c>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="342">
+  <mergeCells count="357">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3821,10 +3944,25 @@
     <mergeCell ref="H72:K72"/>
     <mergeCell ref="L72:M72"/>
     <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="K74:Q74"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="K77:Q77"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -668,7 +668,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 7:03 PM</t>
+    <t>Wednesday, 16 July, 2025 7:16 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -140,6 +140,18 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>AVUVA WHITE PASTE</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
@@ -233,6 +245,18 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -386,6 +410,15 @@
     <t>86.5000</t>
   </si>
   <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>0:9</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -428,24 +461,27 @@
     <t>152.00</t>
   </si>
   <si>
+    <t>NORGESIC 20 TAB.</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
     <t>OTAL EAR DROPS 5 ML</t>
   </si>
   <si>
     <t>19.00</t>
   </si>
   <si>
-    <t>19.0000</t>
-  </si>
-  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
     <t>2:1</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>108.00</t>
   </si>
   <si>
@@ -473,6 +509,18 @@
     <t>14.1000</t>
   </si>
   <si>
+    <t>ROWACHOL 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
     <t>SAFETRIUM 30 F.C. TABS.</t>
   </si>
   <si>
@@ -506,9 +554,6 @@
     <t>5:0</t>
   </si>
   <si>
-    <t>38.00</t>
-  </si>
-  <si>
     <t>38.0000</t>
   </si>
   <si>
@@ -536,6 +581,12 @@
     <t>ZINCTRON 30 CAPS</t>
   </si>
   <si>
+    <t>اسيتون ايفا</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -557,9 +608,6 @@
     <t>جل هير كود 185 مل</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>40.00</t>
   </si>
   <si>
@@ -596,79 +644,76 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>شاش 15 سم</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>صابون هارفى SUPP</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>فازلين بيور وسط</t>
+  </si>
+  <si>
+    <t>قطن 50جم</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
     <t>10.0000</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>شاش 15 سم</t>
-  </si>
-  <si>
-    <t>20:0</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاش 7 سم </t>
-  </si>
-  <si>
-    <t>18:0</t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>صابون هارفى SUPP</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>فازلين بيور وسط</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>قطن 50جم</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
     <t>كريم 555</t>
   </si>
   <si>
+    <t>مبرد اظافر</t>
+  </si>
+  <si>
     <t>محلول رينجر</t>
   </si>
   <si>
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 7:16 PM</t>
+    <t>Wednesday, 16 July, 2025 7:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1573,13 +1618,13 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1590,7 +1635,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1623,7 +1668,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1672,7 +1717,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1682,11 +1727,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1698,14 +1743,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1715,14 +1760,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1731,14 +1776,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1748,11 +1793,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>20</v>
@@ -1764,14 +1809,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1821,7 +1866,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1837,7 +1882,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1847,11 +1892,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1863,14 +1908,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1880,11 +1925,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1896,14 +1941,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1913,11 +1958,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>20</v>
@@ -1929,14 +1974,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1946,11 +1991,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1962,14 +2007,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1979,11 +2024,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>20</v>
@@ -1995,14 +2040,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2012,14 +2057,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2028,14 +2073,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2045,14 +2090,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>92</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2068,7 +2113,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2078,14 +2123,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2094,14 +2139,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2111,14 +2156,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2127,14 +2172,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2144,11 +2189,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2160,14 +2205,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2177,14 +2222,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2193,14 +2238,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2210,14 +2255,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2226,14 +2271,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2243,14 +2288,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2259,14 +2304,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2276,11 +2321,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2292,14 +2337,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2309,14 +2354,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2325,14 +2370,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2342,14 +2387,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2358,14 +2403,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2375,11 +2420,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2391,14 +2436,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2408,14 +2453,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2424,14 +2469,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2441,11 +2486,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2457,31 +2502,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2490,14 +2535,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2507,14 +2552,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2523,14 +2568,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2540,11 +2585,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2556,14 +2601,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2573,14 +2618,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2589,28 +2634,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2622,7 +2667,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2639,11 +2684,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2655,31 +2700,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>30</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2688,14 +2733,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2705,14 +2750,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2721,31 +2766,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>42</v>
+        <v>156</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2754,14 +2799,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>158</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2771,11 +2816,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -2787,31 +2832,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2827,7 +2872,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>48</v>
+        <v>163</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2837,14 +2882,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>54</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2853,14 +2898,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2870,14 +2915,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2886,14 +2931,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2903,11 +2948,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2919,14 +2964,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>65</v>
+        <v>174</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2936,11 +2981,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -2952,14 +2997,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2969,14 +3014,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2985,14 +3030,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3002,14 +3047,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3018,28 +3063,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3051,28 +3096,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>48</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>23</v>
+        <v>144</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>73</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3084,31 +3129,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>69</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>124</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3117,28 +3162,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>182</v>
+        <v>48</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3150,31 +3195,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>115</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3183,28 +3228,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>23</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3216,20 +3261,20 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>119</v>
+        <v>193</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3240,7 +3285,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>164</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3256,24 +3301,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>119</v>
+        <v>197</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>23</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3282,31 +3327,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3315,31 +3360,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3348,28 +3393,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3381,28 +3426,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>164</v>
+        <v>208</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>211</v>
+        <v>23</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3414,31 +3459,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3447,31 +3492,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3480,31 +3525,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3513,31 +3558,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>119</v>
+        <v>220</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>27</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>28</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3546,66 +3591,297 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>27</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
+        <v>224</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>225</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>180</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>44</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>45</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>226</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>48</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>44</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>227</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>228</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>229</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>127</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>44</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>194</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>230</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>167</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>44</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
         <v>202</v>
       </c>
-      <c t="s" r="Q75" s="12">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="76" ht="25.5" customHeight="1">
-      <c r="P76" s="13">
-        <v>3058.5450000000001</v>
-      </c>
-      <c r="Q76" s="13"/>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c t="s" r="A77" s="14">
-        <v>219</v>
-      </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c t="s" r="G77" s="15">
-        <v>220</v>
-      </c>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="16"/>
-      <c t="s" r="K77" s="17">
-        <v>221</v>
-      </c>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>203</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>231</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>167</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>44</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>194</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>232</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>127</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>44</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>27</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>233</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>26</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>44</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>27</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="P83" s="13">
+        <v>3224.3049999999998</v>
+      </c>
+      <c r="Q83" s="13"/>
+    </row>
+    <row r="84" ht="16.5" customHeight="1">
+      <c t="s" r="A84" s="14">
+        <v>234</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c t="s" r="G84" s="15">
+        <v>235</v>
+      </c>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c t="s" r="K84" s="17">
+        <v>236</v>
+      </c>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="357">
+  <mergeCells count="392">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3959,10 +4235,45 @@
     <mergeCell ref="H75:K75"/>
     <mergeCell ref="L75:M75"/>
     <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="K84:Q84"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -437,6 +437,9 @@
     <t>34.6500</t>
   </si>
   <si>
+    <t>MICONAZ 2% ORAL GEL 20 GM</t>
+  </si>
+  <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
@@ -713,7 +716,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 7:28 PM</t>
+    <t>Wednesday, 16 July, 2025 7:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2608,7 +2611,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2618,14 +2621,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>145</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2634,14 +2637,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2651,11 +2654,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2667,14 +2670,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2684,11 +2687,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2700,14 +2703,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2717,11 +2720,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2733,7 +2736,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2750,14 +2753,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2766,31 +2769,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2799,28 +2802,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -2832,31 +2835,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>89</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2872,24 +2875,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>163</v>
+        <v>48</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>30</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>69</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2898,14 +2901,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2915,14 +2918,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2931,14 +2934,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>42</v>
+        <v>168</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2948,14 +2951,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2964,14 +2967,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>174</v>
+        <v>42</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2981,14 +2984,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>34</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>35</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2997,14 +3000,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3014,11 +3017,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>34</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -3030,14 +3033,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3047,14 +3050,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>57</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>58</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3070,7 +3073,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3080,11 +3083,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3096,14 +3099,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>48</v>
+        <v>181</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3113,11 +3116,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3129,14 +3132,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3146,14 +3149,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3162,14 +3165,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3179,14 +3182,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>124</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3195,14 +3198,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3212,14 +3215,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>115</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>116</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3235,24 +3238,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>167</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>115</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3261,14 +3264,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3278,11 +3281,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3294,14 +3297,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3311,11 +3314,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>23</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>77</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3327,14 +3330,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3344,11 +3347,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>23</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3360,14 +3363,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3377,11 +3380,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3393,14 +3396,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3410,11 +3413,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3426,14 +3429,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>208</v>
+        <v>48</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3443,11 +3446,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>23</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3459,14 +3462,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>127</v>
+        <v>209</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3476,14 +3479,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>23</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3492,7 +3495,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3509,14 +3512,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3525,14 +3528,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>216</v>
+        <v>127</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3542,14 +3545,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3558,14 +3561,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3575,14 +3578,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3591,14 +3594,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>127</v>
+        <v>221</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3608,14 +3611,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3624,14 +3627,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3641,11 +3644,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>45</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>46</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3664,7 +3667,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>48</v>
+        <v>181</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3674,11 +3677,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>45</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3690,14 +3693,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>127</v>
+        <v>48</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3707,11 +3710,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3730,7 +3733,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3740,11 +3743,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3763,7 +3766,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3773,11 +3776,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3796,7 +3799,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3806,11 +3809,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>27</v>
+        <v>195</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>28</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3829,7 +3832,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3843,45 +3846,78 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>218</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>167</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
-      <c r="P83" s="13">
-        <v>3224.3049999999998</v>
-      </c>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c t="s" r="A84" s="14">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
         <v>234</v>
       </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c t="s" r="G84" s="15">
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>26</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>44</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>27</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>219</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="P84" s="13">
+        <v>3247.3049999999998</v>
+      </c>
+      <c r="Q84" s="13"/>
+    </row>
+    <row r="85" ht="16.5" customHeight="1">
+      <c t="s" r="A85" s="14">
         <v>235</v>
       </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="16"/>
-      <c t="s" r="K84" s="17">
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c t="s" r="G85" s="15">
         <v>236</v>
       </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+      <c t="s" r="K85" s="17">
+        <v>237</v>
+      </c>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="397">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4270,10 +4306,15 @@
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="K85:Q85"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -452,6 +452,15 @@
     <t>12.8700</t>
   </si>
   <si>
+    <t>MUCOSTA 100MG 20 TAB</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
     <t>NEVILOB 2.5 MG 14 TAB.</t>
   </si>
   <si>
@@ -494,7 +503,7 @@
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
-    <t>51.0000</t>
+    <t>102.0000</t>
   </si>
   <si>
     <t>PERIOCARE MOUTH SPRAY</t>
@@ -515,78 +524,78 @@
     <t>ROWACHOL 45 CAPSULES</t>
   </si>
   <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>SAFETRIUM 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>THIOTACID 300MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 1% EMULGEL 25 GM</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>16.3200</t>
+  </si>
+  <si>
+    <t>XITHRONE 200 MG/5ML SUSP. 25 ML</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>ZINCTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>اسيتون ايفا</t>
+  </si>
+  <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>SAFETRIUM 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>THIOTACID 300MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 1% EMULGEL 25 GM</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>16.3200</t>
-  </si>
-  <si>
-    <t>XITHRONE 200 MG/5ML SUSP. 25 ML</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>ZINCTRON 30 CAPS</t>
-  </si>
-  <si>
-    <t>اسيتون ايفا</t>
-  </si>
-  <si>
     <t>35.00</t>
   </si>
   <si>
@@ -716,7 +725,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 7:41 PM</t>
+    <t>Wednesday, 16 July, 2025 7:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2677,7 +2686,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2691,7 +2700,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>54</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2703,14 +2712,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2720,11 +2729,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2736,14 +2745,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2753,11 +2762,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -2790,10 +2799,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2802,20 +2811,20 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2823,10 +2832,10 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2835,28 +2844,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>160</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -2868,28 +2877,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>89</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2901,31 +2910,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>48</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>30</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>69</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2934,14 +2943,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2951,14 +2960,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2967,14 +2976,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2984,14 +2993,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3000,14 +3009,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>175</v>
+        <v>42</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3017,14 +3026,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>34</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>35</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3040,7 +3049,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3050,11 +3059,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>34</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3066,14 +3075,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3083,14 +3092,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>57</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>58</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3099,14 +3108,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>181</v>
+        <v>52</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3116,11 +3125,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>152</v>
+        <v>57</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3132,14 +3141,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>48</v>
+        <v>183</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3149,7 +3158,7 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3172,7 +3181,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3182,14 +3191,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3205,7 +3214,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3215,14 +3224,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3231,14 +3240,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3248,14 +3257,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>115</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>116</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3264,31 +3273,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>115</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3318,7 +3327,7 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3330,14 +3339,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3347,11 +3356,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>23</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3363,14 +3372,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3380,11 +3389,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>23</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3403,7 +3412,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3436,7 +3445,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3469,7 +3478,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>209</v>
+        <v>48</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3479,11 +3488,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>23</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3495,14 +3504,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>127</v>
+        <v>212</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3512,14 +3521,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>23</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3552,7 +3561,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3568,7 +3577,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>217</v>
+        <v>127</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3578,14 +3587,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3594,14 +3603,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3611,14 +3620,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3634,7 +3643,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>127</v>
+        <v>224</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3644,14 +3653,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3667,7 +3676,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3677,11 +3686,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>45</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>46</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3693,14 +3702,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>48</v>
+        <v>183</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3710,11 +3719,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>45</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3733,7 +3742,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>127</v>
+        <v>48</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3743,11 +3752,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>195</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>196</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3759,14 +3768,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3776,11 +3785,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3792,14 +3801,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3809,11 +3818,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3825,14 +3834,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>127</v>
+        <v>194</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3842,11 +3851,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>27</v>
+        <v>198</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>28</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -3858,14 +3867,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3879,45 +3888,78 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>219</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>168</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
-      <c r="P84" s="13">
-        <v>3247.3049999999998</v>
-      </c>
-      <c r="Q84" s="13"/>
-    </row>
-    <row r="85" ht="16.5" customHeight="1">
-      <c t="s" r="A85" s="14">
-        <v>235</v>
-      </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c t="s" r="G85" s="15">
-        <v>236</v>
-      </c>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="16"/>
-      <c t="s" r="K85" s="17">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
         <v>237</v>
       </c>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>26</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>44</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>27</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>222</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="P85" s="13">
+        <v>3379.0650000000001</v>
+      </c>
+      <c r="Q85" s="13"/>
+    </row>
+    <row r="86" ht="16.5" customHeight="1">
+      <c t="s" r="A86" s="14">
+        <v>238</v>
+      </c>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c t="s" r="G86" s="15">
+        <v>239</v>
+      </c>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="16"/>
+      <c t="s" r="K86" s="17">
+        <v>240</v>
+      </c>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="397">
+  <mergeCells count="402">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4311,10 +4353,15 @@
     <mergeCell ref="H83:K83"/>
     <mergeCell ref="L83:M83"/>
     <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="K85:Q85"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="K86:Q86"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -215,6 +215,21 @@
     <t>32.6700</t>
   </si>
   <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>-34.6500</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
@@ -431,9 +446,6 @@
     <t>MAVILOR 5MG 30 TAB.</t>
   </si>
   <si>
-    <t>105.00</t>
-  </si>
-  <si>
     <t>34.6500</t>
   </si>
   <si>
@@ -491,9 +503,6 @@
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>108.00</t>
   </si>
   <si>
@@ -725,7 +734,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 7:42 PM</t>
+    <t>Wednesday, 16 July, 2025 7:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1878,7 +1887,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1887,14 +1896,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1904,14 +1913,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1920,14 +1929,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1937,11 +1946,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1953,14 +1962,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1970,14 +1979,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1986,14 +1995,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2003,14 +2012,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2019,14 +2028,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2036,14 +2045,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2052,14 +2061,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2069,14 +2078,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2085,14 +2094,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2102,14 +2111,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2118,14 +2127,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2135,11 +2144,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>20</v>
@@ -2151,14 +2160,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2168,14 +2177,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2184,14 +2193,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2201,14 +2210,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2217,14 +2226,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2234,14 +2243,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2250,14 +2259,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2267,14 +2276,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2283,14 +2292,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2300,14 +2309,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2316,14 +2325,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2333,14 +2342,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2349,14 +2358,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2366,14 +2375,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2382,14 +2391,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2399,14 +2408,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2415,14 +2424,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2432,11 +2441,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2448,14 +2457,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2465,14 +2474,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2481,14 +2490,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2498,14 +2507,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2514,31 +2523,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>134</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2547,31 +2556,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2580,14 +2589,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2597,14 +2606,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2613,14 +2622,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2630,14 +2639,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2646,14 +2655,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>144</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2663,14 +2672,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>53</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2686,7 +2695,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2696,11 +2705,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2712,14 +2721,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2729,11 +2738,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>54</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2745,14 +2754,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2762,11 +2771,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -2778,14 +2787,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2795,11 +2804,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -2811,7 +2820,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2828,14 +2837,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2844,31 +2853,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2884,24 +2893,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2910,28 +2919,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2943,31 +2952,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>30</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>69</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2976,14 +2985,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>17</v>
+        <v>170</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3000,7 +3009,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3016,7 +3025,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3033,7 +3042,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3049,7 +3058,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>177</v>
+        <v>42</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3059,14 +3068,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>34</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>35</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3075,14 +3084,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3092,11 +3101,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>34</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3115,7 +3124,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3125,14 +3134,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>57</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>58</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3141,14 +3150,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>183</v>
+        <v>52</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3158,11 +3167,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>155</v>
+        <v>57</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3181,7 +3190,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>48</v>
+        <v>186</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3191,11 +3200,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3207,14 +3216,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3224,14 +3233,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3240,14 +3249,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3257,14 +3266,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3280,7 +3289,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3290,14 +3299,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>115</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>116</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3306,31 +3315,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>120</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3360,7 +3369,7 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3372,14 +3381,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3389,11 +3398,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>23</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3405,14 +3414,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3422,11 +3431,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>23</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3445,7 +3454,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3478,7 +3487,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>48</v>
+        <v>197</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3511,7 +3520,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>212</v>
+        <v>48</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3521,11 +3530,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>23</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3537,14 +3546,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>127</v>
+        <v>215</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3554,14 +3563,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>23</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3577,7 +3586,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3594,7 +3603,7 @@
         <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3610,7 +3619,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>220</v>
+        <v>132</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3620,14 +3629,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3636,14 +3645,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3653,14 +3662,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3676,7 +3685,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>127</v>
+        <v>227</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3686,14 +3695,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3709,7 +3718,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>183</v>
+        <v>132</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3719,11 +3728,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>45</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>46</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3735,14 +3744,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>48</v>
+        <v>186</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3752,11 +3761,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>45</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3775,7 +3784,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>127</v>
+        <v>48</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3785,11 +3794,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>199</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3801,14 +3810,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>194</v>
+        <v>132</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3818,11 +3827,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3834,14 +3843,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3851,11 +3860,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -3867,14 +3876,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>127</v>
+        <v>197</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3884,11 +3893,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>27</v>
+        <v>201</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>28</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -3900,14 +3909,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3921,45 +3930,78 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>222</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>194</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
-      <c r="P85" s="13">
-        <v>3379.0650000000001</v>
-      </c>
-      <c r="Q85" s="13"/>
-    </row>
-    <row r="86" ht="16.5" customHeight="1">
-      <c t="s" r="A86" s="14">
-        <v>238</v>
-      </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c t="s" r="G86" s="15">
-        <v>239</v>
-      </c>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="16"/>
-      <c t="s" r="K86" s="17">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
         <v>240</v>
       </c>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>26</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>44</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>27</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>225</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="P86" s="13">
+        <v>3344.415</v>
+      </c>
+      <c r="Q86" s="13"/>
+    </row>
+    <row r="87" ht="16.5" customHeight="1">
+      <c t="s" r="A87" s="14">
+        <v>241</v>
+      </c>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c t="s" r="G87" s="15">
+        <v>242</v>
+      </c>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="16"/>
+      <c t="s" r="K87" s="17">
+        <v>243</v>
+      </c>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="17"/>
+      <c r="P87" s="17"/>
+      <c r="Q87" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="402">
+  <mergeCells count="407">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4358,10 +4400,15 @@
     <mergeCell ref="H84:K84"/>
     <mergeCell ref="L84:M84"/>
     <mergeCell ref="N84:O84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="K86:Q86"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="K87:Q87"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -734,7 +734,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 7:53 PM</t>
+    <t>Wednesday, 16 July, 2025 7:55 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>AMRIZOLE 125MG/5ML SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>AMRIZOLE 500 MG 20 TABS.</t>
   </si>
   <si>
@@ -155,9 +167,6 @@
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>81.00</t>
   </si>
   <si>
@@ -182,12 +191,6 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
     <t>CIDOPHAGE RETARD 850MG 60 S.R. TABS</t>
   </si>
   <si>
@@ -425,6 +428,15 @@
     <t>86.5000</t>
   </si>
   <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
   </si>
   <si>
@@ -563,6 +575,15 @@
     <t>49.5000</t>
   </si>
   <si>
+    <t>TRESIBA 100 I.U./ML FLEXTOUCH PRE-FILLED PEN</t>
+  </si>
+  <si>
+    <t>550.00</t>
+  </si>
+  <si>
+    <t>550.0000</t>
+  </si>
+  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -581,12 +602,30 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
     <t>16.3200</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8538:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>XITHRONE 200 MG/5ML SUSP. 25 ML</t>
   </si>
   <si>
@@ -662,42 +701,42 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>شاش 15 سم</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>6.00</t>
   </si>
   <si>
     <t>12.0000</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>شاش 15 سم</t>
-  </si>
-  <si>
-    <t>20:0</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاش 7 سم </t>
-  </si>
-  <si>
-    <t>18:0</t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
     <t>صابون هارفى SUPP</t>
   </si>
   <si>
@@ -734,7 +773,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 7:55 PM</t>
+    <t>Wednesday, 16 July, 2025 8:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1458,7 +1497,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1491,7 +1530,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1507,7 +1546,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1517,14 +1556,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1533,14 +1572,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1573,7 +1612,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1583,11 +1622,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>20</v>
@@ -1599,14 +1638,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1616,14 +1655,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1645,18 +1684,18 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>46</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1672,13 +1711,13 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1689,7 +1728,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1705,7 +1744,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1715,14 +1754,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1731,14 +1770,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1748,11 +1787,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1764,14 +1803,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1781,11 +1820,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1797,14 +1836,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1814,14 +1853,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1830,14 +1869,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1847,11 +1886,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>20</v>
@@ -1863,14 +1902,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1880,14 +1919,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>72</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1896,14 +1935,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1913,14 +1952,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1929,14 +1968,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1946,14 +1985,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1962,14 +2001,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1979,11 +2018,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1995,14 +2034,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2012,14 +2051,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2028,14 +2067,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2045,14 +2084,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2061,14 +2100,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2078,14 +2117,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2094,14 +2133,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2111,14 +2150,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2127,14 +2166,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2144,14 +2183,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2160,14 +2199,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2177,11 +2216,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>20</v>
@@ -2193,14 +2232,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2210,14 +2249,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2226,14 +2265,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2243,14 +2282,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2259,14 +2298,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2276,14 +2315,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2292,14 +2331,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2309,14 +2348,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2325,14 +2364,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2342,14 +2381,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2358,14 +2397,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2375,14 +2414,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2391,14 +2430,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2408,14 +2447,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2424,14 +2463,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2441,14 +2480,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2457,14 +2496,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2474,11 +2513,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2490,14 +2529,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2507,14 +2546,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2523,14 +2562,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2540,14 +2579,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2556,31 +2595,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>139</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>28</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2589,14 +2628,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2606,14 +2645,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>74</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2622,31 +2661,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>70</v>
+        <v>144</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2655,14 +2694,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>146</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2672,14 +2711,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>54</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2688,14 +2727,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2705,11 +2744,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>71</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2721,14 +2760,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2738,14 +2777,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>56</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2754,14 +2793,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2771,11 +2810,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>54</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -2787,14 +2826,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2804,11 +2843,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -2827,7 +2866,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2841,7 +2880,7 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -2853,14 +2892,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2870,14 +2909,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2886,28 +2925,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -2919,7 +2958,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2936,11 +2975,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2952,31 +2991,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>30</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>94</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2985,14 +3024,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3002,14 +3041,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>130</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>74</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3018,31 +3057,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>34</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>74</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3051,14 +3090,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3068,14 +3107,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3084,14 +3123,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>180</v>
+        <v>17</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3101,14 +3140,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>35</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3117,14 +3156,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3134,14 +3173,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3150,14 +3189,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>52</v>
+        <v>184</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3167,14 +3206,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3190,7 +3229,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3200,14 +3239,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3223,7 +3262,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3233,11 +3272,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3249,14 +3288,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3266,14 +3305,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3289,7 +3328,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>48</v>
+        <v>193</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3299,7 +3338,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3322,7 +3361,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3332,14 +3371,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>121</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3348,31 +3387,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>127</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3388,24 +3427,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>130</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3414,31 +3453,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>23</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>82</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3454,13 +3493,13 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>197</v>
+        <v>22</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3487,24 +3526,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>197</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>121</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3513,28 +3552,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>48</v>
+        <v>210</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3546,28 +3585,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>23</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>82</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3586,24 +3625,24 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>132</v>
+        <v>217</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>27</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3612,31 +3651,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>132</v>
+        <v>210</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3645,31 +3684,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3678,31 +3717,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>227</v>
+        <v>22</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3711,28 +3750,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>132</v>
+        <v>228</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>27</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3744,31 +3783,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>45</v>
+        <v>203</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>228</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3777,31 +3816,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3810,31 +3849,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3843,31 +3882,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>197</v>
+        <v>239</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3876,28 +3915,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>197</v>
+        <v>133</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>201</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>202</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -3909,28 +3948,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>132</v>
+        <v>193</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -3942,66 +3981,231 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>27</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>197</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
-      <c r="P86" s="13">
-        <v>3344.415</v>
-      </c>
-      <c r="Q86" s="13"/>
-    </row>
-    <row r="87" ht="16.5" customHeight="1">
-      <c t="s" r="A87" s="14">
-        <v>241</v>
-      </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c t="s" r="G87" s="15">
-        <v>242</v>
-      </c>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="16"/>
-      <c t="s" r="K87" s="17">
-        <v>243</v>
-      </c>
-      <c r="L87" s="17"/>
-      <c r="M87" s="17"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="17"/>
-      <c r="P87" s="17"/>
-      <c r="Q87" s="17"/>
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>249</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>133</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>48</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>214</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>250</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>210</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>48</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>222</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>223</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>251</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>210</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>48</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>214</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>252</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>133</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>48</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>31</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>253</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>30</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>48</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>31</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>237</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="P91" s="13">
+        <v>4040.2449999999999</v>
+      </c>
+      <c r="Q91" s="13"/>
+    </row>
+    <row r="92" ht="16.5" customHeight="1">
+      <c t="s" r="A92" s="14">
+        <v>254</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c t="s" r="G92" s="15">
+        <v>255</v>
+      </c>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+      <c t="s" r="K92" s="17">
+        <v>256</v>
+      </c>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="407">
+  <mergeCells count="432">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4405,10 +4609,35 @@
     <mergeCell ref="H85:K85"/>
     <mergeCell ref="L85:M85"/>
     <mergeCell ref="N85:O85"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="K87:Q87"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="K92:Q92"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -62,489 +62,507 @@
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>57.4200</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>AMRIZOLE 125MG/5ML SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>AMRIZOLE 500 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>12.5000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
+    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>AVEROCOXIB 90 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>228.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>28.5000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>AVUVA WHITE PASTE</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>CIDOPHAGE RETARD 850MG 60 S.R. TABS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
+    <t>COLOVERIN A 30 TABLETS</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>-34.6500</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>DEPO-PEN 1.2 MIU VIAL.</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>DIAMICRON MR 30 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>8:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>7:3</t>
+  </si>
+  <si>
+    <t>19.9200</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>FERROTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>138.0000</t>
+  </si>
+  <si>
+    <t>FLACORT 30MG 20 TAB</t>
+  </si>
+  <si>
+    <t>164.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>FLIX NASAL SPRAY 50 MCG/METERED SPRAY DOSE</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>FORTAZEDIM 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>236.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>88.0000</t>
+  </si>
+  <si>
+    <t>GAPTIN 300 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>GOUTIFADE 40 MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>GOUTYLESS 30 TABS</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>HERO BABY DIGEST MILK 400 GM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>359.00</t>
+  </si>
+  <si>
+    <t>359.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>134.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>0:9</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>9:1</t>
+  </si>
+  <si>
+    <t>MAVILOR 5MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
+    <t>MICONAZ 2% ORAL GEL 20 GM</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>MUCOSTA 100MG 20 TAB</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>NEVILOB 2.5 MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>NORGESIC 20 TAB.</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>OTAL EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>PERIOCARE MOUTH SPRAY</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:12</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>14.1000</t>
+  </si>
+  <si>
+    <t>ROWACHOL 45 CAPSULES</t>
+  </si>
+  <si>
     <t>2:2</t>
   </si>
   <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>AMRIZOLE 125MG/5ML SUSP. 120 ML</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>AMRIZOLE 500 MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>12.5000</t>
-  </si>
-  <si>
-    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>ANTODINE 20MG 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>19.8000</t>
-  </si>
-  <si>
-    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>6:1</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>AVEROCOXIB 90 MG 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>228.00</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>28.5000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>AVUVA WHITE PASTE</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>BI ALCOFAN 150 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t>CIDOPHAGE RETARD 850MG 60 S.R. TABS</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>42.9000</t>
-  </si>
-  <si>
-    <t>COLOVERIN A 30 TABLETS</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>32.6700</t>
-  </si>
-  <si>
-    <t>COLOVERIN D 135MG 30 TAB</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>-34.6500</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>DANSET 4MG/2ML 3 AMP</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>82.50</t>
-  </si>
-  <si>
-    <t>27.2250</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>DEPO-PEN 1.2 MIU VIAL.</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>3:4</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>DIAMICRON MR 30 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>7:3</t>
-  </si>
-  <si>
-    <t>19.9200</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>FERROTRON 30 CAPS</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>138.0000</t>
-  </si>
-  <si>
-    <t>FLACORT 30MG 20 TAB</t>
-  </si>
-  <si>
-    <t>164.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>FLIX NASAL SPRAY 50 MCG/METERED SPRAY DOSE</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>88.0000</t>
-  </si>
-  <si>
-    <t>GAPTIN 300 MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>74.00</t>
-  </si>
-  <si>
-    <t>74.0000</t>
-  </si>
-  <si>
-    <t>GOUTIFADE 40 MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>GOUTYLESS 30 TABS</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
-    <t>HERO BABY DIGEST MILK 400 GM</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>359.00</t>
-  </si>
-  <si>
-    <t>359.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
-  </si>
-  <si>
-    <t>0:9</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>9:1</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>MAVILOR 5MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>34.6500</t>
-  </si>
-  <si>
-    <t>MICONAZ 2% ORAL GEL 20 GM</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>6:2</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>MUCOSTA 100MG 20 TAB</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>NEVILOB 2.5 MG 14 TAB.</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>NORGESIC 20 TAB.</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>OTAL EAR DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>19.00</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>102.0000</t>
-  </si>
-  <si>
-    <t>PERIOCARE MOUTH SPRAY</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>0:12</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>14.1000</t>
-  </si>
-  <si>
-    <t>ROWACHOL 45 CAPSULES</t>
-  </si>
-  <si>
     <t>72.00</t>
   </si>
   <si>
@@ -680,90 +698,96 @@
     <t>20.00</t>
   </si>
   <si>
+    <t>ريكسونا بليه بودر دراي</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>زيت فاتيكا وسط 90 مل</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>شاش 15 سم</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>صابون هارفى SUPP</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>فازلين بيور وسط</t>
+  </si>
+  <si>
+    <t>قطن 50جم</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>كريم 555</t>
+  </si>
+  <si>
     <t>20.0000</t>
   </si>
   <si>
-    <t>ريكسونا بليه بودر دراي</t>
-  </si>
-  <si>
-    <t>37.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>زيت فاتيكا وسط 90 مل</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>14.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>شاش 15 سم</t>
-  </si>
-  <si>
-    <t>20:0</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاش 7 سم </t>
-  </si>
-  <si>
-    <t>18:0</t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>صابون هارفى SUPP</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>فازلين بيور وسط</t>
-  </si>
-  <si>
-    <t>قطن 50جم</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>كريم 555</t>
-  </si>
-  <si>
     <t>مبرد اظافر</t>
   </si>
   <si>
@@ -773,7 +797,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 8:20 PM</t>
+    <t>Wednesday, 16 July, 2025 8:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1530,7 +1554,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1539,14 +1563,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1556,11 +1580,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>12</v>
@@ -1572,7 +1596,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1589,14 +1613,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1605,14 +1629,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1622,14 +1646,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1638,14 +1662,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1655,14 +1679,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1671,7 +1695,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1688,14 +1712,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1704,28 +1728,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1737,7 +1761,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1754,14 +1778,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1770,14 +1794,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1787,11 +1811,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1803,14 +1827,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1836,7 +1860,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1853,11 +1877,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1869,7 +1893,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1886,14 +1910,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1902,7 +1926,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1919,14 +1943,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1935,14 +1959,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1975,7 +1999,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1985,14 +2009,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2001,14 +2025,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2018,11 +2042,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -2034,14 +2058,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2055,7 +2079,7 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -2067,14 +2091,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2084,14 +2108,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2100,14 +2124,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2117,11 +2141,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -2133,14 +2157,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2150,14 +2174,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2166,7 +2190,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2183,11 +2207,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2199,7 +2223,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2216,14 +2240,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2232,14 +2256,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2249,11 +2273,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>20</v>
@@ -2265,14 +2289,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2282,14 +2306,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>105</v>
-      </c>
-      <c t="s" r="Q33" s="12">
-        <v>106</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2298,14 +2322,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2315,11 +2339,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2331,7 +2355,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2348,14 +2372,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2364,7 +2388,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2381,11 +2405,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2397,14 +2421,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2414,14 +2438,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2430,14 +2454,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2447,14 +2471,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2463,14 +2487,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2487,7 +2511,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2503,7 +2527,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2520,7 +2544,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2536,7 +2560,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2553,7 +2577,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2569,7 +2593,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2579,14 +2603,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2595,14 +2619,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>136</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2619,7 +2643,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2635,7 +2659,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2652,7 +2676,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2668,24 +2692,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>75</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2701,7 +2725,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2711,14 +2735,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>75</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2734,21 +2758,21 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2760,14 +2784,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2777,14 +2801,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2793,14 +2817,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2810,14 +2834,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2833,7 +2857,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2843,14 +2867,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>57</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2859,14 +2883,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>20</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2876,14 +2900,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>57</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2899,7 +2923,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2913,10 +2937,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>115</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2925,14 +2949,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2942,14 +2966,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2965,7 +2989,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2979,10 +3003,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2998,13 +3022,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3015,7 +3039,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3041,11 +3065,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3064,24 +3088,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>34</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3090,14 +3114,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3107,14 +3131,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>75</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3130,24 +3154,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>35</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>75</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3156,14 +3180,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>46</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3173,14 +3197,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3189,14 +3213,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3206,11 +3230,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>38</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>39</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3222,14 +3246,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3239,14 +3263,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3255,14 +3279,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3272,14 +3296,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>39</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3295,7 +3319,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3305,14 +3329,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>23</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>24</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3321,14 +3345,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3338,11 +3362,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3354,14 +3378,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3371,11 +3395,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>153</v>
+        <v>23</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3387,14 +3411,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3404,14 +3428,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>128</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3420,14 +3444,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3437,14 +3461,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3453,14 +3477,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3470,14 +3494,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>130</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3493,7 +3517,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3503,14 +3527,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>133</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3519,14 +3543,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>208</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3536,14 +3560,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>121</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>122</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3552,28 +3576,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>210</v>
+        <v>22</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>98</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3585,31 +3609,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>213</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>124</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3618,28 +3642,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>27</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3658,21 +3682,21 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3684,28 +3708,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>27</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3724,13 +3748,13 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>22</v>
+        <v>216</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
@@ -3757,24 +3781,24 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>228</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>27</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>216</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3790,24 +3814,24 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>228</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3816,31 +3840,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>133</v>
+        <v>233</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>27</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3856,24 +3880,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>235</v>
+        <v>136</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>55</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3882,31 +3906,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>239</v>
+        <v>136</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>22</v>
+        <v>238</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3915,31 +3939,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3948,31 +3972,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>193</v>
+        <v>243</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>49</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>50</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3988,24 +4012,24 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>22</v>
+        <v>247</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4021,21 +4045,21 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4047,28 +4071,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>222</v>
+        <v>50</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>223</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4080,28 +4104,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>210</v>
+        <v>22</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4113,31 +4137,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>31</v>
+        <v>220</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4146,66 +4170,165 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>30</v>
+        <v>216</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>31</v>
+        <v>228</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>210</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
-      <c r="P91" s="13">
-        <v>4040.2449999999999</v>
-      </c>
-      <c r="Q91" s="13"/>
-    </row>
-    <row r="92" ht="16.5" customHeight="1">
-      <c t="s" r="A92" s="14">
-        <v>254</v>
-      </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c t="s" r="G92" s="15">
-        <v>255</v>
-      </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="16"/>
-      <c t="s" r="K92" s="17">
-        <v>256</v>
-      </c>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>259</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>216</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>49</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>220</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>221</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>260</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>136</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>49</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>32</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>261</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>31</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>49</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>32</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>245</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="P94" s="13">
+        <v>4533.7950000000001</v>
+      </c>
+      <c r="Q94" s="13"/>
+    </row>
+    <row r="95" ht="16.5" customHeight="1">
+      <c t="s" r="A95" s="14">
+        <v>262</v>
+      </c>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c t="s" r="G95" s="15">
+        <v>263</v>
+      </c>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="16"/>
+      <c t="s" r="K95" s="17">
+        <v>264</v>
+      </c>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="432">
+  <mergeCells count="447">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4634,10 +4757,25 @@
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="L90:M90"/>
     <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="K92:Q92"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="K95:Q95"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -584,6 +584,15 @@
     <t>3:2</t>
   </si>
   <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>136.5000</t>
+  </si>
+  <si>
     <t>THIOTACID 300MG 30 TAB.</t>
   </si>
   <si>
@@ -797,7 +806,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 8:23 PM</t>
+    <t>Wednesday, 16 July, 2025 8:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3319,7 +3328,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3336,7 +3345,7 @@
         <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3352,7 +3361,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3369,7 +3378,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3385,7 +3394,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3395,11 +3404,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>23</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>24</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3411,14 +3420,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>199</v>
+        <v>56</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3428,11 +3437,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>168</v>
+        <v>23</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3451,7 +3460,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>22</v>
+        <v>202</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3461,11 +3470,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3477,14 +3486,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>204</v>
+        <v>22</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3494,14 +3503,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>131</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3510,14 +3519,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3527,11 +3536,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>29</v>
@@ -3543,14 +3552,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>208</v>
+        <v>20</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3560,14 +3569,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>133</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3576,14 +3585,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>22</v>
+        <v>211</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3600,7 +3609,7 @@
         <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3616,7 +3625,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3626,14 +3635,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>124</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>125</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3642,31 +3651,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>124</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3696,7 +3705,7 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3708,14 +3717,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3725,11 +3734,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>27</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>82</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3741,14 +3750,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3758,11 +3767,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>27</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3781,7 +3790,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3795,10 +3804,10 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>94</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>216</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3807,14 +3816,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3824,14 +3833,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>219</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3847,7 +3856,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>233</v>
+        <v>22</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3857,11 +3866,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>27</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>82</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3873,14 +3882,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>136</v>
+        <v>236</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3890,14 +3899,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>27</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3923,14 +3932,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>238</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3939,7 +3948,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3956,14 +3965,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
+        <v>239</v>
+      </c>
+      <c t="s" r="Q83" s="12">
         <v>241</v>
-      </c>
-      <c t="s" r="Q83" s="12">
-        <v>31</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3979,7 +3988,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>243</v>
+        <v>136</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3989,14 +3998,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>56</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4005,14 +4014,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4022,14 +4031,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>22</v>
+        <v>56</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4045,7 +4054,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>136</v>
+        <v>250</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4055,14 +4064,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4078,7 +4087,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>199</v>
+        <v>136</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4088,11 +4097,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>50</v>
+        <v>253</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>51</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4104,14 +4113,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>22</v>
+        <v>202</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4121,11 +4130,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>254</v>
+        <v>50</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4144,7 +4153,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4154,14 +4163,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>51</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4170,14 +4179,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4187,14 +4196,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4203,14 +4212,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4220,11 +4229,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4236,14 +4245,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>136</v>
+        <v>219</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4253,11 +4262,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>32</v>
+        <v>223</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>33</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4269,14 +4278,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4290,45 +4299,78 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>245</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>216</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
-      <c r="P94" s="13">
-        <v>4533.7950000000001</v>
-      </c>
-      <c r="Q94" s="13"/>
-    </row>
-    <row r="95" ht="16.5" customHeight="1">
-      <c t="s" r="A95" s="14">
-        <v>262</v>
-      </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c t="s" r="G95" s="15">
-        <v>263</v>
-      </c>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="16"/>
-      <c t="s" r="K95" s="17">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
         <v>264</v>
       </c>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>31</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>49</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>32</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>248</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="P95" s="13">
+        <v>4670.2950000000001</v>
+      </c>
+      <c r="Q95" s="13"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c t="s" r="A96" s="14">
+        <v>265</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c t="s" r="G96" s="15">
+        <v>266</v>
+      </c>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c t="s" r="K96" s="17">
+        <v>267</v>
+      </c>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="447">
+  <mergeCells count="452">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4772,10 +4814,15 @@
     <mergeCell ref="H93:K93"/>
     <mergeCell ref="L93:M93"/>
     <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="K95:Q95"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="K96:Q96"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -806,7 +806,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 8:25 PM</t>
+    <t>Wednesday, 16 July, 2025 8:31 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -308,174 +308,186 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>8:2</t>
+    <t>8:1</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>7:3</t>
+  </si>
+  <si>
+    <t>19.9200</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>FERROTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>138.0000</t>
+  </si>
+  <si>
+    <t>FLACORT 30MG 20 TAB</t>
+  </si>
+  <si>
+    <t>164.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>FLIX NASAL SPRAY 50 MCG/METERED SPRAY DOSE</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>FORTAZEDIM 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>236.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>88.0000</t>
+  </si>
+  <si>
+    <t>GAPTIN 300 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>GOUTIFADE 40 MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>GOUTYLESS 30 TABS</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>HERO BABY DIGEST MILK 400 GM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>359.00</t>
+  </si>
+  <si>
+    <t>359.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>134.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>0:9</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>9:1</t>
+  </si>
+  <si>
     <t>31.6800</t>
   </si>
   <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>7:3</t>
-  </si>
-  <si>
-    <t>19.9200</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>FERROTRON 30 CAPS</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>138.0000</t>
-  </si>
-  <si>
-    <t>FLACORT 30MG 20 TAB</t>
-  </si>
-  <si>
-    <t>164.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>FLIX NASAL SPRAY 50 MCG/METERED SPRAY DOSE</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>FORTAZEDIM 1 GM VIAL</t>
-  </si>
-  <si>
-    <t>59.00</t>
-  </si>
-  <si>
-    <t>236.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>88.0000</t>
-  </si>
-  <si>
-    <t>GAPTIN 300 MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>74.00</t>
-  </si>
-  <si>
-    <t>74.0000</t>
-  </si>
-  <si>
-    <t>GOUTIFADE 40 MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>GOUTYLESS 30 TABS</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
-    <t>HERO BABY DIGEST MILK 400 GM</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>359.00</t>
-  </si>
-  <si>
-    <t>359.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
-    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
-  </si>
-  <si>
-    <t>67.00</t>
-  </si>
-  <si>
-    <t>134.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
-  </si>
-  <si>
-    <t>0:9</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>9:1</t>
-  </si>
-  <si>
     <t>MAVILOR 5MG 30 TAB.</t>
   </si>
   <si>
     <t>34.6500</t>
   </si>
   <si>
+    <t>MELLITOFIX 10MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>204.0000</t>
+  </si>
+  <si>
     <t>MICONAZ 2% ORAL GEL 20 GM</t>
   </si>
   <si>
@@ -566,9 +578,6 @@
     <t>72.00</t>
   </si>
   <si>
-    <t>47.5200</t>
-  </si>
-  <si>
     <t>SAFETRIUM 30 F.C. TABS.</t>
   </si>
   <si>
@@ -611,6 +620,15 @@
     <t>550.0000</t>
   </si>
   <si>
+    <t>URGINAFECT 10MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -806,7 +824,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 8:31 PM</t>
+    <t>Wednesday, 16 July, 2025 8:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2289,7 +2307,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2814,7 +2832,7 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2826,7 +2844,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2847,7 +2865,7 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>29</v>
@@ -2859,14 +2877,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2876,11 +2894,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2892,14 +2910,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2909,14 +2927,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>57</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2932,7 +2950,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2942,11 +2960,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>29</v>
@@ -2958,14 +2976,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2975,11 +2993,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>58</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>29</v>
@@ -2991,14 +3009,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3008,11 +3026,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>29</v>
@@ -3024,14 +3042,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3041,11 +3059,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>29</v>
@@ -3057,7 +3075,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3074,14 +3092,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3090,31 +3108,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3123,31 +3141,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3156,28 +3174,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>94</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3189,31 +3207,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3262,7 +3280,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>47</v>
+        <v>187</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3272,14 +3290,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3295,7 +3313,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>190</v>
+        <v>47</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3305,14 +3323,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>39</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3321,14 +3339,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>123</v>
+        <v>193</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3338,14 +3356,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>39</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3361,7 +3379,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3378,7 +3396,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3394,7 +3412,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3411,7 +3429,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3427,7 +3445,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3437,11 +3455,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>23</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>24</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3453,14 +3471,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>202</v>
+        <v>136</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3470,14 +3488,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3486,14 +3504,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3503,11 +3521,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>158</v>
+        <v>23</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3519,14 +3537,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3536,14 +3554,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>130</v>
+        <v>172</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>131</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3552,14 +3570,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3569,14 +3587,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3585,14 +3603,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3602,14 +3620,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>130</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3625,7 +3643,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3635,14 +3653,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>133</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3651,14 +3669,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>217</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3668,14 +3686,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>124</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>125</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3684,28 +3702,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>219</v>
+        <v>22</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>97</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3717,31 +3735,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>222</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>124</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3750,14 +3768,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3767,11 +3785,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>27</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3790,7 +3808,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3800,11 +3818,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3816,14 +3834,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>232</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3833,14 +3851,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>27</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>219</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3849,14 +3867,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>22</v>
+        <v>225</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3866,11 +3884,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3882,14 +3900,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3899,14 +3917,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>27</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>225</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3915,14 +3933,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3932,14 +3950,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3948,14 +3966,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>136</v>
+        <v>242</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3965,14 +3983,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>212</v>
+        <v>27</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>241</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3981,7 +3999,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -3998,11 +4016,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>31</v>
@@ -4014,14 +4032,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>246</v>
+        <v>136</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4031,14 +4049,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>56</v>
+        <v>247</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4047,14 +4065,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>250</v>
+        <v>136</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4064,14 +4082,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4080,14 +4098,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>136</v>
+        <v>252</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4104,7 +4122,7 @@
         <v>254</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4120,7 +4138,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>202</v>
+        <v>256</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4130,14 +4148,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>50</v>
+        <v>257</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>51</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4146,14 +4164,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4163,11 +4181,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4179,14 +4197,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>136</v>
+        <v>208</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4196,14 +4214,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>223</v>
+        <v>50</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>51</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4212,14 +4230,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>219</v>
+        <v>22</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4229,11 +4247,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4245,14 +4263,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>219</v>
+        <v>136</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4262,14 +4280,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>224</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4278,14 +4296,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>136</v>
+        <v>225</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4295,11 +4313,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>32</v>
+        <v>237</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>33</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4311,14 +4329,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>31</v>
+        <v>225</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4328,49 +4346,115 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>32</v>
+        <v>229</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>219</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
-      <c r="P95" s="13">
-        <v>4670.2950000000001</v>
-      </c>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c t="s" r="A96" s="14">
-        <v>265</v>
-      </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c t="s" r="G96" s="15">
-        <v>266</v>
-      </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="16"/>
-      <c t="s" r="K96" s="17">
-        <v>267</v>
-      </c>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>269</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>136</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>49</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>32</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>270</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>31</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>49</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>32</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>254</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="P97" s="13">
+        <v>4925.6350000000002</v>
+      </c>
+      <c r="Q97" s="13"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="14">
+        <v>271</v>
+      </c>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c t="s" r="G98" s="15">
+        <v>272</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c t="s" r="K98" s="17">
+        <v>273</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="452">
+  <mergeCells count="462">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4819,10 +4903,20 @@
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="K98:Q98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -473,6 +473,9 @@
     <t>31.6800</t>
   </si>
   <si>
+    <t>LOLAWEST 3GM 6 SACHETS</t>
+  </si>
+  <si>
     <t>MAVILOR 5MG 30 TAB.</t>
   </si>
   <si>
@@ -518,6 +521,15 @@
     <t>46.00</t>
   </si>
   <si>
+    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
     <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
   </si>
   <si>
@@ -785,6 +797,18 @@
     <t>6.00</t>
   </si>
   <si>
+    <t>شامبو فاتيكا 180مل</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>صابون ديتول اوريجنيال 115 جم</t>
+  </si>
+  <si>
     <t>صابون هارفى SUPP</t>
   </si>
   <si>
@@ -824,7 +848,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 8:44 PM</t>
+    <t>Wednesday, 16 July, 2025 8:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2851,7 +2875,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2861,14 +2885,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2877,14 +2901,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2894,14 +2918,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2910,14 +2934,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2927,11 +2951,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>57</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2950,7 +2974,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>161</v>
+        <v>31</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2960,14 +2984,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>57</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2976,14 +3000,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2993,11 +3017,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>29</v>
@@ -3009,14 +3033,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3026,11 +3050,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>29</v>
@@ -3042,14 +3066,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3059,11 +3083,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>29</v>
@@ -3075,14 +3099,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3092,14 +3116,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3108,14 +3132,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3125,14 +3149,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3141,28 +3165,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>29</v>
@@ -3174,7 +3198,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3191,11 +3215,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3207,14 +3231,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3224,14 +3248,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>35</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>94</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3240,14 +3264,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3257,14 +3281,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3273,31 +3297,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>187</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>35</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3306,14 +3330,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>47</v>
+        <v>187</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3323,14 +3347,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3339,14 +3363,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3356,14 +3380,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>39</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3372,14 +3396,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3389,11 +3413,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3405,14 +3429,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>29</v>
+        <v>197</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3422,11 +3446,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>39</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>29</v>
@@ -3438,14 +3462,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3455,11 +3479,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3471,14 +3495,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3488,11 +3512,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>29</v>
@@ -3504,14 +3528,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3521,11 +3545,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3544,7 +3568,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>208</v>
+        <v>136</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3554,14 +3578,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3577,7 +3601,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3587,11 +3611,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>162</v>
+        <v>23</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3603,14 +3627,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3620,14 +3644,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>131</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3643,7 +3667,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3653,14 +3677,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3686,14 +3710,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>130</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3702,14 +3726,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3719,14 +3743,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>133</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3735,14 +3759,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>221</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3752,14 +3776,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>124</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>125</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3775,21 +3799,21 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>225</v>
+        <v>22</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>97</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3808,24 +3832,24 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>228</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>124</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3834,14 +3858,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3851,11 +3875,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>27</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3867,14 +3891,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3884,11 +3908,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3900,14 +3924,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>236</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3917,14 +3941,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>27</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>225</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3933,14 +3957,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>22</v>
+        <v>229</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3950,11 +3974,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -3966,14 +3990,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>242</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3983,14 +4007,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>27</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>229</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3999,14 +4023,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4016,14 +4040,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4032,14 +4056,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>136</v>
+        <v>246</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4049,14 +4073,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>218</v>
+        <v>27</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>247</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4065,7 +4089,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4082,11 +4106,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>31</v>
@@ -4098,14 +4122,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>252</v>
+        <v>136</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4115,14 +4139,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>56</v>
+        <v>251</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4131,14 +4155,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>256</v>
+        <v>136</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4148,14 +4172,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4164,14 +4188,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>136</v>
+        <v>256</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4181,14 +4205,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4197,14 +4221,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4214,14 +4238,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>50</v>
+        <v>261</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>51</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4237,7 +4261,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4270,7 +4294,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>136</v>
+        <v>56</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4280,14 +4304,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>229</v>
+        <v>50</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>51</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4303,7 +4327,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>225</v>
+        <v>136</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4313,11 +4337,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4329,14 +4353,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4346,11 +4370,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>229</v>
+        <v>50</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>230</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4362,14 +4386,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4379,11 +4403,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>32</v>
+        <v>271</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>33</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4395,14 +4419,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4412,49 +4436,181 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>32</v>
+        <v>233</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>254</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>225</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
-      <c r="P97" s="13">
-        <v>4925.6350000000002</v>
-      </c>
-      <c r="Q97" s="13"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c t="s" r="A98" s="14">
-        <v>271</v>
-      </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c t="s" r="G98" s="15">
-        <v>272</v>
-      </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="16"/>
-      <c t="s" r="K98" s="17">
-        <v>273</v>
-      </c>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>274</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>229</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>49</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>241</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>275</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>276</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>229</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>49</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>233</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>234</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>277</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>136</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>49</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>32</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>278</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>31</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>49</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>32</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>258</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="P101" s="13">
+        <v>5182.6350000000002</v>
+      </c>
+      <c r="Q101" s="13"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="14">
+        <v>279</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c t="s" r="G102" s="15">
+        <v>280</v>
+      </c>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c t="s" r="K102" s="17">
+        <v>281</v>
+      </c>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="462">
+  <mergeCells count="482">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4913,10 +5069,30 @@
     <mergeCell ref="H96:K96"/>
     <mergeCell ref="L96:M96"/>
     <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="K102:Q102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -704,6 +704,15 @@
     <t>35.00</t>
   </si>
   <si>
+    <t>ايزي سويت قطعه</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -806,6 +815,15 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>شاور جل بلو لاين</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
@@ -824,9 +842,6 @@
     <t>قطن 50جم</t>
   </si>
   <si>
-    <t>10.00</t>
-  </si>
-  <si>
     <t>10.0000</t>
   </si>
   <si>
@@ -836,9 +851,6 @@
     <t>كريم 555</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>مبرد اظافر</t>
   </si>
   <si>
@@ -848,7 +860,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 8:48 PM</t>
+    <t>Wednesday, 16 July, 2025 8:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3898,7 +3910,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>232</v>
+        <v>56</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3908,14 +3920,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3924,14 +3936,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3941,11 +3953,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>27</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>82</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3957,14 +3969,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3974,11 +3986,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>27</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -3997,7 +4009,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>229</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4011,10 +4023,10 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>94</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>229</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4023,14 +4035,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4040,14 +4052,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>229</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4063,7 +4075,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>246</v>
+        <v>22</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4073,11 +4085,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>27</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>82</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4089,14 +4101,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>136</v>
+        <v>249</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4106,14 +4118,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>27</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4139,14 +4151,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>251</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4155,7 +4167,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4172,14 +4184,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
+        <v>252</v>
+      </c>
+      <c t="s" r="Q88" s="12">
         <v>254</v>
-      </c>
-      <c t="s" r="Q88" s="12">
-        <v>31</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4195,7 +4207,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>256</v>
+        <v>136</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4205,14 +4217,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>56</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4221,14 +4233,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4238,14 +4250,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>22</v>
+        <v>56</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4261,7 +4273,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>31</v>
+        <v>263</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4271,14 +4283,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4294,7 +4306,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4304,11 +4316,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>50</v>
+        <v>266</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>51</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4320,14 +4332,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4337,11 +4349,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4353,14 +4365,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>212</v>
+        <v>56</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4386,14 +4398,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4403,11 +4415,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4419,14 +4431,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>136</v>
+        <v>212</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4436,14 +4448,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>233</v>
+        <v>50</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>51</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4452,14 +4464,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>229</v>
+        <v>22</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4469,11 +4481,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4485,14 +4497,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>229</v>
+        <v>136</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4502,14 +4514,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>234</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4518,14 +4530,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>136</v>
+        <v>229</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4535,11 +4547,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>32</v>
+        <v>244</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4551,14 +4563,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>31</v>
+        <v>229</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4568,49 +4580,115 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>32</v>
+        <v>236</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q100" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>281</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>136</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>49</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>32</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>282</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>31</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>49</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>32</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>261</v>
+      </c>
+      <c t="s" r="Q102" s="12">
         <v>229</v>
       </c>
     </row>
-    <row r="101" ht="25.5" customHeight="1">
-      <c r="P101" s="13">
-        <v>5182.6350000000002</v>
-      </c>
-      <c r="Q101" s="13"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c t="s" r="A102" s="14">
-        <v>279</v>
-      </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c t="s" r="G102" s="15">
-        <v>280</v>
-      </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="16"/>
-      <c t="s" r="K102" s="17">
-        <v>281</v>
-      </c>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="P103" s="13">
+        <v>5252.6350000000002</v>
+      </c>
+      <c r="Q103" s="13"/>
+    </row>
+    <row r="104" ht="16.5" customHeight="1">
+      <c t="s" r="A104" s="14">
+        <v>283</v>
+      </c>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c t="s" r="G104" s="15">
+        <v>284</v>
+      </c>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="16"/>
+      <c t="s" r="K104" s="17">
+        <v>285</v>
+      </c>
+      <c r="L104" s="17"/>
+      <c r="M104" s="17"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="17"/>
+      <c r="P104" s="17"/>
+      <c r="Q104" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="482">
+  <mergeCells count="492">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5089,10 +5167,20 @@
     <mergeCell ref="H100:K100"/>
     <mergeCell ref="L100:M100"/>
     <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="K102:Q102"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="K104:Q104"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -233,6 +233,15 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>COXORIZET CAPS</t>
+  </si>
+  <si>
+    <t>249.00</t>
+  </si>
+  <si>
+    <t>82.1700</t>
+  </si>
+  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
@@ -506,6 +515,12 @@
     <t>12.8700</t>
   </si>
   <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>MUCOSTA 100MG 20 TAB</t>
   </si>
   <si>
@@ -536,6 +551,9 @@
     <t>152.00</t>
   </si>
   <si>
+    <t>152.0000</t>
+  </si>
+  <si>
     <t>NORGESIC 20 TAB.</t>
   </si>
   <si>
@@ -656,13 +674,10 @@
     <t>VOLTAREN 1% EMULGEL 25 GM</t>
   </si>
   <si>
-    <t>39.0000</t>
-  </si>
-  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>5:1</t>
+    <t>4:3</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
@@ -773,7 +788,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>8:0</t>
+    <t>18.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -860,7 +875,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 8:50 PM</t>
+    <t>Wednesday, 16 July, 2025 8:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2062,13 +2077,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -2095,7 +2110,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2105,14 +2120,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2121,14 +2136,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2138,11 +2153,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -2154,14 +2169,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2171,14 +2186,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2187,14 +2202,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2204,14 +2219,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2220,14 +2235,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2237,14 +2252,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2253,14 +2268,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2270,14 +2285,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2286,14 +2301,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2303,14 +2318,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2326,7 +2341,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2336,14 +2351,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2352,14 +2367,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2369,14 +2384,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>105</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2385,14 +2400,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2402,14 +2417,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>32</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>108</v>
-      </c>
-      <c t="s" r="Q34" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2425,7 +2440,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2442,7 +2457,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2458,7 +2473,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2475,7 +2490,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2491,7 +2506,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2508,7 +2523,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2524,7 +2539,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2534,14 +2549,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2550,14 +2565,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2567,14 +2582,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2583,14 +2598,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2607,7 +2622,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2623,7 +2638,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2640,7 +2655,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2656,7 +2671,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2689,7 +2704,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2699,14 +2714,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2715,14 +2730,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2739,7 +2754,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2755,7 +2770,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2772,7 +2787,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2788,7 +2803,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2805,7 +2820,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2821,24 +2836,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>149</v>
+        <v>22</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2860,15 +2875,15 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2887,7 +2902,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2897,14 +2912,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>63</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2913,14 +2928,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2930,14 +2945,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2946,14 +2961,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2963,14 +2978,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2986,7 +3001,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2996,11 +3011,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>58</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -3012,14 +3027,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>31</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3029,14 +3044,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>57</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3045,14 +3060,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3091,15 +3106,15 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>39</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>29</v>
@@ -3118,7 +3133,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3135,7 +3150,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3151,7 +3166,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3165,7 +3180,7 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>29</v>
@@ -3184,7 +3199,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3201,7 +3216,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3231,7 +3246,7 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3243,28 +3258,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>29</v>
@@ -3276,7 +3291,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3293,11 +3308,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>133</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3309,14 +3324,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3326,14 +3341,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>35</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>94</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3342,14 +3357,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>187</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3359,14 +3374,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>136</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3375,31 +3390,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>22</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>35</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3408,14 +3423,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3432,7 +3447,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3458,14 +3473,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>39</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3474,14 +3489,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3491,11 +3506,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3507,14 +3522,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>29</v>
+        <v>203</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3524,11 +3539,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>39</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>29</v>
@@ -3547,7 +3562,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3580,7 +3595,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3613,7 +3628,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>56</v>
+        <v>139</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3623,11 +3638,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>23</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>24</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3639,14 +3654,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>212</v>
+        <v>139</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3656,14 +3671,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3672,14 +3687,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3689,11 +3704,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3705,14 +3720,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3722,14 +3737,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>130</v>
+        <v>182</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>131</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3738,14 +3753,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3755,14 +3770,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3771,14 +3786,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3788,14 +3803,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>133</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3804,14 +3819,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3821,14 +3836,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>136</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3837,14 +3852,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>226</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3854,14 +3869,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3870,20 +3885,20 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>229</v>
+        <v>22</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -3891,7 +3906,7 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>97</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3903,31 +3918,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>127</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3936,14 +3951,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3953,11 +3968,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3969,14 +3984,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>239</v>
+        <v>56</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3986,14 +4001,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>27</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>82</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4002,14 +4017,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4042,7 +4057,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4052,14 +4067,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>27</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>229</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4075,7 +4090,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>22</v>
+        <v>234</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4108,7 +4123,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4118,14 +4133,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>27</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>234</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4141,7 +4156,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4158,7 +4173,7 @@
         <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4174,7 +4189,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>136</v>
+        <v>254</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4184,14 +4199,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>222</v>
+        <v>27</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>254</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4207,7 +4222,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4240,7 +4255,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>259</v>
+        <v>139</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4250,14 +4265,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>56</v>
+        <v>122</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4266,14 +4281,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>263</v>
+        <v>139</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4283,14 +4298,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4299,14 +4314,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>31</v>
+        <v>264</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4316,14 +4331,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4332,14 +4347,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>22</v>
+        <v>268</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4353,10 +4368,10 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4365,14 +4380,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4382,11 +4397,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>50</v>
+        <v>271</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>51</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4398,14 +4413,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4415,11 +4430,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4431,14 +4446,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>212</v>
+        <v>56</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4464,14 +4479,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4481,11 +4496,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>232</v>
+        <v>278</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4497,14 +4512,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>136</v>
+        <v>218</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4514,14 +4529,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>236</v>
+        <v>50</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>51</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4530,14 +4545,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>229</v>
+        <v>22</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4547,11 +4562,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4563,14 +4578,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>229</v>
+        <v>139</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4580,14 +4595,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>237</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4596,14 +4611,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>136</v>
+        <v>234</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4613,11 +4628,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>32</v>
+        <v>249</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>33</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4629,14 +4644,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>31</v>
+        <v>234</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4646,49 +4661,115 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>32</v>
+        <v>241</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>229</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
-      <c r="P103" s="13">
-        <v>5252.6350000000002</v>
-      </c>
-      <c r="Q103" s="13"/>
-    </row>
-    <row r="104" ht="16.5" customHeight="1">
-      <c t="s" r="A104" s="14">
-        <v>283</v>
-      </c>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c t="s" r="G104" s="15">
-        <v>284</v>
-      </c>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
-      <c r="J104" s="16"/>
-      <c t="s" r="K104" s="17">
-        <v>285</v>
-      </c>
-      <c r="L104" s="17"/>
-      <c r="M104" s="17"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="17"/>
-      <c r="P104" s="17"/>
-      <c r="Q104" s="17"/>
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>286</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>139</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>49</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>32</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>287</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>31</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>49</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>32</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>266</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="P105" s="13">
+        <v>5468.6350000000002</v>
+      </c>
+      <c r="Q105" s="13"/>
+    </row>
+    <row r="106" ht="16.5" customHeight="1">
+      <c t="s" r="A106" s="14">
+        <v>288</v>
+      </c>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c t="s" r="G106" s="15">
+        <v>289</v>
+      </c>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="16"/>
+      <c t="s" r="K106" s="17">
+        <v>290</v>
+      </c>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="492">
+  <mergeCells count="502">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5177,10 +5258,20 @@
     <mergeCell ref="H102:K102"/>
     <mergeCell ref="L102:M102"/>
     <mergeCell ref="N102:O102"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="K104:Q104"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="K106:Q106"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -554,6 +554,15 @@
     <t>152.0000</t>
   </si>
   <si>
+    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
     <t>NORGESIC 20 TAB.</t>
   </si>
   <si>
@@ -875,7 +884,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 8:51 PM</t>
+    <t>Wednesday, 16 July, 2025 8:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3282,7 +3291,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3312,10 +3321,10 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3324,31 +3333,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3364,24 +3373,24 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3390,28 +3399,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>97</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3423,31 +3432,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>193</v>
+        <v>22</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>35</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3456,14 +3465,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3473,11 +3482,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>104</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3496,7 +3505,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>47</v>
+        <v>200</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3506,14 +3515,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3529,7 +3538,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>203</v>
+        <v>47</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3539,14 +3548,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>39</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>40</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3555,14 +3564,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3572,14 +3581,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>39</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3595,7 +3604,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3612,7 +3621,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3628,7 +3637,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3645,7 +3654,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3678,7 +3687,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3694,7 +3703,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>56</v>
+        <v>139</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3704,14 +3713,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>23</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>24</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3720,14 +3729,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>218</v>
+        <v>56</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3737,11 +3746,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>182</v>
+        <v>23</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3760,7 +3769,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>22</v>
+        <v>221</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3770,11 +3779,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>169</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3786,14 +3795,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>222</v>
+        <v>22</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3803,14 +3812,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3819,14 +3828,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>20</v>
+        <v>225</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3836,14 +3845,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3852,14 +3861,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>226</v>
+        <v>20</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3869,14 +3878,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>136</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3885,14 +3894,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>22</v>
+        <v>229</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3909,7 +3918,7 @@
         <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3925,7 +3934,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3935,14 +3944,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>127</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>128</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3951,31 +3960,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>234</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>127</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3991,7 +4000,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>56</v>
+        <v>237</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4001,14 +4010,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4024,7 +4033,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>240</v>
+        <v>56</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4034,14 +4043,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4050,14 +4059,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4067,11 +4076,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>27</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>85</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4083,14 +4092,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4100,11 +4109,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>27</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4123,7 +4132,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4137,10 +4146,10 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>234</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4149,14 +4158,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4166,14 +4175,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>237</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4189,7 +4198,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>254</v>
+        <v>22</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4199,11 +4208,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>27</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>85</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4215,14 +4224,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>139</v>
+        <v>257</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4232,14 +4241,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>27</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4265,14 +4274,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>122</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4281,7 +4290,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4298,14 +4307,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>31</v>
+        <v>122</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4321,7 +4330,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>264</v>
+        <v>139</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4331,14 +4340,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>56</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4347,14 +4356,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4364,14 +4373,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>22</v>
+        <v>56</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4387,7 +4396,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>31</v>
+        <v>271</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4397,14 +4406,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4420,7 +4429,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4453,7 +4462,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4463,11 +4472,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>50</v>
+        <v>277</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>51</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4479,14 +4488,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4496,11 +4505,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>278</v>
+        <v>50</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>279</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4519,7 +4528,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>218</v>
+        <v>139</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4529,11 +4538,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>50</v>
+        <v>281</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>51</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4545,14 +4554,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>22</v>
+        <v>221</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4562,11 +4571,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>237</v>
+        <v>50</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>282</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4578,14 +4587,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>139</v>
+        <v>22</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4595,14 +4604,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>51</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4611,14 +4620,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>234</v>
+        <v>139</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4628,14 +4637,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>238</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4644,14 +4653,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4661,11 +4670,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4677,14 +4686,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>139</v>
+        <v>237</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4694,11 +4703,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>32</v>
+        <v>244</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>33</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4710,14 +4719,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4731,45 +4740,78 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>266</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>234</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
-      <c r="P105" s="13">
-        <v>5468.6350000000002</v>
-      </c>
-      <c r="Q105" s="13"/>
-    </row>
-    <row r="106" ht="16.5" customHeight="1">
-      <c t="s" r="A106" s="14">
-        <v>288</v>
-      </c>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c t="s" r="G106" s="15">
-        <v>289</v>
-      </c>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="16"/>
-      <c t="s" r="K106" s="17">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
         <v>290</v>
       </c>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="17"/>
-      <c r="P106" s="17"/>
-      <c r="Q106" s="17"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>31</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>49</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>32</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>269</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="P106" s="13">
+        <v>5536.6350000000002</v>
+      </c>
+      <c r="Q106" s="13"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c t="s" r="A107" s="14">
+        <v>291</v>
+      </c>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c t="s" r="G107" s="15">
+        <v>292</v>
+      </c>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c t="s" r="K107" s="17">
+        <v>293</v>
+      </c>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="502">
+  <mergeCells count="507">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5268,10 +5310,15 @@
     <mergeCell ref="H104:K104"/>
     <mergeCell ref="L104:M104"/>
     <mergeCell ref="N104:O104"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="K106:Q106"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="K107:Q107"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -884,7 +884,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 8:53 PM</t>
+    <t>Wednesday, 16 July, 2025 8:58 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -233,6 +233,18 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>CONSTIPRIDE 2 MG 28 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>185.75</t>
+  </si>
+  <si>
+    <t>92.8750</t>
+  </si>
+  <si>
     <t>COXORIZET CAPS</t>
   </si>
   <si>
@@ -428,9 +440,6 @@
     <t>HERO BABY DIGEST MILK 400 GM</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>359.00</t>
   </si>
   <si>
@@ -455,6 +464,12 @@
     <t>92.0000</t>
   </si>
   <si>
+    <t>HUSH SACHET</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
     <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
   </si>
   <si>
@@ -884,7 +899,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 8:58 PM</t>
+    <t>Wednesday, 16 July, 2025 8:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2086,24 +2101,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2112,28 +2127,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>29</v>
@@ -2145,14 +2160,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2169,7 +2184,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2185,7 +2200,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2195,11 +2210,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -2211,14 +2226,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2228,14 +2243,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2261,14 +2276,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2277,14 +2292,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2294,14 +2309,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2317,7 +2332,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2327,14 +2342,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2343,14 +2358,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2360,14 +2375,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2376,14 +2391,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2400,7 +2415,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2426,14 +2441,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>108</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2449,7 +2464,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2459,14 +2474,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2475,14 +2490,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2492,14 +2507,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2508,14 +2523,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2525,14 +2540,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2541,14 +2556,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2558,14 +2573,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2574,14 +2589,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2598,7 +2613,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2631,7 +2646,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2647,7 +2662,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2657,14 +2672,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2673,14 +2688,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2690,14 +2705,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2706,14 +2721,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2723,11 +2738,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>29</v>
@@ -2739,14 +2754,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2763,7 +2778,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2779,7 +2794,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2796,7 +2811,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2812,7 +2827,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2829,7 +2844,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2845,7 +2860,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2862,7 +2877,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2878,7 +2893,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2888,14 +2903,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2904,14 +2919,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2921,14 +2936,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2937,31 +2952,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>62</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2970,14 +2985,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2987,14 +3002,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3003,14 +3018,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3020,11 +3035,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>62</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -3043,7 +3058,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3053,14 +3068,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>58</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3069,14 +3084,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3093,7 +3108,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3109,24 +3124,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3135,14 +3150,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3181,15 +3196,15 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>39</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>58</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>29</v>
@@ -3208,7 +3223,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3225,7 +3240,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3241,7 +3256,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3255,10 +3270,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3267,14 +3282,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3284,11 +3299,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3300,7 +3315,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3317,14 +3332,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3333,7 +3348,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3350,11 +3365,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3373,13 +3388,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3416,11 +3431,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>136</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3439,7 +3454,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3449,14 +3464,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>35</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>97</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3465,14 +3480,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>196</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3482,14 +3497,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3505,24 +3520,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>200</v>
+        <v>22</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>35</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3531,14 +3546,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>47</v>
+        <v>201</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3548,14 +3563,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3564,14 +3579,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3581,14 +3596,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>39</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3604,7 +3619,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3637,7 +3652,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>29</v>
+        <v>211</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3647,11 +3662,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>29</v>
@@ -3663,14 +3678,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3680,11 +3695,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3696,14 +3711,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3713,11 +3728,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>29</v>
@@ -3729,14 +3744,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3746,11 +3761,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>23</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>24</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3762,14 +3777,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>221</v>
+        <v>75</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3779,14 +3794,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>185</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3795,14 +3810,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3812,11 +3827,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>166</v>
+        <v>23</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>169</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3828,14 +3843,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3845,14 +3860,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>137</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3861,14 +3876,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3878,14 +3893,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3894,14 +3909,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3911,14 +3926,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>137</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3927,14 +3942,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3944,14 +3959,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>140</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3960,14 +3975,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>234</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3977,14 +3992,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>127</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>128</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3993,20 +4008,20 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>237</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
@@ -4014,7 +4029,7 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>100</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -4026,31 +4041,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>131</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4059,14 +4074,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4076,11 +4091,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4092,14 +4107,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>247</v>
+        <v>56</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4109,14 +4124,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>27</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>85</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4125,14 +4140,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4165,7 +4180,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>252</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4175,14 +4190,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>252</v>
+        <v>27</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>237</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4198,7 +4213,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>22</v>
+        <v>242</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4231,7 +4246,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>257</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4241,14 +4256,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>27</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>242</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4264,7 +4279,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>139</v>
+        <v>22</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4281,7 +4296,7 @@
         <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4297,7 +4312,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>139</v>
+        <v>262</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4307,14 +4322,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>230</v>
+        <v>27</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>122</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4330,7 +4345,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4363,7 +4378,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>267</v>
+        <v>75</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4373,14 +4388,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>56</v>
+        <v>126</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4389,14 +4404,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>271</v>
+        <v>75</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4406,14 +4421,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4422,14 +4437,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4439,14 +4454,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4455,14 +4470,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>22</v>
+        <v>276</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4476,10 +4491,10 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4488,14 +4503,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4505,11 +4520,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>50</v>
+        <v>279</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>51</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4521,14 +4536,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>139</v>
+        <v>22</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4538,11 +4553,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4554,14 +4569,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>221</v>
+        <v>56</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4587,14 +4602,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4604,11 +4619,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>240</v>
+        <v>286</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4620,14 +4635,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>139</v>
+        <v>226</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4637,14 +4652,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>244</v>
+        <v>50</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
         <v>51</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4653,14 +4668,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>237</v>
+        <v>22</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4670,11 +4685,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>241</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4686,14 +4701,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>237</v>
+        <v>75</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4703,14 +4718,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>245</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4719,14 +4734,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>139</v>
+        <v>242</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4736,11 +4751,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>32</v>
+        <v>257</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>33</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4752,14 +4767,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>31</v>
+        <v>242</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4769,49 +4784,115 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>32</v>
+        <v>249</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>237</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
-      <c r="P106" s="13">
-        <v>5536.6350000000002</v>
-      </c>
-      <c r="Q106" s="13"/>
-    </row>
-    <row r="107" ht="16.5" customHeight="1">
-      <c t="s" r="A107" s="14">
-        <v>291</v>
-      </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c t="s" r="G107" s="15">
-        <v>292</v>
-      </c>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="16"/>
-      <c t="s" r="K107" s="17">
-        <v>293</v>
-      </c>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>294</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>75</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>49</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>32</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>295</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>31</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>49</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>32</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>274</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="P108" s="13">
+        <v>5759.5100000000002</v>
+      </c>
+      <c r="Q108" s="13"/>
+    </row>
+    <row r="109" ht="16.5" customHeight="1">
+      <c t="s" r="A109" s="14">
+        <v>296</v>
+      </c>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c t="s" r="G109" s="15">
+        <v>297</v>
+      </c>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="16"/>
+      <c t="s" r="K109" s="17">
+        <v>298</v>
+      </c>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="17"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="507">
+  <mergeCells count="517">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5315,10 +5396,20 @@
     <mergeCell ref="H105:K105"/>
     <mergeCell ref="L105:M105"/>
     <mergeCell ref="N105:O105"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="K107:Q107"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="K109:Q109"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -233,213 +233,210 @@
     <t>0:-1</t>
   </si>
   <si>
-    <t>CONSTIPRIDE 2 MG 28 F.C. TABS.</t>
+    <t>COXORIZET CAPS</t>
+  </si>
+  <si>
+    <t>249.00</t>
+  </si>
+  <si>
+    <t>82.1700</t>
+  </si>
+  <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>DEPO-PEN 1.2 MIU VIAL.</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>DIAMICRON MR 30 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>DOLCYL 2MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>8:1</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>7:3</t>
+  </si>
+  <si>
+    <t>19.9200</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>FERROTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>138.0000</t>
+  </si>
+  <si>
+    <t>FLACORT 30MG 20 TAB</t>
+  </si>
+  <si>
+    <t>164.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>FLIX NASAL SPRAY 50 MCG/METERED SPRAY DOSE</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>FORTAZEDIM 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>236.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>88.0000</t>
+  </si>
+  <si>
+    <t>GAPTIN 300 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>GOUTIFADE 40 MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>GOUTYLESS 30 TABS</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>HERO BABY DIGEST MILK 400 GM</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>185.75</t>
-  </si>
-  <si>
-    <t>92.8750</t>
-  </si>
-  <si>
-    <t>COXORIZET CAPS</t>
-  </si>
-  <si>
-    <t>249.00</t>
-  </si>
-  <si>
-    <t>82.1700</t>
-  </si>
-  <si>
-    <t>DANSET 4MG/2ML 3 AMP</t>
-  </si>
-  <si>
-    <t>82.50</t>
-  </si>
-  <si>
-    <t>27.2250</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>DEPO-PEN 1.2 MIU VIAL.</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>3:4</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>DIAMICRON MR 30 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>8:1</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>7:3</t>
-  </si>
-  <si>
-    <t>19.9200</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>FERROTRON 30 CAPS</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>138.0000</t>
-  </si>
-  <si>
-    <t>FLACORT 30MG 20 TAB</t>
-  </si>
-  <si>
-    <t>164.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>FLIX NASAL SPRAY 50 MCG/METERED SPRAY DOSE</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>FORTAZEDIM 1 GM VIAL</t>
-  </si>
-  <si>
-    <t>59.00</t>
-  </si>
-  <si>
-    <t>236.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>88.0000</t>
-  </si>
-  <si>
-    <t>GAPTIN 300 MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>74.00</t>
-  </si>
-  <si>
-    <t>74.0000</t>
-  </si>
-  <si>
-    <t>GOUTIFADE 40 MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>GOUTYLESS 30 TABS</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
-    <t>HERO BABY DIGEST MILK 400 GM</t>
-  </si>
-  <si>
     <t>359.00</t>
   </si>
   <si>
@@ -464,12 +461,6 @@
     <t>92.0000</t>
   </si>
   <si>
-    <t>HUSH SACHET</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
     <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
   </si>
   <si>
@@ -494,9 +485,6 @@
     <t>9:1</t>
   </si>
   <si>
-    <t>31.6800</t>
-  </si>
-  <si>
     <t>LOLAWEST 3GM 6 SACHETS</t>
   </si>
   <si>
@@ -545,6 +533,18 @@
     <t>57.0000</t>
   </si>
   <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>10.5600</t>
+  </si>
+  <si>
     <t>NEVILOB 2.5 MG 14 TAB.</t>
   </si>
   <si>
@@ -665,6 +665,15 @@
     <t>49.5000</t>
   </si>
   <si>
+    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>TRESIBA 100 I.U./ML FLEXTOUCH PRE-FILLED PEN</t>
   </si>
   <si>
@@ -686,12 +695,15 @@
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
     <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>38.0000</t>
   </si>
   <si>
@@ -752,6 +764,12 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -812,9 +830,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>18.0000</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -899,7 +914,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 8:59 PM</t>
+    <t>Wednesday, 16 July, 2025 9:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2101,24 +2116,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2127,28 +2142,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>29</v>
@@ -2160,14 +2175,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2184,7 +2199,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2200,7 +2215,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2210,11 +2225,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -2226,14 +2241,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2243,14 +2258,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2276,14 +2291,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2292,14 +2307,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2309,14 +2324,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2332,7 +2347,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2342,14 +2357,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2358,14 +2373,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2375,14 +2390,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2391,14 +2406,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2408,14 +2423,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2424,14 +2439,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2441,11 +2456,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>47</v>
@@ -2457,14 +2472,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2478,10 +2493,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2490,7 +2505,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2507,11 +2522,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2523,7 +2538,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2540,11 +2555,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>29</v>
@@ -2556,7 +2571,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2573,11 +2588,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2589,7 +2604,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2606,11 +2621,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>31</v>
@@ -2622,14 +2637,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2639,11 +2654,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>22</v>
@@ -2655,14 +2670,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2672,11 +2687,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>29</v>
@@ -2688,7 +2703,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2705,11 +2720,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2721,7 +2736,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2738,11 +2753,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>29</v>
@@ -2754,7 +2769,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2771,11 +2786,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>29</v>
@@ -2787,14 +2802,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2804,11 +2819,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2820,7 +2835,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2837,11 +2852,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>29</v>
@@ -2853,7 +2868,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2870,11 +2885,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2886,31 +2901,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>65</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2926,24 +2941,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2965,15 +2980,15 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -2985,14 +3000,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3002,14 +3017,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3018,14 +3033,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3035,14 +3050,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3051,14 +3066,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3068,14 +3083,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>71</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3084,14 +3099,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3101,11 +3116,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>57</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3117,14 +3132,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>31</v>
+        <v>166</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3134,14 +3149,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>58</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3157,21 +3172,21 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>170</v>
+        <v>29</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>39</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>29</v>
@@ -3183,28 +3198,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>29</v>
@@ -3216,14 +3231,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3289,7 +3304,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3497,7 +3512,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3534,7 +3549,7 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3600,7 +3615,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3685,7 +3700,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3751,7 +3766,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3784,7 +3799,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3801,7 +3816,7 @@
         <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3817,7 +3832,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3827,14 +3842,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>23</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>24</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3843,14 +3858,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3860,14 +3875,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>190</v>
+        <v>23</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3876,14 +3891,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>22</v>
+        <v>228</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3893,11 +3908,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>174</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3909,14 +3924,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>230</v>
+        <v>22</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3926,14 +3941,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3942,14 +3957,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>20</v>
+        <v>234</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3959,14 +3974,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3975,14 +3990,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>234</v>
+        <v>20</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3992,14 +4007,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>138</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4015,7 +4030,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>22</v>
+        <v>238</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4025,14 +4040,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4041,14 +4056,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4058,14 +4073,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>131</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>132</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4074,31 +4089,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>242</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4107,14 +4122,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>56</v>
+        <v>246</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4124,14 +4139,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4140,14 +4155,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>248</v>
+        <v>56</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4164,7 +4179,7 @@
         <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4190,14 +4205,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4213,7 +4228,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4223,11 +4238,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4239,14 +4254,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>258</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4256,14 +4271,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>27</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>242</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4272,14 +4287,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>22</v>
+        <v>246</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4289,11 +4304,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4305,14 +4320,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>262</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4322,14 +4337,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>27</v>
+        <v>263</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>246</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4338,14 +4353,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4355,14 +4370,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4371,14 +4386,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>75</v>
+        <v>268</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4388,14 +4403,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>235</v>
+        <v>27</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>126</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4404,14 +4419,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4421,11 +4436,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>31</v>
@@ -4437,14 +4452,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>272</v>
+        <v>141</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4454,14 +4469,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>56</v>
+        <v>252</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4470,14 +4485,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>276</v>
+        <v>141</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4487,14 +4502,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4503,14 +4518,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>31</v>
+        <v>277</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4520,14 +4535,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4536,14 +4551,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>22</v>
+        <v>281</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4557,10 +4572,10 @@
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4569,14 +4584,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4586,11 +4601,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>51</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4602,14 +4617,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4619,11 +4634,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4635,14 +4650,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>226</v>
+        <v>56</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4668,14 +4683,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4685,11 +4700,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>245</v>
+        <v>291</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4701,14 +4716,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>75</v>
+        <v>228</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4718,14 +4733,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>249</v>
+        <v>50</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
         <v>51</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4734,14 +4749,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>242</v>
+        <v>22</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4751,11 +4766,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>246</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4767,14 +4782,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4784,14 +4799,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>250</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4800,14 +4815,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>75</v>
+        <v>246</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4817,11 +4832,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>32</v>
+        <v>263</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>33</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4833,14 +4848,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>31</v>
+        <v>246</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4850,49 +4865,115 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>32</v>
+        <v>255</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>242</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
-      <c r="P108" s="13">
-        <v>5759.5100000000002</v>
-      </c>
-      <c r="Q108" s="13"/>
-    </row>
-    <row r="109" ht="16.5" customHeight="1">
-      <c t="s" r="A109" s="14">
-        <v>296</v>
-      </c>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c t="s" r="G109" s="15">
-        <v>297</v>
-      </c>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="16"/>
-      <c t="s" r="K109" s="17">
-        <v>298</v>
-      </c>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="17"/>
-      <c r="O109" s="17"/>
-      <c r="P109" s="17"/>
-      <c r="Q109" s="17"/>
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>299</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>141</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>49</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>32</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>300</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>31</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>49</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>32</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>279</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="P110" s="13">
+        <v>5791.875</v>
+      </c>
+      <c r="Q110" s="13"/>
+    </row>
+    <row r="111" ht="16.5" customHeight="1">
+      <c t="s" r="A111" s="14">
+        <v>301</v>
+      </c>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c t="s" r="G111" s="15">
+        <v>302</v>
+      </c>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="16"/>
+      <c t="s" r="K111" s="17">
+        <v>303</v>
+      </c>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
+      <c r="O111" s="17"/>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="517">
+  <mergeCells count="527">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5406,10 +5487,20 @@
     <mergeCell ref="H107:K107"/>
     <mergeCell ref="L107:M107"/>
     <mergeCell ref="N107:O107"/>
-    <mergeCell ref="P108:Q108"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="K109:Q109"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="K111:Q111"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -587,6 +587,15 @@
     <t>19.0000</t>
   </si>
   <si>
+    <t>OMEGA ZAD SYURP 100 ML</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>OTAL EAR DROPS 5 ML</t>
   </si>
   <si>
@@ -668,12 +677,6 @@
     <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
   </si>
   <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
     <t>TRESIBA 100 I.U./ML FLEXTOUCH PRE-FILLED PEN</t>
   </si>
   <si>
@@ -914,7 +917,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 9:05 PM</t>
+    <t>Wednesday, 16 July, 2025 9:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3436,7 +3439,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3450,7 +3453,7 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3462,31 +3465,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3502,24 +3505,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>138</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3528,28 +3531,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>97</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3561,31 +3564,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>201</v>
+        <v>22</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>35</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3594,14 +3597,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3611,11 +3614,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>106</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3634,7 +3637,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>47</v>
+        <v>208</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3644,14 +3647,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3667,7 +3670,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>211</v>
+        <v>47</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3677,14 +3680,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>39</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>40</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3693,14 +3696,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>128</v>
+        <v>214</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3710,14 +3713,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>39</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3733,7 +3736,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3750,7 +3753,7 @@
         <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3766,7 +3769,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3783,7 +3786,7 @@
         <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3799,7 +3802,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3809,11 +3812,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3825,7 +3828,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3842,14 +3845,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3858,14 +3861,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>228</v>
+        <v>141</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3875,14 +3878,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>23</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3891,14 +3894,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3908,14 +3911,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>190</v>
+        <v>23</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3924,14 +3927,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>22</v>
+        <v>229</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3941,11 +3944,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>170</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3964,7 +3967,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>234</v>
+        <v>22</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3974,14 +3977,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3990,14 +3993,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>20</v>
+        <v>235</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4007,14 +4010,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4023,14 +4026,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>238</v>
+        <v>20</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4040,14 +4043,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>138</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4056,14 +4059,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>22</v>
+        <v>239</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4073,14 +4076,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4089,14 +4092,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4106,14 +4109,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>129</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>130</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4129,24 +4132,24 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>246</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>129</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4155,14 +4158,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>56</v>
+        <v>247</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4172,14 +4175,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4188,14 +4191,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>252</v>
+        <v>56</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4205,11 +4208,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>97</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>22</v>
@@ -4221,14 +4224,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4238,14 +4241,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4254,14 +4257,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4271,11 +4274,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>27</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>85</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4287,14 +4290,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4304,11 +4307,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>260</v>
+        <v>27</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>261</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4320,14 +4323,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>247</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4337,14 +4340,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>97</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>246</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4353,14 +4356,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4370,14 +4373,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>266</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>247</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4386,14 +4389,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>268</v>
+        <v>22</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4403,11 +4406,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>27</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>85</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4419,14 +4422,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>141</v>
+        <v>269</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4436,14 +4439,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>270</v>
+        <v>27</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>271</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4452,7 +4455,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4469,14 +4472,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>252</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4502,14 +4505,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>274</v>
+        <v>240</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>31</v>
+        <v>253</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4518,14 +4521,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4535,14 +4538,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>56</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4551,14 +4554,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4568,14 +4571,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>22</v>
+        <v>56</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4584,14 +4587,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>31</v>
+        <v>282</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4601,14 +4604,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4617,14 +4620,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4634,11 +4637,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4650,14 +4653,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4667,11 +4670,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>50</v>
+        <v>288</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>51</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4690,7 +4693,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>141</v>
+        <v>56</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4700,11 +4703,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>291</v>
+        <v>50</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>292</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4716,14 +4719,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>228</v>
+        <v>141</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4733,11 +4736,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>50</v>
+        <v>292</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>51</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4756,7 +4759,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>22</v>
+        <v>229</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4766,11 +4769,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>249</v>
+        <v>50</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>295</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4782,14 +4785,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4799,14 +4802,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>51</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4822,7 +4825,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>246</v>
+        <v>141</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4832,14 +4835,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>250</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4855,7 +4858,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4865,11 +4868,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4888,7 +4891,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>141</v>
+        <v>247</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4898,11 +4901,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>33</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -4921,7 +4924,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4935,45 +4938,78 @@
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>279</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>246</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
-      <c r="P110" s="13">
-        <v>5791.875</v>
-      </c>
-      <c r="Q110" s="13"/>
-    </row>
-    <row r="111" ht="16.5" customHeight="1">
-      <c t="s" r="A111" s="14">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
         <v>301</v>
       </c>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c t="s" r="G111" s="15">
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>31</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>49</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>32</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>280</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="P111" s="13">
+        <v>5911.875</v>
+      </c>
+      <c r="Q111" s="13"/>
+    </row>
+    <row r="112" ht="16.5" customHeight="1">
+      <c t="s" r="A112" s="14">
         <v>302</v>
       </c>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="16"/>
-      <c t="s" r="K111" s="17">
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c t="s" r="G112" s="15">
         <v>303</v>
       </c>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="17"/>
-      <c r="O111" s="17"/>
-      <c r="P111" s="17"/>
-      <c r="Q111" s="17"/>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="16"/>
+      <c t="s" r="K112" s="17">
+        <v>304</v>
+      </c>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="17"/>
+      <c r="P112" s="17"/>
+      <c r="Q112" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="527">
+  <mergeCells count="532">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5497,10 +5533,15 @@
     <mergeCell ref="H109:K109"/>
     <mergeCell ref="L109:M109"/>
     <mergeCell ref="N109:O109"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="K111:Q111"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="K112:Q112"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -188,6 +188,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -296,9 +305,6 @@
     <t>65.00</t>
   </si>
   <si>
-    <t>13.0000</t>
-  </si>
-  <si>
     <t>DIAMICRON MR 30 MG 30 TAB.</t>
   </si>
   <si>
@@ -380,6 +386,15 @@
     <t>236.0000</t>
   </si>
   <si>
+    <t>FORTUM 1 GM VIAL.</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>106.0000</t>
+  </si>
+  <si>
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
@@ -602,6 +617,15 @@
     <t>19.00</t>
   </si>
   <si>
+    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -749,6 +773,9 @@
     <t>ZINCTRON 30 CAPS</t>
   </si>
   <si>
+    <t>ZOVIRAX D.S 400MG/5ML SUSP.100 ML</t>
+  </si>
+  <si>
     <t>اسيتون ايفا</t>
   </si>
   <si>
@@ -779,12 +806,6 @@
     <t>42:0</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>بلاستر مترسيلك 2.5 سم</t>
   </si>
   <si>
@@ -833,6 +854,12 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -917,7 +944,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 9:07 PM</t>
+    <t>Wednesday, 16 July, 2025 9:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1954,7 +1981,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1964,11 +1991,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1980,14 +2007,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1997,11 +2024,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -2020,7 +2047,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2037,7 +2064,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2053,7 +2080,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2086,7 +2113,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2103,7 +2130,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>73</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2112,31 +2139,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>76</v>
-      </c>
-      <c t="s" r="Q24" s="12">
-        <v>29</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2152,13 +2179,13 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -2185,7 +2212,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2195,14 +2222,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2211,14 +2238,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2228,11 +2255,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -2244,14 +2271,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2261,14 +2288,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2277,14 +2304,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2294,14 +2321,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2310,14 +2337,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2327,14 +2354,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2343,14 +2370,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2360,14 +2387,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2383,7 +2410,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2393,14 +2420,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2409,14 +2436,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2426,14 +2453,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2442,14 +2469,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2459,14 +2486,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2475,14 +2502,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2492,14 +2519,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>110</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2508,14 +2535,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2525,14 +2552,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2541,14 +2568,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2558,14 +2585,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2574,14 +2601,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2591,14 +2618,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2607,14 +2634,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2624,14 +2651,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2640,14 +2667,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2657,14 +2684,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2673,14 +2700,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2690,14 +2717,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2706,14 +2733,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2723,14 +2750,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2739,14 +2766,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2756,11 +2783,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>29</v>
@@ -2772,14 +2799,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2789,14 +2816,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2805,14 +2832,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>29</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2822,14 +2849,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2838,14 +2865,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2855,11 +2882,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>29</v>
@@ -2871,14 +2898,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2888,11 +2915,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2904,14 +2931,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2921,14 +2948,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2937,31 +2964,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2970,14 +2997,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>157</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2987,14 +3014,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3010,24 +3037,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>62</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3036,14 +3063,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>20</v>
+        <v>162</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3053,14 +3080,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3069,14 +3096,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3086,11 +3113,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3109,7 +3136,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3119,14 +3146,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>58</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3135,14 +3162,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3159,7 +3186,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3175,24 +3202,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3201,14 +3228,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3241,21 +3268,21 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>39</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>29</v>
@@ -3267,14 +3294,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3284,11 +3311,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>58</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>29</v>
@@ -3300,14 +3327,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3324,7 +3351,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3340,7 +3367,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3354,10 +3381,10 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3366,14 +3393,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3383,11 +3410,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3399,7 +3426,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3416,14 +3443,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3432,14 +3459,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3449,11 +3476,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3465,7 +3492,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3482,14 +3509,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3505,13 +3532,13 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3522,7 +3549,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3548,11 +3575,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3571,21 +3598,21 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>97</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3597,31 +3624,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>204</v>
+        <v>17</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3630,14 +3657,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3647,14 +3674,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>143</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>106</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3670,21 +3697,21 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>35</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3696,14 +3723,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3713,14 +3740,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>39</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>40</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3736,7 +3763,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>128</v>
+        <v>216</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3746,14 +3773,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3769,7 +3796,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3786,7 +3813,7 @@
         <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3802,7 +3829,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>222</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3812,14 +3839,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>193</v>
+        <v>39</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>194</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3828,14 +3855,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3845,11 +3872,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3861,14 +3888,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>141</v>
+        <v>29</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3878,11 +3905,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>29</v>
@@ -3894,14 +3921,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>229</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3911,14 +3938,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>23</v>
+        <v>198</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3927,14 +3954,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>229</v>
+        <v>146</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3944,7 +3971,7 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>190</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
@@ -3967,7 +3994,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>22</v>
+        <v>146</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3977,14 +4004,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>167</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>170</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3993,14 +4020,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4010,14 +4037,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>135</v>
+        <v>23</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>139</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4026,14 +4053,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>20</v>
+        <v>237</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4043,14 +4070,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>138</v>
+        <v>195</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4059,14 +4086,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>239</v>
+        <v>22</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4076,14 +4103,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>172</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4099,7 +4126,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>22</v>
+        <v>243</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4109,14 +4136,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>140</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4125,14 +4152,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4142,11 +4169,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>130</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>29</v>
@@ -4171,7 +4198,7 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
@@ -4179,10 +4206,10 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>100</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4191,31 +4218,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4224,31 +4251,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>253</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4264,21 +4291,21 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>255</v>
+        <v>22</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>65</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4290,14 +4317,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4307,11 +4334,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>27</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4323,14 +4350,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>247</v>
+        <v>56</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4340,14 +4367,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4356,14 +4383,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4373,14 +4400,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>264</v>
+        <v>50</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>247</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4389,14 +4416,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>22</v>
+        <v>264</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4406,11 +4433,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>203</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4422,14 +4449,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4443,7 +4470,7 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4455,14 +4482,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>141</v>
+        <v>256</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4472,14 +4499,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4488,14 +4515,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4505,14 +4532,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>251</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4521,14 +4548,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4538,14 +4565,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4554,14 +4581,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4571,14 +4598,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>279</v>
+        <v>27</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>280</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4587,14 +4614,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>282</v>
+        <v>146</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4604,14 +4631,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4620,14 +4647,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>31</v>
+        <v>146</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4637,14 +4664,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>285</v>
+        <v>248</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>282</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4653,14 +4680,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>22</v>
+        <v>146</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4670,14 +4697,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4686,14 +4713,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>56</v>
+        <v>287</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4703,14 +4730,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>50</v>
+        <v>288</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>51</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4719,14 +4746,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>141</v>
+        <v>291</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4740,10 +4767,10 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4752,14 +4779,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>229</v>
+        <v>31</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4769,11 +4796,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>50</v>
+        <v>294</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>51</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4785,7 +4812,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4802,11 +4829,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>250</v>
+        <v>297</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4818,14 +4845,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>141</v>
+        <v>56</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4835,14 +4862,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>256</v>
+        <v>50</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
         <v>51</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4851,14 +4878,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>247</v>
+        <v>146</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4868,11 +4895,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>251</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4884,14 +4911,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4901,11 +4928,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>256</v>
+        <v>50</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>257</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -4917,14 +4944,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4934,11 +4961,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>32</v>
+        <v>259</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>33</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -4950,14 +4977,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>31</v>
+        <v>146</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4967,49 +4994,181 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>32</v>
+        <v>203</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>280</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>247</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
-      <c r="P111" s="13">
-        <v>5911.875</v>
-      </c>
-      <c r="Q111" s="13"/>
-    </row>
-    <row r="112" ht="16.5" customHeight="1">
-      <c t="s" r="A112" s="14">
-        <v>302</v>
-      </c>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c t="s" r="G112" s="15">
-        <v>303</v>
-      </c>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="16"/>
-      <c t="s" r="K112" s="17">
-        <v>304</v>
-      </c>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="17"/>
-      <c r="O112" s="17"/>
-      <c r="P112" s="17"/>
-      <c r="Q112" s="17"/>
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>307</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>256</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>49</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>271</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>260</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>308</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>256</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>49</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>203</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>204</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>309</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>146</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>49</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>32</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>310</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>31</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>49</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>32</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>289</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="P115" s="13">
+        <v>6149.875</v>
+      </c>
+      <c r="Q115" s="13"/>
+    </row>
+    <row r="116" ht="16.5" customHeight="1">
+      <c t="s" r="A116" s="14">
+        <v>311</v>
+      </c>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c t="s" r="G116" s="15">
+        <v>312</v>
+      </c>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="16"/>
+      <c t="s" r="K116" s="17">
+        <v>313</v>
+      </c>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="532">
+  <mergeCells count="552">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5538,10 +5697,30 @@
     <mergeCell ref="H110:K110"/>
     <mergeCell ref="L110:M110"/>
     <mergeCell ref="N110:O110"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="K112:Q112"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="K116:Q116"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -242,6 +242,18 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>CONSTIPRIDE 2 MG 28 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>185.75</t>
+  </si>
+  <si>
+    <t>92.8750</t>
+  </si>
+  <si>
     <t>COXORIZET CAPS</t>
   </si>
   <si>
@@ -449,9 +461,6 @@
     <t>HERO BABY DIGEST MILK 400 GM</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>359.00</t>
   </si>
   <si>
@@ -474,6 +483,12 @@
   </si>
   <si>
     <t>92.0000</t>
+  </si>
+  <si>
+    <t>HUSH SACHET</t>
+  </si>
+  <si>
+    <t>130.0000</t>
   </si>
   <si>
     <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
@@ -2179,24 +2194,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2205,28 +2220,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>29</v>
@@ -2238,14 +2253,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2262,7 +2277,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2278,7 +2293,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2288,11 +2303,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -2304,14 +2319,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2321,14 +2336,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2354,14 +2369,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2370,14 +2385,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2387,14 +2402,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2403,14 +2418,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2420,14 +2435,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2436,14 +2451,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2453,14 +2468,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2469,14 +2484,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2486,14 +2501,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2502,14 +2517,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2519,14 +2534,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2535,14 +2550,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2552,14 +2567,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>112</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2575,7 +2590,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2585,14 +2600,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2601,14 +2616,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2618,14 +2633,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2634,14 +2649,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2651,14 +2666,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2667,14 +2682,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2684,14 +2699,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2700,7 +2715,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2717,14 +2732,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2733,14 +2748,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2757,7 +2772,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2790,7 +2805,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2806,7 +2821,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2816,14 +2831,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2832,14 +2847,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2849,14 +2864,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2865,14 +2880,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2882,11 +2897,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>29</v>
@@ -2898,14 +2913,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2922,7 +2937,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2938,7 +2953,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2955,7 +2970,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2971,7 +2986,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2988,7 +3003,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3004,7 +3019,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3021,7 +3036,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3037,7 +3052,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3047,14 +3062,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>68</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>33</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3063,14 +3078,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>162</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3080,14 +3095,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>104</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3103,24 +3118,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3129,14 +3144,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>20</v>
+        <v>167</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3146,14 +3161,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3162,14 +3177,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3179,11 +3194,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3202,7 +3217,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3212,14 +3227,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3228,14 +3243,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3252,7 +3267,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3268,24 +3283,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3294,14 +3309,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3334,21 +3349,21 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>29</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>39</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>29</v>
@@ -3360,14 +3375,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3377,11 +3392,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>58</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>29</v>
@@ -3393,14 +3408,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3417,7 +3432,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3433,7 +3448,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3447,10 +3462,10 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3459,14 +3474,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3476,11 +3491,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3492,7 +3507,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3509,14 +3524,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3525,14 +3540,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3542,11 +3557,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3558,7 +3573,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3575,14 +3590,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3598,7 +3613,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3631,13 +3646,13 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3645,10 +3660,10 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3657,7 +3672,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3674,7 +3689,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>143</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3697,7 +3712,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3707,14 +3722,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>35</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>99</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3723,14 +3738,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3740,14 +3755,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>147</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3763,24 +3778,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>216</v>
+        <v>22</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>35</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3789,14 +3804,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>47</v>
+        <v>217</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3806,14 +3821,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3822,14 +3837,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3839,14 +3854,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>39</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3862,7 +3877,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>133</v>
+        <v>47</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3895,7 +3910,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>29</v>
+        <v>227</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3905,11 +3920,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>39</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>29</v>
@@ -3921,14 +3936,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3938,11 +3953,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3954,14 +3969,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>146</v>
+        <v>29</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3971,14 +3986,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3987,14 +4002,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4004,14 +4019,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4020,14 +4035,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>237</v>
+        <v>78</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4037,14 +4052,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>23</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4053,14 +4068,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>237</v>
+        <v>78</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4070,14 +4085,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>195</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4093,7 +4108,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>22</v>
+        <v>242</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4103,14 +4118,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>172</v>
+        <v>23</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>175</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4119,14 +4134,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4136,14 +4151,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>144</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4152,14 +4167,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4169,14 +4184,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4185,14 +4200,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4202,14 +4217,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>144</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4218,14 +4233,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4235,14 +4250,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>251</v>
+        <v>147</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4251,14 +4266,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>252</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4268,14 +4283,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>134</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>135</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4284,7 +4299,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4301,11 +4316,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>65</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>66</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4317,31 +4332,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>256</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>138</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4350,31 +4365,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>65</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4383,14 +4398,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4400,14 +4415,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>50</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4423,7 +4438,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>264</v>
+        <v>56</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4433,14 +4448,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>203</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>204</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4449,14 +4464,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4466,14 +4481,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4482,14 +4497,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4499,11 +4514,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>268</v>
+        <v>208</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4522,7 +4537,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>271</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4532,14 +4547,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>27</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>256</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4555,7 +4570,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>22</v>
+        <v>261</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4588,7 +4603,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>276</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4598,14 +4613,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>27</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>261</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4621,7 +4636,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4638,7 +4653,7 @@
         <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4654,7 +4669,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>146</v>
+        <v>281</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4664,14 +4679,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>248</v>
+        <v>27</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>281</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>282</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4680,14 +4695,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4697,11 +4712,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>31</v>
@@ -4713,14 +4728,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>287</v>
+        <v>78</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4730,14 +4745,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>56</v>
+        <v>287</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4746,14 +4761,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>291</v>
+        <v>78</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4763,14 +4778,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4779,14 +4794,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>31</v>
+        <v>292</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4796,14 +4811,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4812,14 +4827,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>22</v>
+        <v>296</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4833,10 +4848,10 @@
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4845,14 +4860,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4862,11 +4877,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>50</v>
+        <v>299</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>51</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4878,14 +4893,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4895,11 +4910,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4911,14 +4926,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>237</v>
+        <v>56</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4944,14 +4959,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4961,11 +4976,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>259</v>
+        <v>306</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -4977,14 +4992,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>146</v>
+        <v>242</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4994,14 +5009,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>203</v>
+        <v>50</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
         <v>51</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5010,14 +5025,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>256</v>
+        <v>22</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5027,11 +5042,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5043,14 +5058,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>256</v>
+        <v>78</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5060,14 +5075,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>204</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5076,14 +5091,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>146</v>
+        <v>261</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5093,11 +5108,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>32</v>
+        <v>276</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>33</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5109,14 +5124,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>31</v>
+        <v>261</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5126,49 +5141,115 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>32</v>
+        <v>208</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>289</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>256</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
-      <c r="P115" s="13">
-        <v>6149.875</v>
-      </c>
-      <c r="Q115" s="13"/>
-    </row>
-    <row r="116" ht="16.5" customHeight="1">
-      <c t="s" r="A116" s="14">
-        <v>311</v>
-      </c>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c t="s" r="G116" s="15">
-        <v>312</v>
-      </c>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="16"/>
-      <c t="s" r="K116" s="17">
-        <v>313</v>
-      </c>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="17"/>
-      <c r="O116" s="17"/>
-      <c r="P116" s="17"/>
-      <c r="Q116" s="17"/>
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>314</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>78</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>49</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>32</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>315</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>31</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>49</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>32</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>294</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="P117" s="13">
+        <v>6372.75</v>
+      </c>
+      <c r="Q117" s="13"/>
+    </row>
+    <row r="118" ht="16.5" customHeight="1">
+      <c t="s" r="A118" s="14">
+        <v>316</v>
+      </c>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c t="s" r="G118" s="15">
+        <v>317</v>
+      </c>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="16"/>
+      <c t="s" r="K118" s="17">
+        <v>318</v>
+      </c>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
+      <c r="P118" s="17"/>
+      <c r="Q118" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="552">
+  <mergeCells count="562">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5717,10 +5798,20 @@
     <mergeCell ref="H114:K114"/>
     <mergeCell ref="L114:M114"/>
     <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="K116:Q116"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="K118:Q118"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -959,7 +959,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 9:09 PM</t>
+    <t>Wednesday, 16 July, 2025 9:30 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -176,6 +176,15 @@
     <t>26.7300</t>
   </si>
   <si>
+    <t>CALAMINE LOTION 120 ML NOVEX</t>
+  </si>
+  <si>
+    <t>47.00</t>
+  </si>
+  <si>
+    <t>47.0000</t>
+  </si>
+  <si>
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -659,6 +668,18 @@
     <t>PERIOCARE MOUTH SPRAY</t>
   </si>
   <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:5</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>6.7200</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -704,6 +725,15 @@
     <t>136.5000</t>
   </si>
   <si>
+    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>THIOTACID 300MG 30 TAB.</t>
   </si>
   <si>
@@ -917,12 +947,6 @@
     <t>شاور جل بلو لاين</t>
   </si>
   <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
@@ -959,7 +983,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 9:30 PM</t>
+    <t>Wednesday, 16 July, 2025 9:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1963,7 +1987,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1973,11 +1997,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1989,14 +2013,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2029,7 +2053,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2039,11 +2063,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -2055,14 +2079,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2072,11 +2096,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -2095,7 +2119,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2112,7 +2136,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2128,7 +2152,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2161,7 +2185,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2178,7 +2202,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>76</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2187,14 +2211,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2204,14 +2228,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2220,20 +2244,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -2244,7 +2268,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2260,13 +2284,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -2293,7 +2317,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2303,14 +2327,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2319,14 +2343,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2336,11 +2360,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -2352,14 +2376,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2369,14 +2393,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2385,14 +2409,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2402,14 +2426,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2418,14 +2442,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2435,14 +2459,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2458,7 +2482,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2468,14 +2492,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2484,14 +2508,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2501,14 +2525,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2524,7 +2548,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2541,7 +2565,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2557,7 +2581,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2567,14 +2591,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2600,14 +2624,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>116</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2616,14 +2640,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2633,14 +2657,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>119</v>
-      </c>
-      <c t="s" r="Q38" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2656,7 +2680,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2673,7 +2697,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2689,7 +2713,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2706,7 +2730,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2722,7 +2746,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2739,7 +2763,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2772,7 +2796,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2788,7 +2812,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2798,14 +2822,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2814,14 +2838,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2831,14 +2855,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2847,14 +2871,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2871,7 +2895,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2887,7 +2911,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2904,7 +2928,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2920,7 +2944,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2953,7 +2977,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2970,7 +2994,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2986,7 +3010,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3003,7 +3027,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3019,7 +3043,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3036,7 +3060,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3052,21 +3076,21 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>68</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -3078,31 +3102,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>71</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3118,24 +3142,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>164</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3157,15 +3181,15 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -3177,14 +3201,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3194,14 +3218,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3210,14 +3234,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3227,14 +3251,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3243,14 +3267,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3260,14 +3284,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3283,7 +3307,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3293,11 +3317,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>57</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>58</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3309,14 +3333,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>176</v>
+        <v>31</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3326,14 +3350,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>60</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3342,28 +3366,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>29</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>29</v>
@@ -3375,24 +3399,24 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>39</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3415,7 +3439,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3425,11 +3449,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>29</v>
@@ -3441,14 +3465,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3462,7 +3486,7 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>58</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>29</v>
@@ -3474,14 +3498,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3491,14 +3515,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3514,7 +3538,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3597,7 +3621,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3613,7 +3637,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3630,7 +3654,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3646,7 +3670,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3660,7 +3684,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3672,7 +3696,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3689,11 +3713,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3712,13 +3736,13 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3729,7 +3753,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3745,24 +3769,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>147</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3771,28 +3795,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>103</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3804,31 +3828,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>217</v>
+        <v>22</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>35</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3837,14 +3861,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3854,14 +3878,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>112</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3877,7 +3901,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>47</v>
+        <v>224</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3887,14 +3911,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3903,14 +3927,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3920,14 +3944,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>39</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3936,14 +3960,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>137</v>
+        <v>47</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3953,11 +3977,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3969,14 +3993,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>29</v>
+        <v>234</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3986,11 +4010,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>39</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>29</v>
@@ -4002,14 +4026,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4019,11 +4043,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>204</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -4035,14 +4059,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4052,11 +4076,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -4068,14 +4092,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4085,11 +4109,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>29</v>
@@ -4101,14 +4125,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>242</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4118,14 +4142,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>23</v>
+        <v>206</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4134,14 +4158,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>242</v>
+        <v>81</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4151,11 +4175,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4167,14 +4191,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4184,14 +4208,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>177</v>
+        <v>249</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4200,14 +4224,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4217,14 +4241,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>148</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4233,14 +4257,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>20</v>
+        <v>252</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4250,14 +4274,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>147</v>
+        <v>203</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4266,14 +4290,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>252</v>
+        <v>22</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4283,14 +4307,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>180</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4299,14 +4323,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>22</v>
+        <v>258</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4316,14 +4340,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>147</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4332,14 +4356,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4349,11 +4373,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>139</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>29</v>
@@ -4365,14 +4389,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>22</v>
+        <v>262</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4382,14 +4406,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>65</v>
+        <v>263</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>66</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4398,28 +4422,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>106</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4431,31 +4455,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>141</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4464,31 +4488,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>267</v>
+        <v>22</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4497,14 +4521,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4514,11 +4538,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>208</v>
+        <v>272</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>209</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4530,14 +4554,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>271</v>
+        <v>59</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4547,14 +4571,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>27</v>
+        <v>274</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>92</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4563,14 +4587,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4580,14 +4604,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>50</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4596,14 +4620,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4613,14 +4637,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>211</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>103</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>261</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4629,14 +4653,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>22</v>
+        <v>281</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4646,11 +4670,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>278</v>
+        <v>27</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>279</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4662,14 +4686,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4679,11 +4703,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>27</v>
+        <v>283</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>92</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4695,14 +4719,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4712,14 +4736,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>31</v>
+        <v>271</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4728,14 +4752,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4745,14 +4769,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>287</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4761,14 +4785,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>78</v>
+        <v>291</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4778,14 +4802,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>289</v>
+        <v>27</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>290</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4794,14 +4818,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>292</v>
+        <v>81</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4818,7 +4842,7 @@
         <v>294</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>56</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4834,7 +4858,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>296</v>
+        <v>81</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4844,14 +4868,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>22</v>
+        <v>297</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4867,7 +4891,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4884,7 +4908,7 @@
         <v>300</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4900,7 +4924,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>22</v>
+        <v>302</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4910,14 +4934,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4926,14 +4950,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>56</v>
+        <v>306</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4943,14 +4967,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>50</v>
+        <v>307</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>51</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4959,14 +4983,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4976,11 +5000,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -4992,14 +5016,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>242</v>
+        <v>22</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5009,11 +5033,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>50</v>
+        <v>239</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>51</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5025,14 +5049,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5042,11 +5066,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>264</v>
+        <v>50</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>310</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5058,14 +5082,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5075,14 +5099,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>208</v>
+        <v>314</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>51</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5091,14 +5115,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5108,11 +5132,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>276</v>
+        <v>50</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>265</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5124,14 +5148,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5141,11 +5165,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>208</v>
+        <v>274</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>209</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5157,14 +5181,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5174,14 +5198,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>32</v>
+        <v>211</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5190,14 +5214,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>31</v>
+        <v>271</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5207,49 +5231,148 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>32</v>
+        <v>286</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>261</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
-      <c r="P117" s="13">
-        <v>6372.75</v>
-      </c>
-      <c r="Q117" s="13"/>
-    </row>
-    <row r="118" ht="16.5" customHeight="1">
-      <c t="s" r="A118" s="14">
-        <v>316</v>
-      </c>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c t="s" r="G118" s="15">
-        <v>317</v>
-      </c>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="16"/>
-      <c t="s" r="K118" s="17">
-        <v>318</v>
-      </c>
-      <c r="L118" s="17"/>
-      <c r="M118" s="17"/>
-      <c r="N118" s="17"/>
-      <c r="O118" s="17"/>
-      <c r="P118" s="17"/>
-      <c r="Q118" s="17"/>
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>321</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>271</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>49</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>211</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>212</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>322</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>81</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>49</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>32</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>323</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>31</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>49</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>32</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>304</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="P120" s="13">
+        <v>6476.4700000000003</v>
+      </c>
+      <c r="Q120" s="13"/>
+    </row>
+    <row r="121" ht="16.5" customHeight="1">
+      <c t="s" r="A121" s="14">
+        <v>324</v>
+      </c>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c t="s" r="G121" s="15">
+        <v>325</v>
+      </c>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="16"/>
+      <c t="s" r="K121" s="17">
+        <v>326</v>
+      </c>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+      <c r="N121" s="17"/>
+      <c r="O121" s="17"/>
+      <c r="P121" s="17"/>
+      <c r="Q121" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="562">
+  <mergeCells count="577">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5808,10 +5931,25 @@
     <mergeCell ref="H116:K116"/>
     <mergeCell ref="L116:M116"/>
     <mergeCell ref="N116:O116"/>
-    <mergeCell ref="P117:Q117"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="K118:Q118"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="K121:Q121"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -125,597 +125,615 @@
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
-    <t>6:1</t>
+    <t>5:2</t>
   </si>
   <si>
     <t>78.00</t>
   </si>
   <si>
+    <t>77.2200</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>AVEROCOXIB 90 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>228.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>28.5000</t>
+  </si>
+  <si>
+    <t>AVUVA WHITE PASTE</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>BLOKATENS 10/160MG 28 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>CALAMINE LOTION 120 ML NOVEX</t>
+  </si>
+  <si>
+    <t>47.00</t>
+  </si>
+  <si>
+    <t>47.0000</t>
+  </si>
+  <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>CIDOPHAGE RETARD 850MG 60 S.R. TABS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
+    <t>COLOVERIN A 30 TABLETS</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>-34.6500</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>CONSTIPRIDE 2 MG 28 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>185.75</t>
+  </si>
+  <si>
+    <t>92.8750</t>
+  </si>
+  <si>
+    <t>COXORIZET CAPS</t>
+  </si>
+  <si>
+    <t>249.00</t>
+  </si>
+  <si>
+    <t>82.1700</t>
+  </si>
+  <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>DEPO-PEN 1.2 MIU VIAL.</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>DIAMICRON MR 30 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>DOLCYL 2MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>8:1</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>7:3</t>
+  </si>
+  <si>
+    <t>19.9200</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>FERROTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>138.0000</t>
+  </si>
+  <si>
+    <t>FLACORT 30MG 20 TAB</t>
+  </si>
+  <si>
+    <t>164.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>FLIX NASAL SPRAY 50 MCG/METERED SPRAY DOSE</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>FORTAZEDIM 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>236.0000</t>
+  </si>
+  <si>
+    <t>FORTUM 1 GM VIAL.</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>106.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>88.0000</t>
+  </si>
+  <si>
+    <t>GAPTIN 300 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>GOUTIFADE 40 MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>GOUTYLESS 30 TABS</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>HERO BABY DIGEST MILK 400 GM</t>
+  </si>
+  <si>
+    <t>359.00</t>
+  </si>
+  <si>
+    <t>359.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>HUSH SACHET</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>134.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>0:9</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>9:1</t>
+  </si>
+  <si>
+    <t>LOLAWEST 3GM 6 SACHETS</t>
+  </si>
+  <si>
+    <t>MAVILOR 5MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
+    <t>MELLITOFIX 10MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>204.0000</t>
+  </si>
+  <si>
+    <t>MICONAZ 2% ORAL GEL 20 GM</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>MUCOSTA 100MG 20 TAB</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>10.5600</t>
+  </si>
+  <si>
+    <t>NEVILOB 2.5 MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>152.0000</t>
+  </si>
+  <si>
+    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>NORGESIC 20 TAB.</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>OMEGA ZAD SYURP 100 ML</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>OTAL EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>PERIOCARE MOUTH SPRAY</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:5</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>6.7200</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:12</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>14.1000</t>
+  </si>
+  <si>
+    <t>ROWACHOL 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>SAFETRIUM 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
     <t>25.7400</t>
   </si>
   <si>
-    <t>AVEROCOXIB 90 MG 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>228.00</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>28.5000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>AVUVA WHITE PASTE</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>BI ALCOFAN 150 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>CALAMINE LOTION 120 ML NOVEX</t>
-  </si>
-  <si>
-    <t>47.00</t>
-  </si>
-  <si>
-    <t>47.0000</t>
-  </si>
-  <si>
-    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
-  </si>
-  <si>
-    <t>13.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t>CIDOPHAGE RETARD 850MG 60 S.R. TABS</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>42.9000</t>
-  </si>
-  <si>
-    <t>COLOVERIN A 30 TABLETS</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>32.6700</t>
-  </si>
-  <si>
-    <t>COLOVERIN D 135MG 30 TAB</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>-34.6500</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>CONSTIPRIDE 2 MG 28 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>185.75</t>
-  </si>
-  <si>
-    <t>92.8750</t>
-  </si>
-  <si>
-    <t>COXORIZET CAPS</t>
-  </si>
-  <si>
-    <t>249.00</t>
-  </si>
-  <si>
-    <t>82.1700</t>
-  </si>
-  <si>
-    <t>DANSET 4MG/2ML 3 AMP</t>
-  </si>
-  <si>
-    <t>82.50</t>
-  </si>
-  <si>
-    <t>27.2250</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>DEPO-PEN 1.2 MIU VIAL.</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>3:4</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>DIAMICRON MR 30 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>DOLCYL 2MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>8:1</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>7:3</t>
-  </si>
-  <si>
-    <t>19.9200</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>FERROTRON 30 CAPS</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>138.0000</t>
-  </si>
-  <si>
-    <t>FLACORT 30MG 20 TAB</t>
-  </si>
-  <si>
-    <t>164.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>FLIX NASAL SPRAY 50 MCG/METERED SPRAY DOSE</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>FORTAZEDIM 1 GM VIAL</t>
-  </si>
-  <si>
-    <t>59.00</t>
-  </si>
-  <si>
-    <t>236.0000</t>
-  </si>
-  <si>
-    <t>FORTUM 1 GM VIAL.</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>106.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>88.0000</t>
-  </si>
-  <si>
-    <t>GAPTIN 300 MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>74.00</t>
-  </si>
-  <si>
-    <t>74.0000</t>
-  </si>
-  <si>
-    <t>GOUTIFADE 40 MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>GOUTYLESS 30 TABS</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
-    <t>HERO BABY DIGEST MILK 400 GM</t>
-  </si>
-  <si>
-    <t>359.00</t>
-  </si>
-  <si>
-    <t>359.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
-    <t>HUSH SACHET</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
-  </si>
-  <si>
-    <t>67.00</t>
-  </si>
-  <si>
-    <t>134.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
-  </si>
-  <si>
-    <t>0:9</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>9:1</t>
-  </si>
-  <si>
-    <t>LOLAWEST 3GM 6 SACHETS</t>
-  </si>
-  <si>
-    <t>MAVILOR 5MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>34.6500</t>
-  </si>
-  <si>
-    <t>MELLITOFIX 10MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>204.00</t>
-  </si>
-  <si>
-    <t>204.0000</t>
-  </si>
-  <si>
-    <t>MICONAZ 2% ORAL GEL 20 GM</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>6:2</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>MUCOSTA 100MG 20 TAB</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>3:3</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>10.5600</t>
-  </si>
-  <si>
-    <t>NEVILOB 2.5 MG 14 TAB.</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>152.0000</t>
-  </si>
-  <si>
-    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>NORGESIC 20 TAB.</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>OMEGA ZAD SYURP 100 ML</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>OTAL EAR DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>19.00</t>
-  </si>
-  <si>
-    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>102.0000</t>
-  </si>
-  <si>
-    <t>PERIOCARE MOUTH SPRAY</t>
-  </si>
-  <si>
-    <t>RANI-F 20MG 6 SACHETS</t>
-  </si>
-  <si>
-    <t>5:5</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>6.7200</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>0:12</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>14.1000</t>
-  </si>
-  <si>
-    <t>ROWACHOL 45 CAPSULES</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>SAFETRIUM 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -725,6 +743,12 @@
     <t>136.5000</t>
   </si>
   <si>
+    <t>TEBONINA FORTE 40MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
   </si>
   <si>
@@ -941,9 +965,6 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>45.0000</t>
-  </si>
-  <si>
     <t>شاور جل بلو لاين</t>
   </si>
   <si>
@@ -983,7 +1004,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 9:41 PM</t>
+    <t>Wednesday, 16 July, 2025 9:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1839,7 +1860,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1848,7 +1869,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1865,11 +1886,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>29</v>
@@ -1881,7 +1902,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1898,14 +1919,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1987,7 +2008,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2004,7 +2025,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2020,7 +2041,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2030,11 +2051,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -2046,14 +2067,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2086,7 +2107,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2096,11 +2117,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -2112,14 +2133,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2129,11 +2150,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -2152,7 +2173,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2169,7 +2190,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2185,7 +2206,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2218,7 +2239,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2235,7 +2256,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>79</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2244,14 +2265,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2261,14 +2282,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2277,20 +2298,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -2301,7 +2322,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2317,13 +2338,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -2350,7 +2371,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2360,14 +2381,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2376,14 +2397,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2393,7 +2414,7 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
@@ -2416,7 +2437,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2426,14 +2447,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2442,14 +2463,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2459,14 +2480,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2492,14 +2513,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2508,14 +2529,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2525,14 +2546,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2548,7 +2569,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2558,11 +2579,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>29</v>
@@ -2574,14 +2595,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2591,14 +2612,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>35</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2614,7 +2635,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2624,14 +2645,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2647,7 +2668,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2657,14 +2678,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>119</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2673,14 +2694,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2690,14 +2711,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2706,14 +2727,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2723,14 +2744,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q40" s="12">
         <v>125</v>
-      </c>
-      <c t="s" r="Q40" s="12">
-        <v>29</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2746,7 +2767,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2779,7 +2800,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2796,7 +2817,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2812,7 +2833,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2845,7 +2866,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>31</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2855,14 +2876,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2871,14 +2892,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2888,14 +2909,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2904,14 +2925,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2921,14 +2942,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2937,14 +2958,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2977,7 +2998,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2994,7 +3015,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3010,7 +3031,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3027,7 +3048,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3043,7 +3064,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3076,7 +3097,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3109,24 +3130,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>71</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3135,14 +3156,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3152,14 +3173,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3168,14 +3189,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>167</v>
+        <v>84</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3185,14 +3206,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>33</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3208,7 +3229,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>170</v>
+        <v>22</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3218,14 +3239,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>112</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3234,31 +3255,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>68</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3267,14 +3288,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3284,14 +3305,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3300,14 +3321,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3317,11 +3338,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>71</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3333,14 +3354,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3350,14 +3371,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>61</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3366,14 +3387,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>84</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3383,14 +3404,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3399,31 +3420,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3439,7 +3460,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3449,11 +3470,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>29</v>
@@ -3465,28 +3486,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>188</v>
+        <v>29</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>39</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>29</v>
@@ -3498,14 +3519,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3515,11 +3536,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>61</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>29</v>
@@ -3538,7 +3559,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>81</v>
+        <v>194</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3548,14 +3569,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3564,14 +3585,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3581,14 +3602,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3604,7 +3625,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3654,7 +3675,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3670,7 +3691,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3717,10 +3738,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3729,14 +3750,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3746,11 +3767,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3762,31 +3783,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3812,11 +3833,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>150</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3828,14 +3849,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3845,14 +3866,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>106</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3861,14 +3882,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3878,14 +3899,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>156</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3901,24 +3922,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>224</v>
+        <v>22</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>35</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3927,14 +3948,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3944,14 +3965,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>115</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3960,14 +3981,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>47</v>
+        <v>229</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3977,14 +3998,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3993,14 +4014,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4010,14 +4031,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>39</v>
+        <v>234</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4033,7 +4054,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4066,7 +4087,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>22</v>
+        <v>239</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4076,14 +4097,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>239</v>
+        <v>39</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4099,7 +4120,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4116,7 +4137,7 @@
         <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4142,14 +4163,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>207</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4158,14 +4179,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4175,11 +4196,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4191,14 +4212,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4208,11 +4229,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>29</v>
@@ -4224,14 +4245,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>252</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4241,14 +4262,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>23</v>
+        <v>212</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4257,14 +4278,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>252</v>
+        <v>84</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4274,7 +4295,7 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>203</v>
+        <v>254</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
@@ -4297,7 +4318,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4307,14 +4328,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>180</v>
+        <v>257</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>183</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4323,14 +4344,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4340,14 +4361,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>147</v>
+        <v>23</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>151</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4356,14 +4377,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>20</v>
+        <v>260</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4373,14 +4394,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>150</v>
+        <v>209</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4389,14 +4410,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>262</v>
+        <v>22</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4406,14 +4427,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>263</v>
+        <v>186</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>264</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4429,7 +4450,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>22</v>
+        <v>266</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4439,14 +4460,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>266</v>
+        <v>153</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>267</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4455,14 +4476,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4472,11 +4493,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>142</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>29</v>
@@ -4495,7 +4516,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>22</v>
+        <v>270</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4505,14 +4526,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>68</v>
+        <v>271</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>69</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4521,28 +4542,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>271</v>
+        <v>22</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>109</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4554,31 +4575,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>274</v>
+        <v>147</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>275</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4587,31 +4608,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>277</v>
+        <v>22</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4637,11 +4658,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>211</v>
+        <v>280</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>212</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4653,14 +4674,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>281</v>
+        <v>62</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4670,14 +4691,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>27</v>
+        <v>282</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>95</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4686,14 +4707,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4703,14 +4724,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>283</v>
+        <v>50</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>284</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4719,14 +4740,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>287</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4736,14 +4757,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>286</v>
+        <v>217</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>106</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>271</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4752,14 +4773,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>22</v>
+        <v>289</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4769,11 +4790,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>288</v>
+        <v>27</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>289</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4792,7 +4813,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4802,11 +4823,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>27</v>
+        <v>291</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>95</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4818,14 +4839,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4835,14 +4856,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>294</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>31</v>
+        <v>279</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4858,7 +4879,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4868,14 +4889,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>297</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4891,7 +4912,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>81</v>
+        <v>299</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4901,14 +4922,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>299</v>
+        <v>27</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>300</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4917,14 +4938,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>302</v>
+        <v>84</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4934,14 +4955,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>59</v>
+        <v>31</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4950,14 +4971,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>306</v>
+        <v>84</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4967,14 +4988,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>22</v>
+        <v>305</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4983,14 +5004,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5000,14 +5021,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5016,14 +5037,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>22</v>
+        <v>310</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5033,14 +5054,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>239</v>
+        <v>311</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>240</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5049,14 +5070,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>59</v>
+        <v>314</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5066,14 +5087,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>50</v>
+        <v>315</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>51</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5082,14 +5103,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5099,11 +5120,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>315</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5115,14 +5136,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>252</v>
+        <v>22</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5132,11 +5153,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>50</v>
+        <v>247</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>51</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5148,14 +5169,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5165,11 +5186,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>274</v>
+        <v>50</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>318</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5181,14 +5202,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5198,14 +5219,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>211</v>
+        <v>321</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>51</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5214,14 +5235,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5231,11 +5252,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>286</v>
+        <v>50</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>275</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5247,14 +5268,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>271</v>
+        <v>22</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5264,11 +5285,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>211</v>
+        <v>282</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>212</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5280,14 +5301,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5297,14 +5318,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>32</v>
+        <v>217</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5313,14 +5334,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>31</v>
+        <v>279</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5330,49 +5351,148 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>32</v>
+        <v>294</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>271</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
-      <c r="P120" s="13">
-        <v>6476.4700000000003</v>
-      </c>
-      <c r="Q120" s="13"/>
-    </row>
-    <row r="121" ht="16.5" customHeight="1">
-      <c t="s" r="A121" s="14">
-        <v>324</v>
-      </c>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c t="s" r="G121" s="15">
-        <v>325</v>
-      </c>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="16"/>
-      <c t="s" r="K121" s="17">
-        <v>326</v>
-      </c>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="17"/>
-      <c r="O121" s="17"/>
-      <c r="P121" s="17"/>
-      <c r="Q121" s="17"/>
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>328</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>279</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>49</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>217</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>329</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>84</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>49</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>32</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>330</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>31</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>49</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>32</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>312</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="P123" s="13">
+        <v>6688.5900000000001</v>
+      </c>
+      <c r="Q123" s="13"/>
+    </row>
+    <row r="124" ht="16.5" customHeight="1">
+      <c t="s" r="A124" s="14">
+        <v>331</v>
+      </c>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c t="s" r="G124" s="15">
+        <v>332</v>
+      </c>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="16"/>
+      <c t="s" r="K124" s="17">
+        <v>333</v>
+      </c>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+      <c r="N124" s="17"/>
+      <c r="O124" s="17"/>
+      <c r="P124" s="17"/>
+      <c r="Q124" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="577">
+  <mergeCells count="592">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5946,10 +6066,25 @@
     <mergeCell ref="H119:K119"/>
     <mergeCell ref="L119:M119"/>
     <mergeCell ref="N119:O119"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="K121:Q121"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="K124:Q124"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -1004,7 +1004,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 9:46 PM</t>
+    <t>Wednesday, 16 July, 2025 9:55 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -218,7 +218,10 @@
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
-    <t>12:0</t>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>62.0000</t>
   </si>
   <si>
     <t>CIDOPHAGE RETARD 850MG 60 S.R. TABS</t>
@@ -695,6 +698,15 @@
     <t>6.7200</t>
   </si>
   <si>
+    <t>RHINEX 0.05% INFANTILE NASAL DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -794,9 +806,6 @@
     <t>5:0</t>
   </si>
   <si>
-    <t>62.0000</t>
-  </si>
-  <si>
     <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
   </si>
   <si>
@@ -878,9 +887,6 @@
     <t>بلاستر مترسيلك 2.5 سم</t>
   </si>
   <si>
-    <t>11:0</t>
-  </si>
-  <si>
     <t>جل هير كود 185 مل</t>
   </si>
   <si>
@@ -1004,7 +1010,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 9:55 PM</t>
+    <t>Wednesday, 16 July, 2025 10:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2154,10 +2160,10 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2166,7 +2172,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -2183,11 +2189,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -2199,7 +2205,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2216,11 +2222,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>29</v>
@@ -2232,7 +2238,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2249,11 +2255,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>29</v>
@@ -2265,7 +2271,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2282,14 +2288,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2298,14 +2304,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2315,11 +2321,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>20</v>
@@ -2331,7 +2337,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2348,11 +2354,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>29</v>
@@ -2364,7 +2370,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2381,11 +2387,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>29</v>
@@ -2397,7 +2403,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2414,11 +2420,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2430,7 +2436,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2451,7 +2457,7 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2463,14 +2469,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2480,11 +2486,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>29</v>
@@ -2496,14 +2502,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2513,11 +2519,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2529,14 +2535,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2546,7 +2552,7 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2562,14 +2568,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2579,11 +2585,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>29</v>
@@ -2595,7 +2601,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2616,7 +2622,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2628,7 +2634,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2645,11 +2651,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>29</v>
@@ -2661,7 +2667,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2678,11 +2684,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>20</v>
@@ -2694,14 +2700,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2711,11 +2717,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>41</v>
@@ -2727,14 +2733,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2748,10 +2754,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2760,7 +2766,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2777,11 +2783,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2793,7 +2799,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2810,11 +2816,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>29</v>
@@ -2826,7 +2832,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2843,11 +2849,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2859,7 +2865,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2876,11 +2882,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>31</v>
@@ -2892,7 +2898,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2909,11 +2915,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2925,14 +2931,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2942,11 +2948,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>22</v>
@@ -2958,14 +2964,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2975,11 +2981,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>29</v>
@@ -2991,7 +2997,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -3008,11 +3014,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -3024,7 +3030,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -3041,11 +3047,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>29</v>
@@ -3057,7 +3063,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3074,11 +3080,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>29</v>
@@ -3090,14 +3096,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3107,11 +3113,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -3123,7 +3129,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3140,11 +3146,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>29</v>
@@ -3156,7 +3162,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3173,11 +3179,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3189,14 +3195,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3206,11 +3212,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3222,7 +3228,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3239,11 +3245,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>22</v>
@@ -3255,14 +3261,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3272,7 +3278,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -3288,14 +3294,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3305,11 +3311,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -3321,7 +3327,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3338,11 +3344,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3354,7 +3360,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3371,11 +3377,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>29</v>
@@ -3387,14 +3393,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3404,11 +3410,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3420,7 +3426,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3453,14 +3459,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3470,11 +3476,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>29</v>
@@ -3486,7 +3492,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3507,7 +3513,7 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>29</v>
@@ -3519,7 +3525,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3536,11 +3542,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>29</v>
@@ -3552,14 +3558,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3569,11 +3575,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>29</v>
@@ -3585,7 +3591,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3602,7 +3608,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3618,14 +3624,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3635,11 +3641,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3651,7 +3657,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3668,11 +3674,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3684,7 +3690,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3701,11 +3707,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3717,7 +3723,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3734,11 +3740,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>29</v>
@@ -3750,14 +3756,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3767,11 +3773,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3783,7 +3789,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3800,11 +3806,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3816,7 +3822,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3833,11 +3839,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3849,7 +3855,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3866,11 +3872,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>29</v>
@@ -3882,7 +3888,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3899,11 +3905,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3915,7 +3921,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3936,7 +3942,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3948,14 +3954,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3965,11 +3971,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>29</v>
@@ -3981,14 +3987,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>229</v>
+        <v>22</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4005,7 +4011,7 @@
         <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4035,7 +4041,7 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>121</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -4047,14 +4053,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>41</v>
+        <v>237</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4064,14 +4070,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4080,14 +4086,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>239</v>
+        <v>41</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4097,14 +4103,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>39</v>
+        <v>240</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4113,14 +4119,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>146</v>
+        <v>243</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4130,14 +4136,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>242</v>
+        <v>39</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4146,14 +4152,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4163,14 +4169,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4179,14 +4185,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4196,14 +4202,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4212,14 +4218,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4229,14 +4235,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4245,14 +4251,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4262,14 +4268,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>212</v>
+        <v>254</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4278,14 +4284,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4295,11 +4301,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>255</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4311,14 +4317,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4328,14 +4334,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4344,14 +4350,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>260</v>
+        <v>85</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4361,14 +4367,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>23</v>
+        <v>261</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4377,14 +4383,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4394,14 +4400,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>209</v>
+        <v>23</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>263</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4410,14 +4416,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>22</v>
+        <v>264</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4427,11 +4433,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>189</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4443,14 +4449,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>266</v>
+        <v>22</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4460,14 +4466,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4476,14 +4482,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>20</v>
+        <v>269</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4493,14 +4499,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>268</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4509,14 +4515,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>270</v>
+        <v>20</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4526,14 +4532,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>271</v>
+        <v>157</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4542,14 +4548,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>22</v>
+        <v>273</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4566,7 +4572,7 @@
         <v>275</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4582,7 +4588,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4592,14 +4598,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>147</v>
+        <v>277</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>148</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4608,14 +4614,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4625,14 +4631,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>71</v>
+        <v>148</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4641,28 +4647,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>279</v>
+        <v>22</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>280</v>
+        <v>72</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4681,7 +4687,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>62</v>
+        <v>282</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4691,14 +4697,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>283</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4714,7 +4720,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>285</v>
+        <v>62</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4724,11 +4730,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>50</v>
+        <v>285</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>112</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>22</v>
@@ -4740,14 +4746,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4757,14 +4763,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>217</v>
+        <v>50</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>218</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4773,14 +4779,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4790,11 +4796,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>27</v>
+        <v>218</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>97</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4806,14 +4812,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>279</v>
+        <v>69</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4823,11 +4829,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>291</v>
+        <v>27</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>292</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4839,14 +4845,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>282</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4856,14 +4862,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>112</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>279</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4879,7 +4885,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4893,10 +4899,10 @@
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>297</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>282</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4905,14 +4911,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>299</v>
+        <v>22</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4922,11 +4928,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>27</v>
+        <v>298</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>97</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4945,7 +4951,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>84</v>
+        <v>301</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4955,14 +4961,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>301</v>
+        <v>27</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>302</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4971,14 +4977,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4988,14 +4994,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
         <v>304</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>305</v>
+        <v>31</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5004,14 +5010,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5021,14 +5027,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>31</v>
+        <v>307</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5037,14 +5043,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>310</v>
+        <v>85</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5054,14 +5060,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5070,14 +5076,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5087,14 +5093,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>22</v>
+        <v>62</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5103,14 +5109,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>31</v>
+        <v>316</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5124,10 +5130,10 @@
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>245</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5143,7 +5149,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5153,11 +5159,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>247</v>
+        <v>319</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5169,14 +5175,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5186,11 +5192,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>50</v>
+        <v>251</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>51</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5202,14 +5208,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5219,11 +5225,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>321</v>
+        <v>50</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>322</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5235,14 +5241,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>260</v>
+        <v>85</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5252,11 +5258,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>50</v>
+        <v>323</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>51</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5268,14 +5274,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>22</v>
+        <v>264</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5285,11 +5291,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>282</v>
+        <v>50</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>325</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5308,7 +5314,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5318,14 +5324,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>217</v>
+        <v>285</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>51</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5334,14 +5340,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>279</v>
+        <v>85</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5351,14 +5357,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>294</v>
+        <v>218</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>283</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5367,14 +5373,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5384,11 +5390,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>217</v>
+        <v>296</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>218</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5400,14 +5406,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>84</v>
+        <v>282</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5417,11 +5423,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>32</v>
+        <v>218</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>33</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
@@ -5433,14 +5439,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5454,45 +5460,78 @@
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>312</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>279</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
-      <c r="P123" s="13">
-        <v>6688.5900000000001</v>
-      </c>
-      <c r="Q123" s="13"/>
-    </row>
-    <row r="124" ht="16.5" customHeight="1">
-      <c t="s" r="A124" s="14">
-        <v>331</v>
-      </c>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c t="s" r="G124" s="15">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
         <v>332</v>
       </c>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="16"/>
-      <c t="s" r="K124" s="17">
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>31</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>49</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>32</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>314</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="P124" s="13">
+        <v>6737.5900000000001</v>
+      </c>
+      <c r="Q124" s="13"/>
+    </row>
+    <row r="125" ht="16.5" customHeight="1">
+      <c t="s" r="A125" s="14">
         <v>333</v>
       </c>
-      <c r="L124" s="17"/>
-      <c r="M124" s="17"/>
-      <c r="N124" s="17"/>
-      <c r="O124" s="17"/>
-      <c r="P124" s="17"/>
-      <c r="Q124" s="17"/>
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c t="s" r="G125" s="15">
+        <v>334</v>
+      </c>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="16"/>
+      <c t="s" r="K125" s="17">
+        <v>335</v>
+      </c>
+      <c r="L125" s="17"/>
+      <c r="M125" s="17"/>
+      <c r="N125" s="17"/>
+      <c r="O125" s="17"/>
+      <c r="P125" s="17"/>
+      <c r="Q125" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="592">
+  <mergeCells count="597">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6081,10 +6120,15 @@
     <mergeCell ref="H122:K122"/>
     <mergeCell ref="L122:M122"/>
     <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="K124:Q124"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="K125:Q125"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -530,6 +530,9 @@
     <t>134.0000</t>
   </si>
   <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
     <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
   </si>
   <si>
@@ -752,7 +755,7 @@
     <t>136.50</t>
   </si>
   <si>
-    <t>136.5000</t>
+    <t>273.0000</t>
   </si>
   <si>
     <t>TEBONINA FORTE 40MG 20 F.C. TAB</t>
@@ -1010,7 +1013,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 10:00 PM</t>
+    <t>Wednesday, 16 July, 2025 10:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3268,24 +3271,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>175</v>
+        <v>35</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3294,28 +3297,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -3327,14 +3330,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3344,14 +3347,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3367,7 +3370,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3377,14 +3380,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3393,14 +3396,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3410,14 +3413,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3426,14 +3429,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3443,11 +3446,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>64</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3466,7 +3469,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>186</v>
+        <v>31</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3476,14 +3479,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>63</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3492,28 +3495,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>29</v>
+        <v>187</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>39</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>29</v>
@@ -3525,28 +3528,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>39</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>29</v>
@@ -3558,14 +3561,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>195</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3575,11 +3578,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>29</v>
@@ -3591,14 +3594,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3608,11 +3611,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>64</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>29</v>
@@ -3624,14 +3627,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3641,14 +3644,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3657,14 +3660,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3674,11 +3677,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3690,7 +3693,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3707,11 +3710,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3723,7 +3726,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3740,14 +3743,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3756,14 +3759,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3773,14 +3776,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3789,14 +3792,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3806,11 +3809,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3822,7 +3825,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3839,11 +3842,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3855,31 +3858,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>110</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3888,31 +3891,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3921,28 +3924,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>113</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3961,24 +3964,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>226</v>
+        <v>22</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>35</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3987,14 +3990,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>22</v>
+        <v>227</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4004,14 +4007,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4020,14 +4023,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>233</v>
+        <v>22</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4037,14 +4040,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4053,14 +4056,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4070,11 +4073,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>122</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -4086,14 +4089,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>41</v>
+        <v>238</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4103,14 +4106,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>241</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4119,14 +4122,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>243</v>
+        <v>41</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4136,14 +4139,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>39</v>
+        <v>241</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4152,14 +4155,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>147</v>
+        <v>244</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4169,14 +4172,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>246</v>
+        <v>39</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4185,14 +4188,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4202,14 +4205,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4218,14 +4221,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4235,14 +4238,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4251,14 +4254,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4268,14 +4271,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4284,14 +4287,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4301,14 +4304,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4324,7 +4327,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4334,11 +4337,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>258</v>
+        <v>214</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>259</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4350,7 +4353,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4367,14 +4370,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4383,14 +4386,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>264</v>
+        <v>85</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4400,14 +4403,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>23</v>
+        <v>262</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>70</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4416,14 +4419,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4433,14 +4436,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>210</v>
+        <v>23</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>266</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4449,14 +4452,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>22</v>
+        <v>265</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4466,11 +4469,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>190</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4489,7 +4492,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>269</v>
+        <v>22</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4499,14 +4502,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4515,14 +4518,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4532,14 +4535,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>271</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4548,14 +4551,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>273</v>
+        <v>20</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4565,14 +4568,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>274</v>
+        <v>157</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4581,14 +4584,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4598,14 +4601,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4614,14 +4617,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4631,14 +4634,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>148</v>
+        <v>278</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>149</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4654,7 +4657,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4664,14 +4667,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4687,21 +4690,21 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>282</v>
+        <v>22</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>283</v>
+        <v>72</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4713,14 +4716,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>62</v>
+        <v>283</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4730,14 +4733,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>286</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4746,14 +4749,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>288</v>
+        <v>62</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4763,11 +4766,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>50</v>
+        <v>286</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>113</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>22</v>
@@ -4779,14 +4782,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4796,14 +4799,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>218</v>
+        <v>50</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>219</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4812,14 +4815,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>69</v>
+        <v>291</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4829,11 +4832,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>27</v>
+        <v>219</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>98</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4852,7 +4855,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>282</v>
+        <v>69</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4862,11 +4865,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>293</v>
+        <v>27</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>294</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4878,14 +4881,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>283</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4895,14 +4898,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>113</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>282</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4911,14 +4914,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4928,14 +4931,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>299</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>283</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4944,14 +4947,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>301</v>
+        <v>22</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4961,11 +4964,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>27</v>
+        <v>299</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>98</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4977,14 +4980,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>85</v>
+        <v>302</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4994,14 +4997,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>303</v>
+        <v>27</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>304</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5010,7 +5013,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5027,14 +5030,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>307</v>
+        <v>31</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5043,7 +5046,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5060,14 +5063,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>31</v>
+        <v>308</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5076,14 +5079,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>312</v>
+        <v>85</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5093,14 +5096,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5109,14 +5112,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5126,14 +5129,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>22</v>
+        <v>62</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5142,14 +5145,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>31</v>
+        <v>317</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5159,14 +5162,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>249</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5175,14 +5178,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5192,11 +5195,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5215,7 +5218,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5225,11 +5228,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>50</v>
+        <v>252</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>51</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5248,7 +5251,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5258,11 +5261,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>323</v>
+        <v>50</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5274,14 +5277,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>264</v>
+        <v>85</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5291,11 +5294,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>50</v>
+        <v>324</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>51</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5314,7 +5317,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>22</v>
+        <v>265</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5324,11 +5327,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>285</v>
+        <v>50</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>327</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5340,14 +5343,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5357,14 +5360,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>218</v>
+        <v>286</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>51</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5380,7 +5383,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>282</v>
+        <v>85</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5390,14 +5393,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>296</v>
+        <v>219</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>286</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5413,7 +5416,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5423,11 +5426,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>218</v>
+        <v>297</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>219</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
@@ -5446,7 +5449,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>85</v>
+        <v>283</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5456,11 +5459,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>32</v>
+        <v>219</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>33</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5479,7 +5482,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5493,45 +5496,78 @@
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>314</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>282</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
-      <c r="P124" s="13">
-        <v>6737.5900000000001</v>
-      </c>
-      <c r="Q124" s="13"/>
-    </row>
-    <row r="125" ht="16.5" customHeight="1">
-      <c t="s" r="A125" s="14">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
         <v>333</v>
       </c>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c t="s" r="G125" s="15">
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>31</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>49</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>32</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>315</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="P125" s="13">
+        <v>6934.0900000000001</v>
+      </c>
+      <c r="Q125" s="13"/>
+    </row>
+    <row r="126" ht="16.5" customHeight="1">
+      <c t="s" r="A126" s="14">
         <v>334</v>
       </c>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
-      <c r="J125" s="16"/>
-      <c t="s" r="K125" s="17">
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c t="s" r="G126" s="15">
         <v>335</v>
       </c>
-      <c r="L125" s="17"/>
-      <c r="M125" s="17"/>
-      <c r="N125" s="17"/>
-      <c r="O125" s="17"/>
-      <c r="P125" s="17"/>
-      <c r="Q125" s="17"/>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="16"/>
+      <c t="s" r="K126" s="17">
+        <v>336</v>
+      </c>
+      <c r="L126" s="17"/>
+      <c r="M126" s="17"/>
+      <c r="N126" s="17"/>
+      <c r="O126" s="17"/>
+      <c r="P126" s="17"/>
+      <c r="Q126" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="597">
+  <mergeCells count="602">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6125,10 +6161,15 @@
     <mergeCell ref="H123:K123"/>
     <mergeCell ref="L123:M123"/>
     <mergeCell ref="N123:O123"/>
-    <mergeCell ref="P124:Q124"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="K125:Q125"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="P125:Q125"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="K126:Q126"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -284,6 +284,15 @@
     <t>82.1700</t>
   </si>
   <si>
+    <t>COXTORI 90MG TAB</t>
+  </si>
+  <si>
+    <t>97.00</t>
+  </si>
+  <si>
+    <t>97.0000</t>
+  </si>
+  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
@@ -680,6 +689,12 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>PANADOL JOINT 24 ER TABS.</t>
+  </si>
+  <si>
+    <t>67.0000</t>
+  </si>
+  <si>
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
@@ -689,6 +704,18 @@
     <t>PERIOCARE MOUTH SPRAY</t>
   </si>
   <si>
+    <t>QUIBRON T/SR 300MG 100 TAB</t>
+  </si>
+  <si>
+    <t>1:35</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>0:8</t>
+  </si>
+  <si>
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
@@ -1013,7 +1040,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 10:02 PM</t>
+    <t>Wednesday, 16 July, 2025 10:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2380,13 +2407,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -2397,7 +2424,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2413,7 +2440,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2430,7 +2457,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2446,7 +2473,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2456,11 +2483,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2472,14 +2499,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2489,14 +2516,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2505,14 +2532,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2522,14 +2549,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2538,14 +2565,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2555,14 +2582,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2592,7 +2619,7 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>29</v>
@@ -2604,14 +2631,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2621,14 +2648,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2637,14 +2664,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2654,14 +2681,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2677,7 +2704,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2694,7 +2721,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2710,7 +2737,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2720,14 +2747,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2753,14 +2780,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>126</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2769,14 +2796,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2786,14 +2813,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>129</v>
-      </c>
-      <c t="s" r="Q41" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2809,7 +2836,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2826,7 +2853,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2842,7 +2869,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2859,7 +2886,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2875,7 +2902,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2892,7 +2919,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2925,7 +2952,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2941,7 +2968,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2951,14 +2978,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2967,14 +2994,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2984,14 +3011,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3000,14 +3027,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3024,7 +3051,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3040,7 +3067,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3057,7 +3084,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3073,7 +3100,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3106,7 +3133,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3123,7 +3150,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3139,7 +3166,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3156,7 +3183,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3172,7 +3199,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3189,7 +3216,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3205,21 +3232,21 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3231,31 +3258,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3271,7 +3298,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3281,14 +3308,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>35</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3297,31 +3324,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>175</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>35</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3343,15 +3370,15 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>118</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3363,14 +3390,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3380,14 +3407,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3396,14 +3423,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3413,14 +3440,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3429,14 +3456,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3446,14 +3473,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3469,7 +3496,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3479,11 +3506,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>63</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>64</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3495,14 +3522,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>187</v>
+        <v>31</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3512,14 +3539,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>63</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3528,28 +3555,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>29</v>
+        <v>190</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>39</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>29</v>
@@ -3561,24 +3588,24 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>39</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3601,7 +3628,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>196</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3611,11 +3638,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>29</v>
@@ -3627,14 +3654,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>29</v>
+        <v>199</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3648,7 +3675,7 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>64</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>29</v>
@@ -3660,14 +3687,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3677,14 +3704,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3700,7 +3727,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3783,7 +3810,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3799,7 +3826,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3816,7 +3843,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3832,7 +3859,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3846,7 +3873,7 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3858,7 +3885,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3875,11 +3902,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3898,24 +3925,24 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>110</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3924,31 +3951,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3957,28 +3984,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>35</v>
+        <v>174</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>113</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3990,14 +4017,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>227</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4007,14 +4034,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>160</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4036,15 +4063,15 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>35</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -4056,14 +4083,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4073,14 +4100,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>234</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4089,14 +4116,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4106,14 +4133,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>122</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4122,14 +4149,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4139,11 +4166,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -4155,14 +4182,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4172,14 +4199,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>39</v>
+        <v>244</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4195,7 +4222,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>20</v>
+        <v>247</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4205,14 +4232,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>248</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4228,7 +4255,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4238,14 +4265,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4254,14 +4281,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>22</v>
+        <v>253</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4271,14 +4298,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>252</v>
+        <v>39</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4287,14 +4314,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4304,14 +4331,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4320,7 +4347,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4337,14 +4364,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>215</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4353,14 +4380,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4370,11 +4397,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4386,14 +4413,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4403,11 +4430,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>29</v>
@@ -4419,14 +4446,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>265</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4436,14 +4463,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>23</v>
+        <v>217</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>70</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4452,14 +4479,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>265</v>
+        <v>85</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4469,11 +4496,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>211</v>
+        <v>268</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4485,14 +4512,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4502,14 +4529,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>188</v>
+        <v>271</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>191</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4518,14 +4545,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4535,14 +4562,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4551,14 +4578,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>20</v>
+        <v>274</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4568,14 +4595,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>157</v>
+        <v>214</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4584,14 +4611,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>274</v>
+        <v>22</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4601,14 +4628,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>275</v>
+        <v>191</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>276</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4617,14 +4644,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>22</v>
+        <v>279</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4634,14 +4661,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>278</v>
+        <v>157</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>279</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4657,7 +4684,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4667,11 +4694,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>149</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>29</v>
@@ -4683,14 +4710,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>22</v>
+        <v>283</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4700,14 +4727,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>72</v>
+        <v>284</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>73</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4716,28 +4743,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>283</v>
+        <v>22</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>116</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4749,31 +4776,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>286</v>
+        <v>151</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>287</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4782,31 +4809,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>289</v>
+        <v>22</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4815,14 +4842,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4832,11 +4859,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>219</v>
+        <v>293</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>220</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4848,14 +4875,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4865,14 +4892,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>27</v>
+        <v>295</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>98</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4881,14 +4908,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4898,14 +4925,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>294</v>
+        <v>50</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>295</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4914,14 +4941,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>300</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4931,14 +4958,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>297</v>
+        <v>222</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>113</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>283</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4947,14 +4974,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4964,11 +4991,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>299</v>
+        <v>27</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>300</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4980,14 +5007,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4997,11 +5024,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>27</v>
+        <v>303</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>98</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -5013,14 +5040,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5030,14 +5057,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>305</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>31</v>
+        <v>292</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5046,14 +5073,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5063,14 +5090,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>308</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5079,14 +5106,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>85</v>
+        <v>311</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5096,14 +5123,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>310</v>
+        <v>27</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>311</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5119,7 +5146,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>313</v>
+        <v>85</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5129,14 +5156,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5145,14 +5172,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>317</v>
+        <v>85</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5162,14 +5189,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>318</v>
+        <v>284</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>22</v>
+        <v>317</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5178,14 +5205,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5195,14 +5222,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5218,7 +5245,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>22</v>
+        <v>322</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5228,14 +5255,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>252</v>
+        <v>323</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>253</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5244,14 +5271,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>62</v>
+        <v>326</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5261,14 +5288,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>50</v>
+        <v>327</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>51</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5277,14 +5304,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5294,11 +5321,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>325</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5310,14 +5337,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>265</v>
+        <v>22</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5327,11 +5354,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>50</v>
+        <v>261</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>51</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5343,14 +5370,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5360,11 +5387,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>286</v>
+        <v>50</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>328</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>12</v>
@@ -5376,7 +5403,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5393,14 +5420,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>219</v>
+        <v>333</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>51</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5409,14 +5436,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5426,11 +5453,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>297</v>
+        <v>50</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>287</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
@@ -5442,14 +5469,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>283</v>
+        <v>22</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5459,11 +5486,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>219</v>
+        <v>295</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>220</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5475,7 +5502,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5492,14 +5519,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>32</v>
+        <v>222</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5508,14 +5535,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>31</v>
+        <v>292</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5525,49 +5552,148 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>32</v>
+        <v>306</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>283</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
-      <c r="P125" s="13">
-        <v>6934.0900000000001</v>
-      </c>
-      <c r="Q125" s="13"/>
-    </row>
-    <row r="126" ht="16.5" customHeight="1">
-      <c t="s" r="A126" s="14">
-        <v>334</v>
-      </c>
-      <c r="B126" s="14"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
-      <c t="s" r="G126" s="15">
-        <v>335</v>
-      </c>
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
-      <c r="J126" s="16"/>
-      <c t="s" r="K126" s="17">
-        <v>336</v>
-      </c>
-      <c r="L126" s="17"/>
-      <c r="M126" s="17"/>
-      <c r="N126" s="17"/>
-      <c r="O126" s="17"/>
-      <c r="P126" s="17"/>
-      <c r="Q126" s="17"/>
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>340</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>292</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>49</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>222</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>223</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>341</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>85</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>49</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>32</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>342</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>31</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>49</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>32</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>324</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="P128" s="13">
+        <v>7108.6499999999996</v>
+      </c>
+      <c r="Q128" s="13"/>
+    </row>
+    <row r="129" ht="16.5" customHeight="1">
+      <c t="s" r="A129" s="14">
+        <v>343</v>
+      </c>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c t="s" r="G129" s="15">
+        <v>344</v>
+      </c>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="16"/>
+      <c t="s" r="K129" s="17">
+        <v>345</v>
+      </c>
+      <c r="L129" s="17"/>
+      <c r="M129" s="17"/>
+      <c r="N129" s="17"/>
+      <c r="O129" s="17"/>
+      <c r="P129" s="17"/>
+      <c r="Q129" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="602">
+  <mergeCells count="617">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6166,10 +6292,25 @@
     <mergeCell ref="H124:K124"/>
     <mergeCell ref="L124:M124"/>
     <mergeCell ref="N124:O124"/>
-    <mergeCell ref="P125:Q125"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="K126:Q126"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="P128:Q128"/>
+    <mergeCell ref="A129:F129"/>
+    <mergeCell ref="G129:I129"/>
+    <mergeCell ref="K129:Q129"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -1040,7 +1040,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 10:06 PM</t>
+    <t>Wednesday, 16 July, 2025 10:07 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -218,705 +218,714 @@
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>93.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>CIDOPHAGE RETARD 850MG 60 S.R. TABS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
+    <t>COLOVERIN A 30 TABLETS</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>-34.6500</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>CONSTIPRIDE 2 MG 28 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>185.75</t>
+  </si>
+  <si>
+    <t>92.8750</t>
+  </si>
+  <si>
+    <t>COXORIZET CAPS</t>
+  </si>
+  <si>
+    <t>249.00</t>
+  </si>
+  <si>
+    <t>82.1700</t>
+  </si>
+  <si>
+    <t>COXTORI 90MG TAB</t>
+  </si>
+  <si>
+    <t>97.00</t>
+  </si>
+  <si>
+    <t>97.0000</t>
+  </si>
+  <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>DEPO-PEN 1.2 MIU VIAL.</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>DIAMICRON MR 30 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>DOLCYL 2MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>8:1</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>7:3</t>
+  </si>
+  <si>
+    <t>19.9200</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>FERROTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>138.0000</t>
+  </si>
+  <si>
+    <t>FLACORT 30MG 20 TAB</t>
+  </si>
+  <si>
+    <t>164.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>FLIX NASAL SPRAY 50 MCG/METERED SPRAY DOSE</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>FORTAZEDIM 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>236.0000</t>
+  </si>
+  <si>
+    <t>FORTUM 1 GM VIAL.</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>106.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>88.0000</t>
+  </si>
+  <si>
+    <t>GAPTIN 300 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>GOUTIFADE 40 MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>GOUTYLESS 30 TABS</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>HERO BABY DIGEST MILK 400 GM</t>
+  </si>
+  <si>
+    <t>359.00</t>
+  </si>
+  <si>
+    <t>359.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>HUSH SACHET</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>134.0000</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>0:9</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>9:1</t>
+  </si>
+  <si>
+    <t>LOLAWEST 3GM 6 SACHETS</t>
+  </si>
+  <si>
+    <t>MAVILOR 5MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
+    <t>MELLITOFIX 10MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>204.0000</t>
+  </si>
+  <si>
+    <t>MICONAZ 2% ORAL GEL 20 GM</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>MUCOSTA 100MG 20 TAB</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>10.5600</t>
+  </si>
+  <si>
+    <t>NEVILOB 2.5 MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>152.0000</t>
+  </si>
+  <si>
+    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>NORGESIC 20 TAB.</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>OMEGA ZAD SYURP 100 ML</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>OTAL EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>PANADOL JOINT 24 ER TABS.</t>
+  </si>
+  <si>
+    <t>67.0000</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>PERIOCARE MOUTH SPRAY</t>
+  </si>
+  <si>
+    <t>QUIBRON T/SR 300MG 100 TAB</t>
+  </si>
+  <si>
+    <t>1:35</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>0:8</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:5</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>6.7200</t>
+  </si>
+  <si>
+    <t>RHINEX 0.05% INFANTILE NASAL DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:12</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>14.1000</t>
+  </si>
+  <si>
+    <t>ROWACHOL 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>SAFETRIUM 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>273.0000</t>
+  </si>
+  <si>
+    <t>TEBONINA FORTE 40MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>THIOTACID 300MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
+  </si>
+  <si>
+    <t>TRESIBA 100 I.U./ML FLEXTOUCH PRE-FILLED PEN</t>
+  </si>
+  <si>
+    <t>550.00</t>
+  </si>
+  <si>
+    <t>550.0000</t>
+  </si>
+  <si>
+    <t>URGINAFECT 10MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 1% EMULGEL 25 GM</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:3</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>16.3200</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8538:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>XITHRONE 200 MG/5ML SUSP. 25 ML</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>ZINCTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>ZOVIRAX D.S 400MG/5ML SUSP.100 ML</t>
+  </si>
+  <si>
+    <t>اسيتون ايفا</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>ايزي سويت قطعه</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>42:0</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
     <t>11:0</t>
   </si>
   <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>CIDOPHAGE RETARD 850MG 60 S.R. TABS</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>42.9000</t>
-  </si>
-  <si>
-    <t>COLOVERIN A 30 TABLETS</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>32.6700</t>
-  </si>
-  <si>
-    <t>COLOVERIN D 135MG 30 TAB</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>-34.6500</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>CONSTIPRIDE 2 MG 28 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>185.75</t>
-  </si>
-  <si>
-    <t>92.8750</t>
-  </si>
-  <si>
-    <t>COXORIZET CAPS</t>
-  </si>
-  <si>
-    <t>249.00</t>
-  </si>
-  <si>
-    <t>82.1700</t>
-  </si>
-  <si>
-    <t>COXTORI 90MG TAB</t>
-  </si>
-  <si>
-    <t>97.00</t>
-  </si>
-  <si>
-    <t>97.0000</t>
-  </si>
-  <si>
-    <t>DANSET 4MG/2ML 3 AMP</t>
-  </si>
-  <si>
-    <t>82.50</t>
-  </si>
-  <si>
-    <t>27.2250</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>DEPO-PEN 1.2 MIU VIAL.</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>3:4</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>DIAMICRON MR 30 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>DOLCYL 2MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>8:1</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>7:3</t>
-  </si>
-  <si>
-    <t>19.9200</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>FERROTRON 30 CAPS</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>138.0000</t>
-  </si>
-  <si>
-    <t>FLACORT 30MG 20 TAB</t>
-  </si>
-  <si>
-    <t>164.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>FLIX NASAL SPRAY 50 MCG/METERED SPRAY DOSE</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>FORTAZEDIM 1 GM VIAL</t>
-  </si>
-  <si>
-    <t>59.00</t>
-  </si>
-  <si>
-    <t>236.0000</t>
-  </si>
-  <si>
-    <t>FORTUM 1 GM VIAL.</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>106.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>88.0000</t>
-  </si>
-  <si>
-    <t>GAPTIN 300 MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>74.00</t>
-  </si>
-  <si>
-    <t>74.0000</t>
-  </si>
-  <si>
-    <t>GOUTIFADE 40 MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>GOUTYLESS 30 TABS</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
-    <t>HERO BABY DIGEST MILK 400 GM</t>
-  </si>
-  <si>
-    <t>359.00</t>
-  </si>
-  <si>
-    <t>359.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
-    <t>HUSH SACHET</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
-  </si>
-  <si>
-    <t>67.00</t>
-  </si>
-  <si>
-    <t>134.0000</t>
-  </si>
-  <si>
-    <t>IVY ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
-  </si>
-  <si>
-    <t>0:9</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>9:1</t>
-  </si>
-  <si>
-    <t>LOLAWEST 3GM 6 SACHETS</t>
-  </si>
-  <si>
-    <t>MAVILOR 5MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>34.6500</t>
-  </si>
-  <si>
-    <t>MELLITOFIX 10MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>204.00</t>
-  </si>
-  <si>
-    <t>204.0000</t>
-  </si>
-  <si>
-    <t>MICONAZ 2% ORAL GEL 20 GM</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>6:2</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>MUCOSTA 100MG 20 TAB</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>3:3</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>10.5600</t>
-  </si>
-  <si>
-    <t>NEVILOB 2.5 MG 14 TAB.</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>152.0000</t>
-  </si>
-  <si>
-    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>NORGESIC 20 TAB.</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>OMEGA ZAD SYURP 100 ML</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>OTAL EAR DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>19.00</t>
-  </si>
-  <si>
-    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>PANADOL JOINT 24 ER TABS.</t>
-  </si>
-  <si>
-    <t>67.0000</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>102.0000</t>
-  </si>
-  <si>
-    <t>PERIOCARE MOUTH SPRAY</t>
-  </si>
-  <si>
-    <t>QUIBRON T/SR 300MG 100 TAB</t>
-  </si>
-  <si>
-    <t>1:35</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>0:8</t>
-  </si>
-  <si>
-    <t>RANI-F 20MG 6 SACHETS</t>
-  </si>
-  <si>
-    <t>5:5</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>6.7200</t>
-  </si>
-  <si>
-    <t>RHINEX 0.05% INFANTILE NASAL DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>0:12</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>14.1000</t>
-  </si>
-  <si>
-    <t>ROWACHOL 45 CAPSULES</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>SAFETRIUM 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>136.50</t>
-  </si>
-  <si>
-    <t>273.0000</t>
-  </si>
-  <si>
-    <t>TEBONINA FORTE 40MG 20 F.C. TAB</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>THIOTACID 300MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
-  </si>
-  <si>
-    <t>TRESIBA 100 I.U./ML FLEXTOUCH PRE-FILLED PEN</t>
-  </si>
-  <si>
-    <t>550.00</t>
-  </si>
-  <si>
-    <t>550.0000</t>
-  </si>
-  <si>
-    <t>URGINAFECT 10MG 20 F.C. TAB</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>35.5000</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 1% EMULGEL 25 GM</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>4:3</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>16.3200</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8538:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>XITHRONE 200 MG/5ML SUSP. 25 ML</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>ZINCTRON 30 CAPS</t>
-  </si>
-  <si>
-    <t>ZOVIRAX D.S 400MG/5ML SUSP.100 ML</t>
-  </si>
-  <si>
-    <t>اسيتون ايفا</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>ايزي سويت قطعه</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">برفان القصاص </t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>42:0</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2.5 سم</t>
-  </si>
-  <si>
     <t>جل هير كود 185 مل</t>
   </si>
   <si>
@@ -929,9 +938,6 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
     <t>ريكسونا بليه بودر دراي</t>
   </si>
   <si>
@@ -1016,6 +1022,9 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
     <t>فازلين بيور وسط</t>
   </si>
   <si>
@@ -1040,7 +1049,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 10:07 PM</t>
+    <t>Wednesday, 16 July, 2025 10:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2193,7 +2202,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>22</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2202,7 +2211,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -2219,11 +2228,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -2235,7 +2244,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2252,11 +2261,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>29</v>
@@ -2268,7 +2277,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2285,11 +2294,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>29</v>
@@ -2301,7 +2310,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2318,14 +2327,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2334,14 +2343,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2351,11 +2360,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>20</v>
@@ -2367,7 +2376,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2384,11 +2393,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>29</v>
@@ -2400,14 +2409,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2417,11 +2426,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -2433,7 +2442,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2450,11 +2459,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>29</v>
@@ -2466,7 +2475,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2483,11 +2492,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2499,7 +2508,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2520,7 +2529,7 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2532,14 +2541,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2549,11 +2558,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>29</v>
@@ -2565,14 +2574,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2582,11 +2591,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2598,14 +2607,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2615,7 +2624,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2631,14 +2640,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2648,11 +2657,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>29</v>
@@ -2664,7 +2673,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2685,7 +2694,7 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2697,7 +2706,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2714,11 +2723,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>29</v>
@@ -2730,7 +2739,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2747,11 +2756,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2763,14 +2772,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2780,11 +2789,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>41</v>
@@ -2796,14 +2805,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2817,10 +2826,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2829,7 +2838,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2846,11 +2855,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2862,7 +2871,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2879,11 +2888,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>29</v>
@@ -2895,7 +2904,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2912,11 +2921,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2928,7 +2937,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2945,11 +2954,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>31</v>
@@ -2961,7 +2970,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2978,11 +2987,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2994,14 +3003,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3011,11 +3020,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>22</v>
@@ -3027,14 +3036,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3044,11 +3053,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>29</v>
@@ -3060,7 +3069,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -3077,11 +3086,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -3093,7 +3102,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3110,11 +3119,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>29</v>
@@ -3126,7 +3135,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3143,11 +3152,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>29</v>
@@ -3159,14 +3168,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3176,11 +3185,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -3192,7 +3201,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3209,11 +3218,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>29</v>
@@ -3225,7 +3234,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3242,11 +3251,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3258,14 +3267,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3275,11 +3284,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3291,7 +3300,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3308,11 +3317,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>22</v>
@@ -3324,7 +3333,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3345,7 +3354,7 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3357,14 +3366,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3374,7 +3383,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3390,14 +3399,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3407,11 +3416,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3423,7 +3432,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3440,11 +3449,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3456,7 +3465,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3473,11 +3482,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>29</v>
@@ -3489,14 +3498,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3506,11 +3515,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3522,7 +3531,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3555,14 +3564,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3572,11 +3581,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>29</v>
@@ -3588,7 +3597,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3609,7 +3618,7 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>29</v>
@@ -3621,7 +3630,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3638,11 +3647,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>29</v>
@@ -3654,14 +3663,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3671,11 +3680,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>29</v>
@@ -3687,7 +3696,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3704,7 +3713,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3720,14 +3729,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3737,11 +3746,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3753,7 +3762,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3770,11 +3779,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3786,7 +3795,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3803,11 +3812,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3819,7 +3828,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3836,11 +3845,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>29</v>
@@ -3852,14 +3861,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3869,11 +3878,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3885,14 +3894,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3902,11 +3911,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3918,7 +3927,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3935,11 +3944,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3951,31 +3960,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>113</v>
+        <v>226</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3984,31 +3993,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>174</v>
+        <v>114</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4017,14 +4026,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4034,11 +4043,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -4050,28 +4059,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>35</v>
+        <v>161</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>116</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -4083,31 +4092,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>232</v>
+        <v>22</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>35</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>201</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>234</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4137,10 +4146,10 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q81" s="12">
         <v>238</v>
-      </c>
-      <c t="s" r="Q81" s="12">
-        <v>29</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4156,7 +4165,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>22</v>
+        <v>240</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4166,14 +4175,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4182,14 +4191,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>243</v>
+        <v>22</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4206,7 +4215,7 @@
         <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4236,7 +4245,7 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>125</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -4248,14 +4257,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>41</v>
+        <v>251</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4265,14 +4274,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4281,14 +4290,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>253</v>
+        <v>41</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4298,14 +4307,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>39</v>
+        <v>254</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4314,14 +4323,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>20</v>
+        <v>257</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4331,14 +4340,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>256</v>
+        <v>39</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4347,14 +4356,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4364,14 +4373,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4380,14 +4389,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4397,14 +4406,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4413,14 +4422,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4430,14 +4439,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4446,14 +4455,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4463,14 +4472,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>217</v>
+        <v>268</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>218</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4479,14 +4488,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4496,11 +4505,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>268</v>
+        <v>221</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>269</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4512,14 +4521,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4529,14 +4538,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4545,14 +4554,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>274</v>
+        <v>86</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4562,14 +4571,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>23</v>
+        <v>275</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>70</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4578,14 +4587,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4595,14 +4604,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>214</v>
+        <v>23</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4611,14 +4620,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>22</v>
+        <v>278</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4628,11 +4637,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>194</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4644,14 +4653,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>279</v>
+        <v>22</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4661,14 +4670,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4677,14 +4686,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>20</v>
+        <v>284</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4694,14 +4703,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>281</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4710,14 +4719,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>283</v>
+        <v>20</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4727,14 +4736,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>284</v>
+        <v>161</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4743,14 +4752,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>22</v>
+        <v>288</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4760,14 +4769,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4776,14 +4785,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4793,14 +4802,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>151</v>
+        <v>292</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>152</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4809,14 +4818,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4826,14 +4835,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4842,28 +4851,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>292</v>
+        <v>22</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>293</v>
+        <v>73</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4875,14 +4884,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4892,14 +4901,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>296</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4908,14 +4917,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>298</v>
+        <v>62</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4925,11 +4934,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>50</v>
+        <v>299</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>116</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>22</v>
@@ -4941,14 +4950,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>300</v>
+        <v>69</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4958,14 +4967,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>222</v>
+        <v>50</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>223</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4981,7 +4990,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>69</v>
+        <v>302</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4991,11 +5000,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>27</v>
+        <v>226</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>101</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -5007,14 +5016,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5024,11 +5033,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>303</v>
+        <v>27</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>304</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -5047,7 +5056,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5061,10 +5070,10 @@
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>116</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>292</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5073,14 +5082,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5090,14 +5099,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>308</v>
+        <v>218</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>309</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5106,14 +5115,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>311</v>
+        <v>22</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5123,11 +5132,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>27</v>
+        <v>310</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>101</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5146,7 +5155,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>85</v>
+        <v>313</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5156,14 +5165,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>313</v>
+        <v>27</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>314</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5172,14 +5181,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5189,14 +5198,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
         <v>316</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>317</v>
+        <v>31</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5205,14 +5214,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5222,14 +5231,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>31</v>
+        <v>319</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5238,14 +5247,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>322</v>
+        <v>86</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5255,14 +5264,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5271,14 +5280,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5288,14 +5297,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>22</v>
+        <v>62</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5304,14 +5313,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>31</v>
+        <v>328</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5325,10 +5334,10 @@
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>259</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5344,7 +5353,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5354,11 +5363,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>261</v>
+        <v>331</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5370,14 +5379,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5387,11 +5396,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>50</v>
+        <v>265</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>51</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>12</v>
@@ -5403,14 +5412,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5420,11 +5429,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>333</v>
+        <v>50</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>334</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5436,14 +5445,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>274</v>
+        <v>86</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5453,11 +5462,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>50</v>
+        <v>335</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>51</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
@@ -5469,14 +5478,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5486,11 +5495,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>337</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5509,7 +5518,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>85</v>
+        <v>278</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5519,14 +5528,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>222</v>
+        <v>50</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
         <v>51</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5542,7 +5551,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>292</v>
+        <v>22</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5552,11 +5561,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>296</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>12</v>
@@ -5568,14 +5577,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>292</v>
+        <v>86</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5585,14 +5594,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>223</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5601,14 +5610,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5618,11 +5627,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>32</v>
+        <v>218</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>33</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>12</v>
@@ -5634,14 +5643,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5651,49 +5660,115 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>32</v>
+        <v>226</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>324</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>292</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
-      <c r="P128" s="13">
-        <v>7108.6499999999996</v>
-      </c>
-      <c r="Q128" s="13"/>
-    </row>
-    <row r="129" ht="16.5" customHeight="1">
-      <c t="s" r="A129" s="14">
-        <v>343</v>
-      </c>
-      <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c t="s" r="G129" s="15">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
         <v>344</v>
       </c>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
-      <c r="J129" s="16"/>
-      <c t="s" r="K129" s="17">
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>86</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>49</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>32</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
         <v>345</v>
       </c>
-      <c r="L129" s="17"/>
-      <c r="M129" s="17"/>
-      <c r="N129" s="17"/>
-      <c r="O129" s="17"/>
-      <c r="P129" s="17"/>
-      <c r="Q129" s="17"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>31</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>49</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>32</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>326</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="P130" s="13">
+        <v>7209.6499999999996</v>
+      </c>
+      <c r="Q130" s="13"/>
+    </row>
+    <row r="131" ht="16.5" customHeight="1">
+      <c t="s" r="A131" s="14">
+        <v>346</v>
+      </c>
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c t="s" r="G131" s="15">
+        <v>347</v>
+      </c>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="16"/>
+      <c t="s" r="K131" s="17">
+        <v>348</v>
+      </c>
+      <c r="L131" s="17"/>
+      <c r="M131" s="17"/>
+      <c r="N131" s="17"/>
+      <c r="O131" s="17"/>
+      <c r="P131" s="17"/>
+      <c r="Q131" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="617">
+  <mergeCells count="627">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6307,10 +6382,20 @@
     <mergeCell ref="H127:K127"/>
     <mergeCell ref="L127:M127"/>
     <mergeCell ref="N127:O127"/>
-    <mergeCell ref="P128:Q128"/>
-    <mergeCell ref="A129:F129"/>
-    <mergeCell ref="G129:I129"/>
-    <mergeCell ref="K129:Q129"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="P130:Q130"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="G131:I131"/>
+    <mergeCell ref="K131:Q131"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -1049,7 +1049,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 10:12 PM</t>
+    <t>Wednesday, 16 July, 2025 10:13 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -542,9 +542,6 @@
     <t>134.0000</t>
   </si>
   <si>
-    <t>IVY ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
     <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
   </si>
   <si>
@@ -1049,7 +1046,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 10:13 PM</t>
+    <t>Wednesday, 16 July, 2025 10:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3340,24 +3337,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>35</v>
+        <v>179</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3366,28 +3363,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>33</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3399,14 +3396,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3416,14 +3413,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3439,7 +3436,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3449,14 +3446,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3465,14 +3462,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3482,14 +3479,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3498,14 +3495,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3515,11 +3512,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>63</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3538,7 +3535,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>31</v>
+        <v>190</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3548,14 +3545,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>63</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>64</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3564,28 +3561,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>39</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>29</v>
@@ -3597,28 +3594,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>39</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>29</v>
@@ -3630,14 +3627,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>199</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3647,11 +3644,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>29</v>
@@ -3663,14 +3660,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>200</v>
+        <v>29</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3680,11 +3677,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>29</v>
@@ -3696,14 +3693,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3713,14 +3710,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>64</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3729,14 +3726,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3746,11 +3743,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3762,7 +3759,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3779,11 +3776,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3795,7 +3792,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3812,14 +3809,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3828,14 +3825,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3845,14 +3842,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3861,14 +3858,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3878,11 +3875,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3894,14 +3891,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3911,11 +3908,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3927,7 +3924,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3944,11 +3941,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3960,31 +3957,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>226</v>
+        <v>114</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3993,31 +3990,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>114</v>
+        <v>175</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4026,14 +4023,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4043,11 +4040,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -4059,28 +4056,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>161</v>
+        <v>35</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -4099,24 +4096,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>22</v>
+        <v>235</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>35</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>117</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>237</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4125,14 +4122,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4142,14 +4139,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>238</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4158,14 +4155,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>240</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4175,14 +4172,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4191,14 +4188,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>22</v>
+        <v>246</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4208,14 +4205,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4224,14 +4221,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4241,11 +4238,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>249</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -4257,14 +4254,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>251</v>
+        <v>41</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4274,14 +4271,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>126</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4290,14 +4287,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>41</v>
+        <v>256</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4307,14 +4304,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>254</v>
+        <v>39</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4323,14 +4320,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>257</v>
+        <v>20</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4340,14 +4337,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4356,14 +4353,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4373,14 +4370,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4389,14 +4386,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4406,14 +4403,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4422,14 +4419,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4439,14 +4436,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4455,14 +4452,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4472,14 +4469,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>268</v>
+        <v>220</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>269</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4495,7 +4492,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4505,11 +4502,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>221</v>
+        <v>271</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>222</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4521,7 +4518,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4538,14 +4535,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4554,14 +4551,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>86</v>
+        <v>277</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4571,14 +4568,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>275</v>
+        <v>23</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4587,14 +4584,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4604,14 +4601,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>23</v>
+        <v>214</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4620,14 +4617,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>278</v>
+        <v>22</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4637,11 +4634,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>281</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4660,7 +4657,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>22</v>
+        <v>283</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4670,14 +4667,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4686,14 +4683,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>284</v>
+        <v>20</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4703,14 +4700,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>162</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4719,14 +4716,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>20</v>
+        <v>287</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4736,14 +4733,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>161</v>
+        <v>288</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4752,14 +4749,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>288</v>
+        <v>22</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4769,14 +4766,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4785,14 +4782,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4802,14 +4799,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>292</v>
+        <v>152</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>293</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4825,7 +4822,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4835,14 +4832,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>153</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4858,21 +4855,21 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>73</v>
+        <v>296</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4884,14 +4881,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4901,14 +4898,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>120</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4917,14 +4914,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4934,11 +4931,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>299</v>
+        <v>50</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>219</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>22</v>
@@ -4957,7 +4954,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>69</v>
+        <v>301</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4967,14 +4964,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>50</v>
+        <v>225</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>117</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4983,14 +4980,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5000,11 +4997,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>226</v>
+        <v>27</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>227</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -5016,14 +5013,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>304</v>
+        <v>71</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5033,11 +5030,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>27</v>
+        <v>305</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>102</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -5049,14 +5046,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5066,14 +5063,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>306</v>
+        <v>217</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>307</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5089,7 +5086,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5099,14 +5096,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>218</v>
+        <v>309</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>117</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>71</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5115,14 +5112,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>22</v>
+        <v>312</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5132,11 +5129,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>310</v>
+        <v>27</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>311</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5148,14 +5145,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>313</v>
+        <v>86</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5165,14 +5162,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>27</v>
+        <v>314</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>102</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5181,7 +5178,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5198,14 +5195,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>31</v>
+        <v>318</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5214,7 +5211,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5231,14 +5228,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>319</v>
+        <v>31</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5247,14 +5244,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>86</v>
+        <v>323</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5264,14 +5261,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>31</v>
+        <v>62</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5280,14 +5277,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5297,14 +5294,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>62</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5313,14 +5310,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>328</v>
+        <v>31</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5330,14 +5327,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>322</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5346,14 +5343,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5363,11 +5360,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>331</v>
+        <v>264</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5386,7 +5383,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5396,11 +5393,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>265</v>
+        <v>50</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>266</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>12</v>
@@ -5419,7 +5416,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5429,11 +5426,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>50</v>
+        <v>334</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>51</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5445,14 +5442,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5462,11 +5459,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>335</v>
+        <v>264</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>336</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
@@ -5485,7 +5482,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>62</v>
+        <v>277</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5495,11 +5492,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>265</v>
+        <v>50</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>266</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5518,7 +5515,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>278</v>
+        <v>22</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5528,11 +5525,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>50</v>
+        <v>298</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>51</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
@@ -5544,14 +5541,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5561,14 +5558,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>299</v>
+        <v>225</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>340</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5584,7 +5581,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5594,14 +5591,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>51</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5627,11 +5624,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>12</v>
@@ -5650,7 +5647,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5660,11 +5657,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>226</v>
+        <v>32</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>227</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>12</v>
@@ -5683,7 +5680,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5697,78 +5694,45 @@
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>33</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
-      <c r="A129" s="7">
-        <v>123</v>
-      </c>
-      <c r="B129" s="7"/>
-      <c t="s" r="C129" s="8">
+      <c r="P129" s="13">
+        <v>7149.6499999999996</v>
+      </c>
+      <c r="Q129" s="13"/>
+    </row>
+    <row r="130" ht="16.5" customHeight="1">
+      <c t="s" r="A130" s="14">
         <v>345</v>
       </c>
-      <c r="D129" s="8"/>
-      <c r="E129" s="8"/>
-      <c r="F129" s="8"/>
-      <c r="G129" s="8"/>
-      <c t="s" r="H129" s="9">
-        <v>31</v>
-      </c>
-      <c r="I129" s="9"/>
-      <c r="J129" s="9"/>
-      <c r="K129" s="9"/>
-      <c t="s" r="L129" s="10">
-        <v>49</v>
-      </c>
-      <c r="M129" s="10"/>
-      <c t="s" r="N129" s="8">
-        <v>32</v>
-      </c>
-      <c r="O129" s="8"/>
-      <c t="s" r="P129" s="11">
-        <v>326</v>
-      </c>
-      <c t="s" r="Q129" s="12">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="130" ht="24.75" customHeight="1">
-      <c r="P130" s="13">
-        <v>7209.6499999999996</v>
-      </c>
-      <c r="Q130" s="13"/>
-    </row>
-    <row r="131" ht="16.5" customHeight="1">
-      <c t="s" r="A131" s="14">
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c t="s" r="G130" s="15">
         <v>346</v>
       </c>
-      <c r="B131" s="14"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
-      <c t="s" r="G131" s="15">
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="16"/>
+      <c t="s" r="K130" s="17">
         <v>347</v>
       </c>
-      <c r="H131" s="15"/>
-      <c r="I131" s="15"/>
-      <c r="J131" s="16"/>
-      <c t="s" r="K131" s="17">
-        <v>348</v>
-      </c>
-      <c r="L131" s="17"/>
-      <c r="M131" s="17"/>
-      <c r="N131" s="17"/>
-      <c r="O131" s="17"/>
-      <c r="P131" s="17"/>
-      <c r="Q131" s="17"/>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
+      <c r="N130" s="17"/>
+      <c r="O130" s="17"/>
+      <c r="P130" s="17"/>
+      <c r="Q130" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="627">
+  <mergeCells count="622">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6387,15 +6351,10 @@
     <mergeCell ref="H128:K128"/>
     <mergeCell ref="L128:M128"/>
     <mergeCell ref="N128:O128"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="C129:G129"/>
-    <mergeCell ref="H129:K129"/>
-    <mergeCell ref="L129:M129"/>
-    <mergeCell ref="N129:O129"/>
-    <mergeCell ref="P130:Q130"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="G131:I131"/>
-    <mergeCell ref="K131:Q131"/>
+    <mergeCell ref="P129:Q129"/>
+    <mergeCell ref="A130:F130"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="K130:Q130"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -1046,7 +1046,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 10:17 PM</t>
+    <t>Wednesday, 16 July, 2025 10:19 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -857,10 +857,13 @@
     <t>VOLTAREN 1% EMULGEL 25 GM</t>
   </si>
   <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>4:3</t>
+    <t>50.4900</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
@@ -962,10 +965,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>14:0</t>
+    <t>15:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1046,7 +1046,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 10:19 PM</t>
+    <t>Wednesday, 16 July, 2025 10:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4624,7 +4624,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4638,10 +4638,10 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>194</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4650,14 +4650,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>283</v>
+        <v>108</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4671,10 +4671,10 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>162</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4704,7 +4704,7 @@
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>29</v>
@@ -4716,14 +4716,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4733,11 +4733,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>22</v>
@@ -4749,7 +4749,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4766,11 +4766,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4782,7 +4782,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4815,7 +4815,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4848,7 +4848,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4865,7 +4865,7 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
@@ -4881,7 +4881,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4898,7 +4898,7 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
@@ -4914,7 +4914,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4947,14 +4947,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4980,14 +4980,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5013,7 +5013,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5030,11 +5030,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -5046,7 +5046,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5096,11 +5096,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5112,14 +5112,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5162,11 +5162,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>31</v>
@@ -5178,7 +5178,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5195,11 +5195,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>317</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>318</v>
@@ -5525,7 +5525,7 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
@@ -5702,7 +5702,7 @@
     </row>
     <row r="129" ht="25.5" customHeight="1">
       <c r="P129" s="13">
-        <v>7149.6499999999996</v>
+        <v>7207.4799999999996</v>
       </c>
       <c r="Q129" s="13"/>
     </row>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -236,6 +236,15 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
+  </si>
+  <si>
+    <t>148.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
     <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
   </si>
   <si>
@@ -479,9 +488,6 @@
     <t>74.00</t>
   </si>
   <si>
-    <t>74.0000</t>
-  </si>
-  <si>
     <t>GOUTIFADE 40 MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -500,6 +506,15 @@
     <t>33.6600</t>
   </si>
   <si>
+    <t>GYNOMONIX 80 MG 3 VAG. OVULES</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
     <t>HERO BABY DIGEST MILK 400 GM</t>
   </si>
   <si>
@@ -821,6 +836,15 @@
     <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
   </si>
   <si>
+    <t>TREFLUCAN 150MG 1 CAPS.</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
     <t>TRESIBA 100 I.U./ML FLEXTOUCH PRE-FILLED PEN</t>
   </si>
   <si>
@@ -1046,7 +1070,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 10:21 PM</t>
+    <t>Wednesday, 16 July, 2025 10:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2248,7 +2272,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2281,7 +2305,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2314,7 +2338,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2331,7 +2355,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>84</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2340,14 +2364,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2357,14 +2381,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2373,20 +2397,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -2397,7 +2421,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2413,7 +2437,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2430,7 +2454,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2446,13 +2470,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2463,7 +2487,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2479,7 +2503,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2496,7 +2520,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2512,7 +2536,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2522,11 +2546,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2538,14 +2562,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2555,14 +2579,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2571,14 +2595,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2588,14 +2612,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2604,14 +2628,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2621,14 +2645,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2658,7 +2682,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>29</v>
@@ -2670,14 +2694,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2687,14 +2711,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2703,14 +2727,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2720,14 +2744,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2743,7 +2767,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2760,7 +2784,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2776,7 +2800,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2786,14 +2810,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2819,14 +2843,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>130</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2835,14 +2859,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2852,14 +2876,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q42" s="12">
         <v>133</v>
-      </c>
-      <c t="s" r="Q42" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2875,7 +2899,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2892,7 +2916,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2908,7 +2932,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2925,7 +2949,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2941,7 +2965,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2958,7 +2982,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2991,7 +3015,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3007,7 +3031,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>147</v>
+        <v>31</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3017,14 +3041,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3033,14 +3057,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3050,14 +3074,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3066,14 +3090,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3090,7 +3114,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3106,7 +3130,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3120,10 +3144,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3132,14 +3156,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3149,11 +3173,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>29</v>
@@ -3165,14 +3189,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3182,14 +3206,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3198,14 +3222,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3215,14 +3239,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3231,14 +3255,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3248,11 +3272,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3264,31 +3288,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3304,7 +3328,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3321,7 +3345,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3337,7 +3361,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>178</v>
+        <v>89</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3347,14 +3371,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>179</v>
+        <v>79</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>33</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3363,14 +3387,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3380,14 +3404,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>122</v>
+        <v>180</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>123</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3403,24 +3427,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>183</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>73</v>
+        <v>184</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3429,14 +3453,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3446,14 +3470,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3462,14 +3486,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3479,11 +3503,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>73</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3502,7 +3526,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3512,14 +3536,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>64</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3528,14 +3552,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>190</v>
+        <v>89</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3552,7 +3576,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3568,24 +3592,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3594,14 +3618,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3634,21 +3658,21 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>199</v>
+        <v>29</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>39</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>29</v>
@@ -3660,14 +3684,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3677,11 +3701,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>29</v>
@@ -3693,14 +3717,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>86</v>
+        <v>204</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3717,7 +3741,7 @@
         <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3733,7 +3757,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3747,10 +3771,10 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3759,14 +3783,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3776,11 +3800,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3792,7 +3816,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3809,14 +3833,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3825,14 +3849,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3842,11 +3866,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3858,14 +3882,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3875,14 +3899,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3891,14 +3915,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3908,11 +3932,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3931,7 +3955,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3964,24 +3988,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>114</v>
+        <v>228</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3997,7 +4021,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4007,11 +4031,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -4023,31 +4047,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4056,28 +4080,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>35</v>
+        <v>180</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>117</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -4089,14 +4113,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>235</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4106,14 +4130,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>163</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>237</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4129,24 +4153,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>239</v>
+        <v>22</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>240</v>
+        <v>35</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>241</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4155,14 +4179,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>22</v>
+        <v>240</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4172,14 +4196,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>242</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4188,14 +4212,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4205,14 +4229,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4221,14 +4245,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>250</v>
+        <v>22</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4238,14 +4262,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>126</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4254,14 +4278,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>41</v>
+        <v>251</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4271,14 +4295,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4287,14 +4311,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4304,14 +4328,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>39</v>
+        <v>256</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>257</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4320,14 +4344,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4337,14 +4361,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4353,14 +4377,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>261</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4370,7 +4394,7 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>39</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
@@ -4393,7 +4417,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4410,7 +4434,7 @@
         <v>265</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4426,7 +4450,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4436,11 +4460,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>29</v>
@@ -4452,14 +4476,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4469,11 +4493,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>221</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4485,14 +4509,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4502,14 +4526,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4518,14 +4542,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4535,14 +4559,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>274</v>
+        <v>225</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>275</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4551,14 +4575,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>277</v>
+        <v>89</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4568,11 +4592,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>23</v>
+        <v>276</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>22</v>
@@ -4584,14 +4608,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>277</v>
+        <v>89</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4601,7 +4625,7 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>214</v>
+        <v>279</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
@@ -4624,7 +4648,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4634,14 +4658,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>191</v>
+        <v>282</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4650,14 +4674,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>108</v>
+        <v>285</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4667,14 +4691,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>158</v>
+        <v>23</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4683,14 +4707,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>20</v>
+        <v>285</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4700,14 +4724,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>161</v>
+        <v>219</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4716,14 +4740,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>288</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4733,7 +4757,7 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>289</v>
+        <v>196</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
@@ -4756,7 +4780,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4766,14 +4790,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>292</v>
+        <v>160</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4782,14 +4806,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4799,11 +4823,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>153</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>29</v>
@@ -4822,7 +4846,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>22</v>
+        <v>296</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4832,14 +4856,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>73</v>
+        <v>297</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>74</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4848,28 +4872,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>120</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4881,31 +4905,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>299</v>
+        <v>155</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>218</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4914,31 +4938,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4947,14 +4971,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>302</v>
+        <v>71</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4964,11 +4988,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>225</v>
+        <v>305</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>226</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4980,14 +5004,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>304</v>
+        <v>62</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4997,14 +5021,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>27</v>
+        <v>307</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>102</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5013,14 +5037,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5030,14 +5054,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>306</v>
+        <v>50</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>307</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5046,14 +5070,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>310</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5063,14 +5087,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>117</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>71</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5079,14 +5103,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>22</v>
+        <v>312</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5096,11 +5120,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>310</v>
+        <v>27</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>311</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5112,14 +5136,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>313</v>
+        <v>71</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5129,11 +5153,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>27</v>
+        <v>314</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>102</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5145,14 +5169,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5162,14 +5186,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>315</v>
+        <v>222</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>316</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>31</v>
+        <v>71</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5185,7 +5209,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5195,14 +5219,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>51</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>318</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5211,14 +5235,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>86</v>
+        <v>321</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5228,14 +5252,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>320</v>
+        <v>27</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>321</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5251,7 +5275,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>323</v>
+        <v>89</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5261,14 +5285,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5277,14 +5301,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>327</v>
+        <v>89</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5294,14 +5318,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>321</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>22</v>
+        <v>326</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5310,14 +5334,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5327,14 +5351,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>262</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5343,14 +5367,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>22</v>
+        <v>331</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5360,14 +5384,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>264</v>
+        <v>332</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>265</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5376,14 +5400,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>62</v>
+        <v>335</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5393,14 +5417,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>50</v>
+        <v>336</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>51</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5409,14 +5433,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5426,11 +5450,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>335</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5442,14 +5466,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5459,11 +5483,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
@@ -5475,14 +5499,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>277</v>
+        <v>62</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5508,14 +5532,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5525,11 +5549,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>299</v>
+        <v>342</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
@@ -5541,14 +5565,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5558,14 +5582,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>225</v>
+        <v>269</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>51</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5574,14 +5598,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>71</v>
+        <v>285</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5591,11 +5615,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>217</v>
+        <v>50</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>218</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>12</v>
@@ -5607,14 +5631,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5624,11 +5648,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>225</v>
+        <v>307</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>226</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>12</v>
@@ -5640,14 +5664,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5657,14 +5681,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>32</v>
+        <v>230</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5673,14 +5697,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5690,49 +5714,148 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>32</v>
+        <v>222</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>325</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q128" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>350</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
         <v>71</v>
       </c>
-    </row>
-    <row r="129" ht="25.5" customHeight="1">
-      <c r="P129" s="13">
-        <v>7207.4799999999996</v>
-      </c>
-      <c r="Q129" s="13"/>
-    </row>
-    <row r="130" ht="16.5" customHeight="1">
-      <c t="s" r="A130" s="14">
-        <v>345</v>
-      </c>
-      <c r="B130" s="14"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
-      <c t="s" r="G130" s="15">
-        <v>346</v>
-      </c>
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
-      <c r="J130" s="16"/>
-      <c t="s" r="K130" s="17">
-        <v>347</v>
-      </c>
-      <c r="L130" s="17"/>
-      <c r="M130" s="17"/>
-      <c r="N130" s="17"/>
-      <c r="O130" s="17"/>
-      <c r="P130" s="17"/>
-      <c r="Q130" s="17"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>49</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>230</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>231</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>351</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>89</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>49</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>32</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>352</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>31</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>49</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>32</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>333</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="P132" s="13">
+        <v>7378.4799999999996</v>
+      </c>
+      <c r="Q132" s="13"/>
+    </row>
+    <row r="133" ht="16.5" customHeight="1">
+      <c t="s" r="A133" s="14">
+        <v>353</v>
+      </c>
+      <c r="B133" s="14"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c t="s" r="G133" s="15">
+        <v>354</v>
+      </c>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
+      <c r="J133" s="16"/>
+      <c t="s" r="K133" s="17">
+        <v>355</v>
+      </c>
+      <c r="L133" s="17"/>
+      <c r="M133" s="17"/>
+      <c r="N133" s="17"/>
+      <c r="O133" s="17"/>
+      <c r="P133" s="17"/>
+      <c r="Q133" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="622">
+  <mergeCells count="637">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6351,10 +6474,25 @@
     <mergeCell ref="H128:K128"/>
     <mergeCell ref="L128:M128"/>
     <mergeCell ref="N128:O128"/>
-    <mergeCell ref="P129:Q129"/>
-    <mergeCell ref="A130:F130"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="K130:Q130"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="P132:Q132"/>
+    <mergeCell ref="A133:F133"/>
+    <mergeCell ref="G133:I133"/>
+    <mergeCell ref="K133:Q133"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -821,216 +821,228 @@
     <t>50.00</t>
   </si>
   <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>THIOTACID 300MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
+  </si>
+  <si>
+    <t>TREFLUCAN 150MG 1 CAPS.</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>TRESIBA 100 I.U./ML FLEXTOUCH PRE-FILLED PEN</t>
+  </si>
+  <si>
+    <t>550.00</t>
+  </si>
+  <si>
+    <t>550.0000</t>
+  </si>
+  <si>
+    <t>URGINAFECT 10MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 1% EMULGEL 25 GM</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>50.4900</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>16.3200</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8538:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>XITHRONE 200 MG/5ML SUSP. 25 ML</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>ZINCTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>ZOVIRAX D.S 400MG/5ML SUSP.100 ML</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
+    <t>اسيتون ايفا</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>ايزي سويت قطعه</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>42:0</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>جل هير كود 185 مل</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>ريكسونا بليه بودر دراي</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>زيت فاتيكا وسط 90 مل</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>شاش 15 سم</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>شامبو فاتيكا 180مل</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>شاور جل بلو لاين</t>
+  </si>
+  <si>
     <t>50.0000</t>
   </si>
   <si>
-    <t>THIOTACID 300MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
-  </si>
-  <si>
-    <t>TREFLUCAN 150MG 1 CAPS.</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>TRESIBA 100 I.U./ML FLEXTOUCH PRE-FILLED PEN</t>
-  </si>
-  <si>
-    <t>550.00</t>
-  </si>
-  <si>
-    <t>550.0000</t>
-  </si>
-  <si>
-    <t>URGINAFECT 10MG 20 F.C. TAB</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>35.5000</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 1% EMULGEL 25 GM</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>50.4900</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>16.3200</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8538:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>XITHRONE 200 MG/5ML SUSP. 25 ML</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>ZINCTRON 30 CAPS</t>
-  </si>
-  <si>
-    <t>ZOVIRAX D.S 400MG/5ML SUSP.100 ML</t>
-  </si>
-  <si>
-    <t>اسيتون ايفا</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>ايزي سويت قطعه</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">برفان القصاص </t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>42:0</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2.5 سم</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>جل هير كود 185 مل</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>ريكسونا بليه بودر دراي</t>
-  </si>
-  <si>
-    <t>37.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>زيت فاتيكا وسط 90 مل</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>شاش 15 سم</t>
-  </si>
-  <si>
-    <t>20:0</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاش 7 سم </t>
-  </si>
-  <si>
-    <t>18:0</t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>شامبو فاتيكا 180مل</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>شاور جل بلو لاين</t>
-  </si>
-  <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
@@ -1070,7 +1082,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 10:22 PM</t>
+    <t>Wednesday, 16 July, 2025 10:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4483,7 +4495,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4500,7 +4512,7 @@
         <v>270</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4945,7 +4957,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4959,10 +4971,10 @@
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>74</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4971,7 +4983,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4988,7 +5000,7 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
@@ -5004,7 +5016,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -5021,7 +5033,7 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
@@ -5037,7 +5049,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5070,14 +5082,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5103,14 +5115,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5136,7 +5148,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5153,11 +5165,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5169,7 +5181,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5202,14 +5214,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5219,14 +5231,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5235,14 +5247,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>321</v>
+        <v>22</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5252,11 +5264,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>27</v>
+        <v>322</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>105</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5268,14 +5280,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>89</v>
+        <v>325</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5285,14 +5297,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>323</v>
+        <v>27</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>324</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5301,7 +5313,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5318,14 +5330,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>51</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>326</v>
+        <v>31</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5334,7 +5346,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5351,14 +5363,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>329</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>31</v>
+        <v>330</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5367,14 +5379,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>331</v>
+        <v>89</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5384,14 +5396,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5400,14 +5412,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5417,14 +5429,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>22</v>
+        <v>62</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5440,7 +5452,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>31</v>
+        <v>338</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5450,14 +5462,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>267</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5466,14 +5478,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5483,11 +5495,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>269</v>
+        <v>341</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
@@ -5499,14 +5511,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5516,11 +5528,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>50</v>
+        <v>269</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>51</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5532,14 +5544,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5549,11 +5561,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>342</v>
+        <v>50</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>343</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
@@ -5565,14 +5577,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5582,11 +5594,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>269</v>
+        <v>346</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>270</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>12</v>
@@ -5598,14 +5610,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>285</v>
+        <v>62</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5615,11 +5627,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>50</v>
+        <v>269</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>51</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>12</v>
@@ -5631,14 +5643,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>22</v>
+        <v>285</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5648,11 +5660,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>307</v>
+        <v>50</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>347</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>12</v>
@@ -5664,14 +5676,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5681,14 +5693,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>230</v>
+        <v>308</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5697,14 +5709,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5714,14 +5726,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>223</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5730,7 +5742,7 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
@@ -5747,11 +5759,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>12</v>
@@ -5763,14 +5775,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5780,11 +5792,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>32</v>
+        <v>230</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>33</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>12</v>
@@ -5796,14 +5808,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5817,45 +5829,78 @@
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>333</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q131" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>356</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>31</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>49</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>32</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>336</v>
+      </c>
+      <c t="s" r="Q132" s="12">
         <v>71</v>
       </c>
     </row>
-    <row r="132" ht="25.5" customHeight="1">
-      <c r="P132" s="13">
-        <v>7378.4799999999996</v>
-      </c>
-      <c r="Q132" s="13"/>
-    </row>
-    <row r="133" ht="16.5" customHeight="1">
-      <c t="s" r="A133" s="14">
-        <v>353</v>
-      </c>
-      <c r="B133" s="14"/>
-      <c r="C133" s="14"/>
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
-      <c t="s" r="G133" s="15">
-        <v>354</v>
-      </c>
-      <c r="H133" s="15"/>
-      <c r="I133" s="15"/>
-      <c r="J133" s="16"/>
-      <c t="s" r="K133" s="17">
-        <v>355</v>
-      </c>
-      <c r="L133" s="17"/>
-      <c r="M133" s="17"/>
-      <c r="N133" s="17"/>
-      <c r="O133" s="17"/>
-      <c r="P133" s="17"/>
-      <c r="Q133" s="17"/>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="P133" s="13">
+        <v>7530.4799999999996</v>
+      </c>
+      <c r="Q133" s="13"/>
+    </row>
+    <row r="134" ht="16.5" customHeight="1">
+      <c t="s" r="A134" s="14">
+        <v>357</v>
+      </c>
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c t="s" r="G134" s="15">
+        <v>358</v>
+      </c>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="16"/>
+      <c t="s" r="K134" s="17">
+        <v>359</v>
+      </c>
+      <c r="L134" s="17"/>
+      <c r="M134" s="17"/>
+      <c r="N134" s="17"/>
+      <c r="O134" s="17"/>
+      <c r="P134" s="17"/>
+      <c r="Q134" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="637">
+  <mergeCells count="642">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6489,10 +6534,15 @@
     <mergeCell ref="H131:K131"/>
     <mergeCell ref="L131:M131"/>
     <mergeCell ref="N131:O131"/>
-    <mergeCell ref="P132:Q132"/>
-    <mergeCell ref="A133:F133"/>
-    <mergeCell ref="G133:I133"/>
-    <mergeCell ref="K133:Q133"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="P133:Q133"/>
+    <mergeCell ref="A134:F134"/>
+    <mergeCell ref="G134:I134"/>
+    <mergeCell ref="K134:Q134"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -1082,7 +1082,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 10:23 PM</t>
+    <t>Wednesday, 16 July, 2025 10:25 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -326,633 +326,642 @@
     <t>DEPO-PEN 1.2 MIU VIAL.</t>
   </si>
   <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>DIAMICRON MR 30 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>DOLCYL 2MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>8:1</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>7:3</t>
+  </si>
+  <si>
+    <t>19.9200</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>FERROTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>138.0000</t>
+  </si>
+  <si>
+    <t>FLACORT 30MG 20 TAB</t>
+  </si>
+  <si>
+    <t>164.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>FLIX NASAL SPRAY 50 MCG/METERED SPRAY DOSE</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>FORTAZEDIM 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>236.0000</t>
+  </si>
+  <si>
+    <t>FORTUM 1 GM VIAL.</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>106.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>88.0000</t>
+  </si>
+  <si>
+    <t>GAPTIN 300 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>GOUTIFADE 40 MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>GOUTYLESS 30 TABS</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>GYNOMONIX 80 MG 3 VAG. OVULES</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>HEDERA HELIX SYRAP</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>HERO BABY DIGEST MILK 400 GM</t>
+  </si>
+  <si>
+    <t>359.00</t>
+  </si>
+  <si>
+    <t>359.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>HUSH SACHET</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>134.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>0:9</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>9:1</t>
+  </si>
+  <si>
+    <t>LOLAWEST 3GM 6 SACHETS</t>
+  </si>
+  <si>
+    <t>MAVILOR 5MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
+    <t>MELLITOFIX 10MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>204.0000</t>
+  </si>
+  <si>
+    <t>MICONAZ 2% ORAL GEL 20 GM</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>MUCOSTA 100MG 20 TAB</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>10.5600</t>
+  </si>
+  <si>
+    <t>NEVILOB 2.5 MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>152.0000</t>
+  </si>
+  <si>
+    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>NORGESIC 20 TAB.</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>OMEGA ZAD SYURP 100 ML</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>OREX-EC ORAL SPRAY 60 ML</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>OTAL EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>PANADOL JOINT 24 ER TABS.</t>
+  </si>
+  <si>
+    <t>67.0000</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>PERIOCARE MOUTH SPRAY</t>
+  </si>
+  <si>
+    <t>QUIBRON T/SR 300MG 100 TAB</t>
+  </si>
+  <si>
+    <t>1:35</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>0:8</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:5</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>6.7200</t>
+  </si>
+  <si>
+    <t>RHINEX 0.05% INFANTILE NASAL DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:12</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>14.1000</t>
+  </si>
+  <si>
+    <t>ROWACHOL 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>SAFETRIUM 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>273.0000</t>
+  </si>
+  <si>
+    <t>TEBONINA FORTE 40MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>THIOTACID 300MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
+  </si>
+  <si>
+    <t>TREFLUCAN 150MG 1 CAPS.</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>TRESIBA 100 I.U./ML FLEXTOUCH PRE-FILLED PEN</t>
+  </si>
+  <si>
+    <t>550.00</t>
+  </si>
+  <si>
+    <t>550.0000</t>
+  </si>
+  <si>
+    <t>URGINAFECT 10MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 1% EMULGEL 25 GM</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>50.4900</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>16.3200</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8538:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>XITHRONE 200 MG/5ML SUSP. 25 ML</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>ZINCTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>ZOVIRAX D.S 400MG/5ML SUSP.100 ML</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
+    <t>اسيتون ايفا</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>ايزي سويت قطعه</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>42:0</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
     <t>25.0000</t>
   </si>
   <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>3:4</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>DIAMICRON MR 30 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>DOLCYL 2MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>8:1</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>7:3</t>
-  </si>
-  <si>
-    <t>19.9200</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>FERROTRON 30 CAPS</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>138.0000</t>
-  </si>
-  <si>
-    <t>FLACORT 30MG 20 TAB</t>
-  </si>
-  <si>
-    <t>164.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>FLIX NASAL SPRAY 50 MCG/METERED SPRAY DOSE</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>FORTAZEDIM 1 GM VIAL</t>
-  </si>
-  <si>
-    <t>59.00</t>
-  </si>
-  <si>
-    <t>236.0000</t>
-  </si>
-  <si>
-    <t>FORTUM 1 GM VIAL.</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>106.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>88.0000</t>
-  </si>
-  <si>
-    <t>GAPTIN 300 MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>74.00</t>
-  </si>
-  <si>
-    <t>GOUTIFADE 40 MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>GOUTYLESS 30 TABS</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
-    <t>GYNOMONIX 80 MG 3 VAG. OVULES</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
-    <t>HERO BABY DIGEST MILK 400 GM</t>
-  </si>
-  <si>
-    <t>359.00</t>
-  </si>
-  <si>
-    <t>359.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
-    <t>HUSH SACHET</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
-  </si>
-  <si>
-    <t>67.00</t>
-  </si>
-  <si>
-    <t>134.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
-  </si>
-  <si>
-    <t>0:9</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>9:1</t>
-  </si>
-  <si>
-    <t>LOLAWEST 3GM 6 SACHETS</t>
-  </si>
-  <si>
-    <t>MAVILOR 5MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>34.6500</t>
-  </si>
-  <si>
-    <t>MELLITOFIX 10MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>204.00</t>
-  </si>
-  <si>
-    <t>204.0000</t>
-  </si>
-  <si>
-    <t>MICONAZ 2% ORAL GEL 20 GM</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>6:2</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>MUCOSTA 100MG 20 TAB</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>3:3</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>10.5600</t>
-  </si>
-  <si>
-    <t>NEVILOB 2.5 MG 14 TAB.</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>152.0000</t>
-  </si>
-  <si>
-    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>NORGESIC 20 TAB.</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>OMEGA ZAD SYURP 100 ML</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>OTAL EAR DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>19.00</t>
-  </si>
-  <si>
-    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>PANADOL JOINT 24 ER TABS.</t>
-  </si>
-  <si>
-    <t>67.0000</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>102.0000</t>
-  </si>
-  <si>
-    <t>PERIOCARE MOUTH SPRAY</t>
-  </si>
-  <si>
-    <t>QUIBRON T/SR 300MG 100 TAB</t>
-  </si>
-  <si>
-    <t>1:35</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>0:8</t>
-  </si>
-  <si>
-    <t>RANI-F 20MG 6 SACHETS</t>
-  </si>
-  <si>
-    <t>5:5</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>6.7200</t>
-  </si>
-  <si>
-    <t>RHINEX 0.05% INFANTILE NASAL DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>0:12</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>14.1000</t>
-  </si>
-  <si>
-    <t>ROWACHOL 45 CAPSULES</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>SAFETRIUM 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>136.50</t>
-  </si>
-  <si>
-    <t>273.0000</t>
-  </si>
-  <si>
-    <t>TEBONINA FORTE 40MG 20 F.C. TAB</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>THIOTACID 300MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
-  </si>
-  <si>
-    <t>TREFLUCAN 150MG 1 CAPS.</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>TRESIBA 100 I.U./ML FLEXTOUCH PRE-FILLED PEN</t>
-  </si>
-  <si>
-    <t>550.00</t>
-  </si>
-  <si>
-    <t>550.0000</t>
-  </si>
-  <si>
-    <t>URGINAFECT 10MG 20 F.C. TAB</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>35.5000</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 1% EMULGEL 25 GM</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>50.4900</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>16.3200</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8538:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>XITHRONE 200 MG/5ML SUSP. 25 ML</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>ZINCTRON 30 CAPS</t>
-  </si>
-  <si>
-    <t>ZOVIRAX D.S 400MG/5ML SUSP.100 ML</t>
-  </si>
-  <si>
-    <t>192.0000</t>
-  </si>
-  <si>
-    <t>اسيتون ايفا</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>ايزي سويت قطعه</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">برفان القصاص </t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>42:0</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2.5 سم</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
     <t>جل هير كود 185 مل</t>
   </si>
   <si>
@@ -1007,30 +1016,30 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>شاش 15 سم</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
     <t>12.0000</t>
   </si>
   <si>
-    <t>شاش 15 سم</t>
-  </si>
-  <si>
-    <t>20:0</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاش 7 سم </t>
-  </si>
-  <si>
-    <t>18:0</t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
     <t>شامبو فاتيكا 180مل</t>
   </si>
   <si>
@@ -1040,9 +1049,6 @@
     <t>شاور جل بلو لاين</t>
   </si>
   <si>
-    <t>50.0000</t>
-  </si>
-  <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
@@ -1082,7 +1088,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 10:25 PM</t>
+    <t>Wednesday, 16 July, 2025 10:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2581,7 +2587,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2595,10 +2601,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2607,14 +2613,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2624,11 +2630,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>29</v>
@@ -2640,14 +2646,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2673,14 +2679,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2690,7 +2696,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2706,14 +2712,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2723,11 +2729,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>29</v>
@@ -2739,7 +2745,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2760,7 +2766,7 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2772,7 +2778,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2789,11 +2795,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>29</v>
@@ -2805,7 +2811,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2822,11 +2828,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2838,14 +2844,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2855,11 +2861,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>41</v>
@@ -2871,14 +2877,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2892,10 +2898,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2904,7 +2910,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2921,11 +2927,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2937,7 +2943,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2954,11 +2960,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>29</v>
@@ -2970,7 +2976,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2987,11 +2993,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -3003,7 +3009,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -3020,11 +3026,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>31</v>
@@ -3036,7 +3042,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -3053,11 +3059,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -3069,14 +3075,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3086,11 +3092,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>22</v>
@@ -3102,14 +3108,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3119,11 +3125,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>29</v>
@@ -3135,7 +3141,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3152,7 +3158,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -3168,7 +3174,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3185,11 +3191,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>29</v>
@@ -3201,7 +3207,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3218,11 +3224,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>29</v>
@@ -3234,7 +3240,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3251,11 +3257,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3267,24 +3273,24 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>115</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -3307,7 +3313,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3324,7 +3330,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3340,7 +3346,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3357,7 +3363,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3373,21 +3379,21 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3399,31 +3405,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3439,24 +3445,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>183</v>
+        <v>22</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3478,15 +3484,15 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>125</v>
+        <v>187</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3498,14 +3504,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3515,14 +3521,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3531,14 +3537,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3548,14 +3554,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3564,14 +3570,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3581,14 +3587,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>85</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3604,7 +3610,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3614,11 +3620,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>63</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>64</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3630,14 +3636,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>195</v>
+        <v>31</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3647,14 +3653,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>63</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3663,28 +3669,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>29</v>
+        <v>198</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>39</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>29</v>
@@ -3696,24 +3702,24 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>39</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3736,7 +3742,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3746,11 +3752,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>29</v>
@@ -3762,14 +3768,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>29</v>
+        <v>207</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3783,7 +3789,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>64</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>29</v>
@@ -3795,14 +3801,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3812,14 +3818,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3835,7 +3841,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3918,7 +3924,7 @@
         <v>220</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3934,7 +3940,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3951,7 +3957,7 @@
         <v>223</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3967,7 +3973,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4000,7 +4006,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4014,7 +4020,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -4026,14 +4032,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4043,7 +4049,7 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>230</v>
+        <v>39</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
@@ -4066,24 +4072,24 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>117</v>
+        <v>233</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4099,7 +4105,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4109,11 +4115,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>180</v>
+        <v>235</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -4125,31 +4131,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4158,28 +4164,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>35</v>
+        <v>183</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -4191,14 +4197,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4208,14 +4214,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>241</v>
+        <v>164</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>242</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4231,24 +4237,24 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>245</v>
+        <v>35</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>246</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4257,14 +4263,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>22</v>
+        <v>245</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4274,14 +4280,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>249</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>247</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4290,14 +4296,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4307,14 +4313,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4323,14 +4329,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>255</v>
+        <v>22</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4340,14 +4346,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>129</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4356,14 +4362,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>41</v>
+        <v>256</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4373,14 +4379,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4389,14 +4395,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4406,14 +4412,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>39</v>
+        <v>261</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>262</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4422,14 +4428,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4439,14 +4445,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4455,14 +4461,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>266</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4472,7 +4478,7 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>39</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
@@ -4495,7 +4501,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4528,7 +4534,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4538,11 +4544,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>29</v>
@@ -4554,14 +4560,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4571,11 +4577,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>225</v>
+        <v>274</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>226</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4594,7 +4600,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4611,7 +4617,7 @@
         <v>277</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4627,7 +4633,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4637,11 +4643,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>279</v>
+        <v>228</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>280</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4653,7 +4659,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4670,14 +4676,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4686,14 +4692,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>285</v>
+        <v>89</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4703,14 +4709,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4719,14 +4725,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>285</v>
+        <v>89</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4736,14 +4742,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>219</v>
+        <v>286</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4752,14 +4758,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4769,11 +4775,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>196</v>
+        <v>23</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>22</v>
@@ -4785,14 +4791,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4802,14 +4808,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>160</v>
+        <v>222</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4818,14 +4824,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4835,14 +4841,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>294</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4851,14 +4857,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>296</v>
+        <v>112</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4868,14 +4874,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>297</v>
+        <v>161</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4884,14 +4890,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4901,14 +4907,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>300</v>
+        <v>164</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4917,14 +4923,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>298</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4934,14 +4940,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>155</v>
+        <v>299</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>156</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4950,14 +4956,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4967,14 +4973,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>73</v>
+        <v>302</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4983,31 +4989,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>306</v>
+        <v>156</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5016,28 +5022,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>308</v>
+        <v>73</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>223</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>22</v>
@@ -5049,14 +5055,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5066,14 +5072,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>50</v>
+        <v>308</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5082,14 +5088,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>311</v>
+        <v>62</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5099,14 +5105,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>230</v>
+        <v>310</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5115,14 +5121,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>313</v>
+        <v>69</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5132,14 +5138,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5148,14 +5154,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>71</v>
+        <v>313</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5165,11 +5171,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>315</v>
+        <v>235</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>316</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5181,14 +5187,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>315</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5198,14 +5204,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>222</v>
+        <v>27</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>120</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>71</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5214,14 +5220,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5231,14 +5237,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5247,14 +5253,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5264,14 +5270,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>322</v>
+        <v>225</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>323</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5280,14 +5286,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>325</v>
+        <v>89</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5297,14 +5303,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>27</v>
+        <v>322</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>105</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5313,14 +5319,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5330,14 +5336,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5346,14 +5352,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>89</v>
+        <v>328</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5363,14 +5369,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>297</v>
+        <v>27</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>51</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>330</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5379,7 +5385,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5396,11 +5402,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>31</v>
@@ -5412,14 +5418,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>334</v>
+        <v>89</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5429,14 +5435,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>335</v>
+        <v>299</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>336</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>62</v>
+        <v>333</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5445,14 +5451,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>338</v>
+        <v>89</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5462,14 +5468,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>332</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>22</v>
+        <v>62</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5478,14 +5484,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>31</v>
+        <v>336</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5495,14 +5501,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>267</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5511,14 +5517,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>22</v>
+        <v>340</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5528,14 +5534,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>269</v>
+        <v>341</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5544,14 +5550,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5561,11 +5567,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>50</v>
+        <v>344</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>51</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
@@ -5584,7 +5590,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5594,11 +5600,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>346</v>
+        <v>274</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>347</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>12</v>
@@ -5610,7 +5616,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5627,11 +5633,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>269</v>
+        <v>50</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>343</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>12</v>
@@ -5643,14 +5649,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>285</v>
+        <v>89</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5660,11 +5666,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>50</v>
+        <v>348</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>51</v>
+        <v>349</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>12</v>
@@ -5683,7 +5689,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5693,11 +5699,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>351</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>12</v>
@@ -5709,14 +5715,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5726,14 +5732,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>230</v>
+        <v>50</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
         <v>51</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5742,14 +5748,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5759,11 +5765,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>222</v>
+        <v>310</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>223</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>12</v>
@@ -5782,7 +5788,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5792,14 +5798,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>231</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5815,7 +5821,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5825,11 +5831,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>32</v>
+        <v>225</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>33</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>12</v>
@@ -5848,7 +5854,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5858,49 +5864,115 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>32</v>
+        <v>235</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>336</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q132" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>357</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>89</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>49</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>32</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
+        <v>358</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>31</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>49</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>32</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>338</v>
+      </c>
+      <c t="s" r="Q134" s="12">
         <v>71</v>
       </c>
     </row>
-    <row r="133" ht="24.75" customHeight="1">
-      <c r="P133" s="13">
-        <v>7530.4799999999996</v>
-      </c>
-      <c r="Q133" s="13"/>
-    </row>
-    <row r="134" ht="16.5" customHeight="1">
-      <c t="s" r="A134" s="14">
-        <v>357</v>
-      </c>
-      <c r="B134" s="14"/>
-      <c r="C134" s="14"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
-      <c t="s" r="G134" s="15">
-        <v>358</v>
-      </c>
-      <c r="H134" s="15"/>
-      <c r="I134" s="15"/>
-      <c r="J134" s="16"/>
-      <c t="s" r="K134" s="17">
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="P135" s="13">
+        <v>7654.4799999999996</v>
+      </c>
+      <c r="Q135" s="13"/>
+    </row>
+    <row r="136" ht="16.5" customHeight="1">
+      <c t="s" r="A136" s="14">
         <v>359</v>
       </c>
-      <c r="L134" s="17"/>
-      <c r="M134" s="17"/>
-      <c r="N134" s="17"/>
-      <c r="O134" s="17"/>
-      <c r="P134" s="17"/>
-      <c r="Q134" s="17"/>
+      <c r="B136" s="14"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="14"/>
+      <c t="s" r="G136" s="15">
+        <v>360</v>
+      </c>
+      <c r="H136" s="15"/>
+      <c r="I136" s="15"/>
+      <c r="J136" s="16"/>
+      <c t="s" r="K136" s="17">
+        <v>361</v>
+      </c>
+      <c r="L136" s="17"/>
+      <c r="M136" s="17"/>
+      <c r="N136" s="17"/>
+      <c r="O136" s="17"/>
+      <c r="P136" s="17"/>
+      <c r="Q136" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="642">
+  <mergeCells count="652">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6539,10 +6611,20 @@
     <mergeCell ref="H132:K132"/>
     <mergeCell ref="L132:M132"/>
     <mergeCell ref="N132:O132"/>
-    <mergeCell ref="P133:Q133"/>
-    <mergeCell ref="A134:F134"/>
-    <mergeCell ref="G134:I134"/>
-    <mergeCell ref="K134:Q134"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="P135:Q135"/>
+    <mergeCell ref="A136:F136"/>
+    <mergeCell ref="G136:I136"/>
+    <mergeCell ref="K136:Q136"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -1088,7 +1088,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 10:30 PM</t>
+    <t>Wednesday, 16 July, 2025 10:36 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-16_00-00.xlsx
+++ b/DaySale_2025-07-16_00-00.xlsx
@@ -194,6 +194,15 @@
     <t>47.0000</t>
   </si>
   <si>
+    <t>CALCITRON 30 CAPS.</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>87.1200</t>
+  </si>
+  <si>
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -749,9 +758,6 @@
     <t>1:35</t>
   </si>
   <si>
-    <t>132.00</t>
-  </si>
-  <si>
     <t>0:8</t>
   </si>
   <si>
@@ -806,6 +812,9 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>SETRONOMET 4 MG 4 ORAL DIS. TABS.</t>
+  </si>
+  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
@@ -887,6 +896,15 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>VITONEX 30 CAPS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 1% EMULGEL 25 GM</t>
   </si>
   <si>
@@ -1088,7 +1106,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Wednesday, 16 July, 2025 10:36 PM</t>
+    <t>Wednesday, 16 July, 2025 10:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2158,7 +2176,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2168,14 +2186,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2184,14 +2202,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2224,7 +2242,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2234,14 +2252,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>71</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2250,14 +2268,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2267,14 +2285,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>74</v>
-      </c>
-      <c t="s" r="Q23" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2290,7 +2308,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2307,7 +2325,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2323,7 +2341,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2356,7 +2374,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2389,7 +2407,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2406,7 +2424,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>87</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2415,14 +2433,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2432,14 +2450,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2448,20 +2466,20 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -2472,7 +2490,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2488,7 +2506,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2505,7 +2523,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2521,13 +2539,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2538,7 +2556,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2554,7 +2572,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2571,7 +2589,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2587,7 +2605,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2597,14 +2615,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2630,14 +2648,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2646,14 +2664,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2663,14 +2681,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2679,14 +2697,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2696,14 +2714,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2733,7 +2751,7 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>29</v>
@@ -2745,14 +2763,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2762,14 +2780,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2778,14 +2796,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2795,14 +2813,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2818,7 +2836,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2835,7 +2853,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2851,7 +2869,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2861,14 +2879,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2894,14 +2912,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>134</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2910,14 +2928,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2927,14 +2945,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q43" s="12">
         <v>137</v>
-      </c>
-      <c t="s" r="Q43" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2950,7 +2968,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2967,7 +2985,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2983,7 +3001,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3000,7 +3018,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3016,7 +3034,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3033,7 +3051,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3066,7 +3084,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3082,7 +3100,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>151</v>
+        <v>31</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3092,14 +3110,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3108,14 +3126,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3125,14 +3143,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3141,14 +3159,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3162,10 +3180,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3174,14 +3192,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3191,14 +3209,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3214,7 +3232,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3247,7 +3265,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3264,7 +3282,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3280,21 +3298,21 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3306,24 +3324,24 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -3346,7 +3364,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3363,7 +3381,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3379,7 +3397,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3396,7 +3414,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3412,21 +3430,21 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3438,31 +3456,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>183</v>
+        <v>82</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3478,24 +3496,24 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>186</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>33</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3517,15 +3535,15 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>126</v>
+        <v>190</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3537,14 +3555,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>192</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3554,14 +3572,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3570,14 +3588,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3587,14 +3605,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3603,14 +3621,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3620,14 +3638,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>88</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3643,7 +3661,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3653,11 +3671,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>63</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>64</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3669,14 +3687,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>198</v>
+        <v>31</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3686,14 +3704,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>66</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3702,28 +3720,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>29</v>
+        <v>201</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>29</v>
@@ -3735,24 +3753,24 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>39</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3775,7 +3793,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>207</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3785,11 +3803,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>29</v>
@@ -3801,14 +3819,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>29</v>
+        <v>210</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3822,7 +3840,7 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>64</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>29</v>
@@ -3834,14 +3852,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3851,14 +3869,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3874,7 +3892,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3957,7 +3975,7 @@
         <v>223</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3973,7 +3991,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3990,7 +4008,7 @@
         <v>226</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4006,7 +4024,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4039,7 +4057,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4049,11 +4067,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>39</v>
+        <v>231</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -4065,14 +4083,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4082,11 +4100,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>233</v>
+        <v>39</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -4098,7 +4116,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4115,11 +4133,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -4138,24 +4156,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>118</v>
+        <v>238</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4164,31 +4182,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4197,14 +4215,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4214,11 +4232,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -4230,28 +4248,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>121</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4263,31 +4281,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>245</v>
+        <v>22</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>246</v>
+        <v>35</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>209</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>247</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4296,14 +4314,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4313,14 +4331,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>250</v>
+        <v>62</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>29</v>
+        <v>249</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4329,14 +4347,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>22</v>
+        <v>251</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4346,14 +4364,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4362,14 +4380,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>256</v>
+        <v>22</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4379,14 +4397,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4395,14 +4413,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4412,11 +4430,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4428,14 +4446,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>41</v>
+        <v>262</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4449,10 +4467,10 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>264</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4461,14 +4479,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>266</v>
+        <v>41</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4478,14 +4496,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>39</v>
+        <v>265</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4494,14 +4512,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4511,14 +4529,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>269</v>
+        <v>39</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4527,14 +4545,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>269</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4544,11 +4562,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>39</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>29</v>
@@ -4560,14 +4578,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4577,14 +4595,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>106</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4593,14 +4611,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4610,11 +4628,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>29</v>
@@ -4626,14 +4644,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4643,11 +4661,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>228</v>
+        <v>277</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>229</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4659,14 +4677,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4676,14 +4694,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4692,14 +4710,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4709,11 +4727,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>283</v>
+        <v>231</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>284</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4725,14 +4743,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4742,14 +4760,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4758,14 +4776,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4775,14 +4793,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>23</v>
+        <v>286</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c t="